--- a/web/Content/Files/tallysheet_format_template.xlsx
+++ b/web/Content/Files/tallysheet_format_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Item No.</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Item Description</t>
+  </si>
+  <si>
+    <t>Volumetric Weight kg</t>
+  </si>
+  <si>
+    <t>Receiver Alternative Contact Number</t>
+  </si>
+  <si>
+    <t>Shipper Reference Number</t>
+  </si>
+  <si>
+    <t>Receiver Reference Number</t>
   </si>
 </sst>
 </file>
@@ -407,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -421,11 +433,14 @@
     <col min="5" max="5" width="50.77734375" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" style="4" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="4" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="18.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.77734375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" style="4" customWidth="1"/>
+    <col min="15" max="16" width="23.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -447,20 +462,32 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/web/Content/Files/tallysheet_format_template.xlsx
+++ b/web/Content/Files/tallysheet_format_template.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\work\entt.ost\web\Content\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Consignments" sheetId="1" r:id="rId3"/>
+    <sheet name="Consignments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,9 +45,6 @@
     <t>Receiver Alternative Contact Number</t>
   </si>
   <si>
-    <t>Item Weight kg</t>
-  </si>
-  <si>
     <t>Actual Item Weight kg</t>
   </si>
   <si>
@@ -50,9 +55,6 @@
   </si>
   <si>
     <t>Item Height cm</t>
-  </si>
-  <si>
-    <t>Volumetric Weight kg</t>
   </si>
   <si>
     <t>Actual Volumetric Weight kg</t>
@@ -66,23 +68,29 @@
   <si>
     <t>Receiver Reference Number</t>
   </si>
+  <si>
+    <t>Declared Item Weight kg</t>
+  </si>
+  <si>
+    <t>Declared Volumetric Weight kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14409]d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -91,7 +99,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,65 +114,334 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.25"/>
-    <col customWidth="1" min="2" max="4" width="16.38"/>
-    <col customWidth="1" min="5" max="5" width="44.38"/>
-    <col customWidth="1" min="6" max="6" width="16.38"/>
-    <col customWidth="1" min="7" max="7" width="19.88"/>
-    <col customWidth="1" min="8" max="8" width="27.75"/>
-    <col customWidth="1" min="9" max="9" width="12.0"/>
-    <col customWidth="1" min="10" max="10" width="17.0"/>
-    <col customWidth="1" min="11" max="11" width="11.88"/>
-    <col customWidth="1" min="12" max="12" width="12.25"/>
-    <col customWidth="1" min="13" max="13" width="12.13"/>
-    <col customWidth="1" min="14" max="14" width="16.63"/>
-    <col customWidth="1" min="15" max="15" width="21.63"/>
-    <col customWidth="1" min="16" max="16" width="16.38"/>
-    <col customWidth="1" min="17" max="18" width="20.75"/>
-    <col customWidth="1" min="19" max="28" width="7.63"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="28" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -190,37 +467,37 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:18" ht="14.25" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
@@ -240,7 +517,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:18" ht="14.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -260,7 +537,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -280,7 +557,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -300,7 +577,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:18" ht="14.25" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
@@ -320,7 +597,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:18" ht="14.25" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
@@ -340,7 +617,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:18" ht="14.25" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
@@ -360,7 +637,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:18" ht="14.25" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
@@ -380,7 +657,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:18" ht="14.25" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
@@ -400,7 +677,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -420,7 +697,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:18" ht="14.25" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -440,7 +717,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:18" ht="14.25" customHeight="1">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -460,7 +737,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:18" ht="14.25" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
@@ -480,7 +757,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:18" ht="14.25" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -500,7 +777,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:18" ht="14.25" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -520,7 +797,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:18" ht="14.25" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -540,7 +817,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:18" ht="14.25" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -560,7 +837,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:18" ht="14.25" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -580,7 +857,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:18" ht="14.25" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -600,7 +877,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:18" ht="14.25" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -620,7 +897,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:18" ht="14.25" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -640,7 +917,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:18" ht="14.25" customHeight="1">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -660,7 +937,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:18" ht="14.25" customHeight="1">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -680,7 +957,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:18" ht="14.25" customHeight="1">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -700,7 +977,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:18" ht="14.25" customHeight="1">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
@@ -720,7 +997,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:18" ht="14.25" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
@@ -740,7 +1017,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:18" ht="14.25" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
@@ -760,7 +1037,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:18" ht="14.25" customHeight="1">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
@@ -780,7 +1057,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:18" ht="14.25" customHeight="1">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
@@ -800,7 +1077,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:18" ht="14.25" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
@@ -820,7 +1097,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:18" ht="14.25" customHeight="1">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
@@ -840,7 +1117,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:18" ht="14.25" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
@@ -860,7 +1137,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:18" ht="14.25" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
@@ -880,7 +1157,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:18" ht="14.25" customHeight="1">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
@@ -900,7 +1177,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:18" ht="14.25" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
@@ -920,7 +1197,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:18" ht="14.25" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
@@ -940,7 +1217,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:18" ht="14.25" customHeight="1">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
@@ -960,7 +1237,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:18" ht="14.25" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
@@ -980,7 +1257,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:18" ht="14.25" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
@@ -1000,7 +1277,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:18" ht="14.25" customHeight="1">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
@@ -1020,7 +1297,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:18" ht="14.25" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
@@ -1040,7 +1317,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:18" ht="14.25" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -1060,7 +1337,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:18" ht="14.25" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
@@ -1080,7 +1357,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:18" ht="14.25" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -1100,7 +1377,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:18" ht="14.25" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -1120,7 +1397,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:18" ht="14.25" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -1140,7 +1417,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:18" ht="14.25" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -1160,7 +1437,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:18" ht="14.25" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
@@ -1180,7 +1457,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:18" ht="14.25" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
@@ -1200,7 +1477,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:18" ht="14.25" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
@@ -1220,7 +1497,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:18" ht="14.25" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
@@ -1240,7 +1517,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:18" ht="14.25" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
@@ -1260,7 +1537,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:18" ht="14.25" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
@@ -1280,7 +1557,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:18" ht="14.25" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
@@ -1300,7 +1577,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:18" ht="14.25" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
@@ -1320,7 +1597,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:18" ht="14.25" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
@@ -1340,7 +1617,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:18" ht="14.25" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
@@ -1360,7 +1637,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:18" ht="14.25" customHeight="1">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
@@ -1380,7 +1657,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:18" ht="14.25" customHeight="1">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
@@ -1400,7 +1677,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:18" ht="14.25" customHeight="1">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
@@ -1420,7 +1697,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:18" ht="14.25" customHeight="1">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
@@ -1440,7 +1717,7 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:18" ht="14.25" customHeight="1">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
@@ -1460,7 +1737,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:18" ht="14.25" customHeight="1">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="5"/>
@@ -1480,7 +1757,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:18" ht="14.25" customHeight="1">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
@@ -1500,7 +1777,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:18" ht="14.25" customHeight="1">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
@@ -1520,7 +1797,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:18" ht="14.25" customHeight="1">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="5"/>
@@ -1540,7 +1817,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:18" ht="14.25" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5"/>
@@ -1560,7 +1837,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:18" ht="14.25" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
@@ -1580,7 +1857,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:18" ht="14.25" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="5"/>
@@ -1600,7 +1877,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:18" ht="14.25" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -1620,7 +1897,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:18" ht="14.25" customHeight="1">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -1640,7 +1917,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:18" ht="14.25" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -1660,7 +1937,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:18" ht="14.25" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -1680,7 +1957,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:18" ht="14.25" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -1700,7 +1977,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:18" ht="14.25" customHeight="1">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="5"/>
@@ -1720,7 +1997,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:18" ht="14.25" customHeight="1">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
@@ -1740,7 +2017,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:18" ht="14.25" customHeight="1">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="5"/>
@@ -1760,7 +2037,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:18" ht="14.25" customHeight="1">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
@@ -1780,7 +2057,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:18" ht="14.25" customHeight="1">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
@@ -1800,7 +2077,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:18" ht="14.25" customHeight="1">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -1820,7 +2097,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:18" ht="14.25" customHeight="1">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
@@ -1840,7 +2117,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:18" ht="14.25" customHeight="1">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -1860,7 +2137,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:18" ht="14.25" customHeight="1">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
@@ -1880,7 +2157,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:18" ht="14.25" customHeight="1">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="5"/>
@@ -1900,7 +2177,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:18" ht="14.25" customHeight="1">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="5"/>
@@ -1920,7 +2197,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:18" ht="14.25" customHeight="1">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5"/>
@@ -1940,7 +2217,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:18" ht="14.25" customHeight="1">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="5"/>
@@ -1960,7 +2237,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:18" ht="14.25" customHeight="1">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5"/>
@@ -1980,7 +2257,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:18" ht="14.25" customHeight="1">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="5"/>
@@ -2000,7 +2277,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:18" ht="14.25" customHeight="1">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="5"/>
@@ -2020,7 +2297,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:18" ht="14.25" customHeight="1">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="5"/>
@@ -2040,7 +2317,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:18" ht="14.25" customHeight="1">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
@@ -2060,7 +2337,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:18" ht="14.25" customHeight="1">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="5"/>
@@ -2080,7 +2357,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:18" ht="14.25" customHeight="1">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="5"/>
@@ -2100,7 +2377,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:18" ht="14.25" customHeight="1">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="5"/>
@@ -2120,7 +2397,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:18" ht="14.25" customHeight="1">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="5"/>
@@ -2140,7 +2417,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:18" ht="14.25" customHeight="1">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="5"/>
@@ -2160,7 +2437,7 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:18" ht="14.25" customHeight="1">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="5"/>
@@ -2180,7 +2457,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:18" ht="14.25" customHeight="1">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
@@ -2200,7 +2477,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:18" ht="14.25" customHeight="1">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="5"/>
@@ -2220,7 +2497,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:18" ht="14.25" customHeight="1">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="5"/>
@@ -2240,7 +2517,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:18" ht="14.25" customHeight="1">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="5"/>
@@ -2260,7 +2537,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:18" ht="14.25" customHeight="1">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="5"/>
@@ -2280,7 +2557,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:18" ht="14.25" customHeight="1">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="5"/>
@@ -2300,7 +2577,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:18" ht="14.25" customHeight="1">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="5"/>
@@ -2320,7 +2597,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:18" ht="14.25" customHeight="1">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="5"/>
@@ -2340,7 +2617,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:18" ht="14.25" customHeight="1">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="5"/>
@@ -2360,7 +2637,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:18" ht="14.25" customHeight="1">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="5"/>
@@ -2380,7 +2657,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:18" ht="14.25" customHeight="1">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="5"/>
@@ -2400,7 +2677,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:18" ht="14.25" customHeight="1">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="5"/>
@@ -2420,7 +2697,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:18" ht="14.25" customHeight="1">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="5"/>
@@ -2440,7 +2717,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:18" ht="14.25" customHeight="1">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="5"/>
@@ -2460,7 +2737,7 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:18" ht="14.25" customHeight="1">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="5"/>
@@ -2480,7 +2757,7 @@
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:18" ht="14.25" customHeight="1">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="5"/>
@@ -2500,7 +2777,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:18" ht="14.25" customHeight="1">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="5"/>
@@ -2520,7 +2797,7 @@
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:18" ht="14.25" customHeight="1">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="5"/>
@@ -2540,7 +2817,7 @@
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:18" ht="14.25" customHeight="1">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="5"/>
@@ -2560,7 +2837,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:18" ht="14.25" customHeight="1">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="5"/>
@@ -2580,7 +2857,7 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:18" ht="14.25" customHeight="1">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="5"/>
@@ -2600,7 +2877,7 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:18" ht="14.25" customHeight="1">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="5"/>
@@ -2620,7 +2897,7 @@
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:18" ht="14.25" customHeight="1">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="5"/>
@@ -2640,7 +2917,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:18" ht="14.25" customHeight="1">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="5"/>
@@ -2660,7 +2937,7 @@
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:18" ht="14.25" customHeight="1">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="5"/>
@@ -2680,7 +2957,7 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:18" ht="14.25" customHeight="1">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="5"/>
@@ -2700,7 +2977,7 @@
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:18" ht="14.25" customHeight="1">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="5"/>
@@ -2720,7 +2997,7 @@
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:18" ht="14.25" customHeight="1">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="5"/>
@@ -2740,7 +3017,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:18" ht="14.25" customHeight="1">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="5"/>
@@ -2760,7 +3037,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:18" ht="14.25" customHeight="1">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="5"/>
@@ -2780,7 +3057,7 @@
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:18" ht="14.25" customHeight="1">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="5"/>
@@ -2800,7 +3077,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:18" ht="14.25" customHeight="1">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="5"/>
@@ -2820,7 +3097,7 @@
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:18" ht="14.25" customHeight="1">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="5"/>
@@ -2840,7 +3117,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:18" ht="14.25" customHeight="1">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="5"/>
@@ -2860,7 +3137,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:18" ht="14.25" customHeight="1">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="5"/>
@@ -2880,7 +3157,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:18" ht="14.25" customHeight="1">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="5"/>
@@ -2900,7 +3177,7 @@
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:18" ht="14.25" customHeight="1">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="5"/>
@@ -2920,7 +3197,7 @@
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:18" ht="14.25" customHeight="1">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="5"/>
@@ -2940,7 +3217,7 @@
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:18" ht="14.25" customHeight="1">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="5"/>
@@ -2960,7 +3237,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:18" ht="14.25" customHeight="1">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="5"/>
@@ -2980,7 +3257,7 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:18" ht="14.25" customHeight="1">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="5"/>
@@ -3000,7 +3277,7 @@
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:18" ht="14.25" customHeight="1">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="5"/>
@@ -3020,7 +3297,7 @@
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:18" ht="14.25" customHeight="1">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="5"/>
@@ -3040,7 +3317,7 @@
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:18" ht="14.25" customHeight="1">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="5"/>
@@ -3060,7 +3337,7 @@
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:18" ht="14.25" customHeight="1">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="5"/>
@@ -3080,7 +3357,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:18" ht="14.25" customHeight="1">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="5"/>
@@ -3100,7 +3377,7 @@
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:18" ht="14.25" customHeight="1">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="5"/>
@@ -3120,7 +3397,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:18" ht="14.25" customHeight="1">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="5"/>
@@ -3140,7 +3417,7 @@
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:18" ht="14.25" customHeight="1">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="5"/>
@@ -3160,7 +3437,7 @@
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:18" ht="14.25" customHeight="1">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="5"/>
@@ -3180,7 +3457,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:18" ht="14.25" customHeight="1">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="5"/>
@@ -3200,7 +3477,7 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:18" ht="14.25" customHeight="1">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="5"/>
@@ -3220,7 +3497,7 @@
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:18" ht="14.25" customHeight="1">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="5"/>
@@ -3240,7 +3517,7 @@
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:18" ht="14.25" customHeight="1">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="5"/>
@@ -3260,7 +3537,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:18" ht="14.25" customHeight="1">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="5"/>
@@ -3280,7 +3557,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:18" ht="14.25" customHeight="1">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="5"/>
@@ -3300,7 +3577,7 @@
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:18" ht="14.25" customHeight="1">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="5"/>
@@ -3320,7 +3597,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:18" ht="14.25" customHeight="1">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="5"/>
@@ -3340,7 +3617,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:18" ht="14.25" customHeight="1">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="5"/>
@@ -3360,7 +3637,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:18" ht="14.25" customHeight="1">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="5"/>
@@ -3380,7 +3657,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:18" ht="14.25" customHeight="1">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="5"/>
@@ -3400,7 +3677,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:18" ht="14.25" customHeight="1">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="5"/>
@@ -3420,7 +3697,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:18" ht="14.25" customHeight="1">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="5"/>
@@ -3440,7 +3717,7 @@
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:18" ht="14.25" customHeight="1">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="5"/>
@@ -3460,7 +3737,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:18" ht="14.25" customHeight="1">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="5"/>
@@ -3480,7 +3757,7 @@
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:18" ht="14.25" customHeight="1">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="5"/>
@@ -3500,7 +3777,7 @@
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:18" ht="14.25" customHeight="1">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="5"/>
@@ -3520,7 +3797,7 @@
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:18" ht="14.25" customHeight="1">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="5"/>
@@ -3540,7 +3817,7 @@
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:18" ht="14.25" customHeight="1">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="5"/>
@@ -3560,7 +3837,7 @@
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:18" ht="14.25" customHeight="1">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="5"/>
@@ -3580,7 +3857,7 @@
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:18" ht="14.25" customHeight="1">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="5"/>
@@ -3600,7 +3877,7 @@
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:18" ht="14.25" customHeight="1">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="5"/>
@@ -3620,7 +3897,7 @@
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:18" ht="14.25" customHeight="1">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="5"/>
@@ -3640,7 +3917,7 @@
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:18" ht="14.25" customHeight="1">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="5"/>
@@ -3660,7 +3937,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:18" ht="14.25" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="6"/>
       <c r="C174" s="5"/>
@@ -3680,7 +3957,7 @@
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:18" ht="14.25" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="5"/>
@@ -3700,7 +3977,7 @@
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:18" ht="14.25" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="5"/>
@@ -3720,7 +3997,7 @@
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:18" ht="14.25" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="5"/>
@@ -3740,7 +4017,7 @@
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:18" ht="14.25" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="5"/>
@@ -3760,7 +4037,7 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:18" ht="14.25" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="5"/>
@@ -3780,7 +4057,7 @@
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:18" ht="14.25" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="5"/>
@@ -3800,7 +4077,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:18" ht="14.25" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="5"/>
@@ -3820,7 +4097,7 @@
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:18" ht="14.25" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="5"/>
@@ -3840,7 +4117,7 @@
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:18" ht="14.25" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="5"/>
@@ -3860,7 +4137,7 @@
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:18" ht="14.25" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="5"/>
@@ -3880,7 +4157,7 @@
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:18" ht="14.25" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
       <c r="C185" s="5"/>
@@ -3900,7 +4177,7 @@
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:18" ht="14.25" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
       <c r="C186" s="5"/>
@@ -3920,7 +4197,7 @@
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:18" ht="14.25" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="5"/>
@@ -3940,7 +4217,7 @@
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:18" ht="14.25" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="5"/>
@@ -3960,7 +4237,7 @@
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:18" ht="14.25" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="5"/>
@@ -3980,7 +4257,7 @@
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:18" ht="14.25" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="5"/>
@@ -4000,7 +4277,7 @@
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:18" ht="14.25" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="5"/>
@@ -4020,7 +4297,7 @@
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:18" ht="14.25" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="5"/>
@@ -4040,7 +4317,7 @@
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:18" ht="14.25" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="5"/>
@@ -4060,7 +4337,7 @@
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:18" ht="14.25" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="5"/>
@@ -4080,7 +4357,7 @@
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:18" ht="14.25" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="5"/>
@@ -4100,7 +4377,7 @@
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:18" ht="14.25" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="5"/>
@@ -4120,7 +4397,7 @@
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:18" ht="14.25" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="5"/>
@@ -4140,7 +4417,7 @@
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:18" ht="14.25" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="5"/>
@@ -4160,7 +4437,7 @@
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:18" ht="14.25" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="5"/>
@@ -4180,7 +4457,7 @@
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:18" ht="14.25" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
       <c r="C200" s="5"/>
@@ -4200,7 +4477,7 @@
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:18" ht="14.25" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
       <c r="C201" s="5"/>
@@ -4220,7 +4497,7 @@
       <c r="Q201" s="5"/>
       <c r="R201" s="5"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:18" ht="14.25" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="6"/>
       <c r="C202" s="5"/>
@@ -4240,7 +4517,7 @@
       <c r="Q202" s="5"/>
       <c r="R202" s="5"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:18" ht="14.25" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
       <c r="C203" s="5"/>
@@ -4260,7 +4537,7 @@
       <c r="Q203" s="5"/>
       <c r="R203" s="5"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:18" ht="14.25" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
       <c r="C204" s="5"/>
@@ -4280,7 +4557,7 @@
       <c r="Q204" s="5"/>
       <c r="R204" s="5"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:18" ht="14.25" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
       <c r="C205" s="5"/>
@@ -4300,7 +4577,7 @@
       <c r="Q205" s="5"/>
       <c r="R205" s="5"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:18" ht="14.25" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
       <c r="C206" s="5"/>
@@ -4320,7 +4597,7 @@
       <c r="Q206" s="5"/>
       <c r="R206" s="5"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:18" ht="14.25" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="6"/>
       <c r="C207" s="5"/>
@@ -4340,7 +4617,7 @@
       <c r="Q207" s="5"/>
       <c r="R207" s="5"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:18" ht="14.25" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
       <c r="C208" s="5"/>
@@ -4360,7 +4637,7 @@
       <c r="Q208" s="5"/>
       <c r="R208" s="5"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:18" ht="14.25" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
       <c r="C209" s="5"/>
@@ -4380,7 +4657,7 @@
       <c r="Q209" s="5"/>
       <c r="R209" s="5"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:18" ht="14.25" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="6"/>
       <c r="C210" s="5"/>
@@ -4400,7 +4677,7 @@
       <c r="Q210" s="5"/>
       <c r="R210" s="5"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:18" ht="14.25" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
       <c r="C211" s="5"/>
@@ -4420,7 +4697,7 @@
       <c r="Q211" s="5"/>
       <c r="R211" s="5"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:18" ht="14.25" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
       <c r="C212" s="5"/>
@@ -4440,7 +4717,7 @@
       <c r="Q212" s="5"/>
       <c r="R212" s="5"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:18" ht="14.25" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="6"/>
       <c r="C213" s="5"/>
@@ -4460,7 +4737,7 @@
       <c r="Q213" s="5"/>
       <c r="R213" s="5"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:18" ht="14.25" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
       <c r="C214" s="5"/>
@@ -4480,7 +4757,7 @@
       <c r="Q214" s="5"/>
       <c r="R214" s="5"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:18" ht="14.25" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="6"/>
       <c r="C215" s="5"/>
@@ -4500,7 +4777,7 @@
       <c r="Q215" s="5"/>
       <c r="R215" s="5"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:18" ht="14.25" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
       <c r="C216" s="5"/>
@@ -4520,7 +4797,7 @@
       <c r="Q216" s="5"/>
       <c r="R216" s="5"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:18" ht="14.25" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
       <c r="C217" s="5"/>
@@ -4540,7 +4817,7 @@
       <c r="Q217" s="5"/>
       <c r="R217" s="5"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:18" ht="14.25" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
       <c r="C218" s="5"/>
@@ -4560,7 +4837,7 @@
       <c r="Q218" s="5"/>
       <c r="R218" s="5"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:18" ht="14.25" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
       <c r="C219" s="5"/>
@@ -4580,7 +4857,7 @@
       <c r="Q219" s="5"/>
       <c r="R219" s="5"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:18" ht="14.25" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
       <c r="C220" s="5"/>
@@ -4600,7 +4877,7 @@
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:18" ht="14.25" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
       <c r="C221" s="5"/>
@@ -4620,7 +4897,7 @@
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:18" ht="14.25" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="6"/>
       <c r="C222" s="5"/>
@@ -4640,7 +4917,7 @@
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:18" ht="14.25" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
       <c r="C223" s="5"/>
@@ -4660,7 +4937,7 @@
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:18" ht="14.25" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="6"/>
       <c r="C224" s="5"/>
@@ -4680,7 +4957,7 @@
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:18" ht="14.25" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="6"/>
       <c r="C225" s="5"/>
@@ -4700,7 +4977,7 @@
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:18" ht="14.25" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="6"/>
       <c r="C226" s="5"/>
@@ -4720,7 +4997,7 @@
       <c r="Q226" s="5"/>
       <c r="R226" s="5"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:18" ht="14.25" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
       <c r="C227" s="5"/>
@@ -4740,7 +5017,7 @@
       <c r="Q227" s="5"/>
       <c r="R227" s="5"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:18" ht="14.25" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
       <c r="C228" s="5"/>
@@ -4760,7 +5037,7 @@
       <c r="Q228" s="5"/>
       <c r="R228" s="5"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:18" ht="14.25" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
       <c r="C229" s="5"/>
@@ -4780,7 +5057,7 @@
       <c r="Q229" s="5"/>
       <c r="R229" s="5"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:18" ht="14.25" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="6"/>
       <c r="C230" s="5"/>
@@ -4800,7 +5077,7 @@
       <c r="Q230" s="5"/>
       <c r="R230" s="5"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:18" ht="14.25" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
       <c r="C231" s="5"/>
@@ -4820,7 +5097,7 @@
       <c r="Q231" s="5"/>
       <c r="R231" s="5"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:18" ht="14.25" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="6"/>
       <c r="C232" s="5"/>
@@ -4840,7 +5117,7 @@
       <c r="Q232" s="5"/>
       <c r="R232" s="5"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:18" ht="14.25" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
       <c r="C233" s="5"/>
@@ -4860,7 +5137,7 @@
       <c r="Q233" s="5"/>
       <c r="R233" s="5"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:18" ht="14.25" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="6"/>
       <c r="C234" s="5"/>
@@ -4880,7 +5157,7 @@
       <c r="Q234" s="5"/>
       <c r="R234" s="5"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:18" ht="14.25" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="5"/>
@@ -4900,7 +5177,7 @@
       <c r="Q235" s="5"/>
       <c r="R235" s="5"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:18" ht="14.25" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="5"/>
@@ -4920,7 +5197,7 @@
       <c r="Q236" s="5"/>
       <c r="R236" s="5"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:18" ht="14.25" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="5"/>
@@ -4940,7 +5217,7 @@
       <c r="Q237" s="5"/>
       <c r="R237" s="5"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:18" ht="14.25" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="5"/>
@@ -4960,7 +5237,7 @@
       <c r="Q238" s="5"/>
       <c r="R238" s="5"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:18" ht="14.25" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="5"/>
@@ -4980,7 +5257,7 @@
       <c r="Q239" s="5"/>
       <c r="R239" s="5"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:18" ht="14.25" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="5"/>
@@ -5000,7 +5277,7 @@
       <c r="Q240" s="5"/>
       <c r="R240" s="5"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:18" ht="14.25" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="5"/>
@@ -5020,7 +5297,7 @@
       <c r="Q241" s="5"/>
       <c r="R241" s="5"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:18" ht="14.25" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="5"/>
@@ -5040,7 +5317,7 @@
       <c r="Q242" s="5"/>
       <c r="R242" s="5"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:18" ht="14.25" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="5"/>
@@ -5060,7 +5337,7 @@
       <c r="Q243" s="5"/>
       <c r="R243" s="5"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:18" ht="14.25" customHeight="1">
       <c r="A244" s="5"/>
       <c r="B244" s="6"/>
       <c r="C244" s="5"/>
@@ -5080,7 +5357,7 @@
       <c r="Q244" s="5"/>
       <c r="R244" s="5"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:18" ht="14.25" customHeight="1">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="5"/>
@@ -5100,7 +5377,7 @@
       <c r="Q245" s="5"/>
       <c r="R245" s="5"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:18" ht="14.25" customHeight="1">
       <c r="A246" s="5"/>
       <c r="B246" s="6"/>
       <c r="C246" s="5"/>
@@ -5120,7 +5397,7 @@
       <c r="Q246" s="5"/>
       <c r="R246" s="5"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:18" ht="14.25" customHeight="1">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="5"/>
@@ -5140,7 +5417,7 @@
       <c r="Q247" s="5"/>
       <c r="R247" s="5"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:18" ht="14.25" customHeight="1">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="5"/>
@@ -5160,7 +5437,7 @@
       <c r="Q248" s="5"/>
       <c r="R248" s="5"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:18" ht="14.25" customHeight="1">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="5"/>
@@ -5180,7 +5457,7 @@
       <c r="Q249" s="5"/>
       <c r="R249" s="5"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:18" ht="14.25" customHeight="1">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="5"/>
@@ -5200,7 +5477,7 @@
       <c r="Q250" s="5"/>
       <c r="R250" s="5"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:18" ht="14.25" customHeight="1">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="5"/>
@@ -5220,7 +5497,7 @@
       <c r="Q251" s="5"/>
       <c r="R251" s="5"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:18" ht="14.25" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="5"/>
@@ -5240,7 +5517,7 @@
       <c r="Q252" s="5"/>
       <c r="R252" s="5"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:18" ht="14.25" customHeight="1">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="5"/>
@@ -5260,7 +5537,7 @@
       <c r="Q253" s="5"/>
       <c r="R253" s="5"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:18" ht="14.25" customHeight="1">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="5"/>
@@ -5280,7 +5557,7 @@
       <c r="Q254" s="5"/>
       <c r="R254" s="5"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:18" ht="14.25" customHeight="1">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="5"/>
@@ -5300,7 +5577,7 @@
       <c r="Q255" s="5"/>
       <c r="R255" s="5"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:18" ht="14.25" customHeight="1">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="5"/>
@@ -5320,7 +5597,7 @@
       <c r="Q256" s="5"/>
       <c r="R256" s="5"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:18" ht="14.25" customHeight="1">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="5"/>
@@ -5340,7 +5617,7 @@
       <c r="Q257" s="5"/>
       <c r="R257" s="5"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:18" ht="14.25" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="5"/>
@@ -5360,7 +5637,7 @@
       <c r="Q258" s="5"/>
       <c r="R258" s="5"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:18" ht="14.25" customHeight="1">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="5"/>
@@ -5380,7 +5657,7 @@
       <c r="Q259" s="5"/>
       <c r="R259" s="5"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:18" ht="14.25" customHeight="1">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="5"/>
@@ -5400,7 +5677,7 @@
       <c r="Q260" s="5"/>
       <c r="R260" s="5"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:18" ht="14.25" customHeight="1">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="5"/>
@@ -5420,7 +5697,7 @@
       <c r="Q261" s="5"/>
       <c r="R261" s="5"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:18" ht="14.25" customHeight="1">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="5"/>
@@ -5440,7 +5717,7 @@
       <c r="Q262" s="5"/>
       <c r="R262" s="5"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:18" ht="14.25" customHeight="1">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="5"/>
@@ -5460,7 +5737,7 @@
       <c r="Q263" s="5"/>
       <c r="R263" s="5"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:18" ht="14.25" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="5"/>
@@ -5480,7 +5757,7 @@
       <c r="Q264" s="5"/>
       <c r="R264" s="5"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:18" ht="14.25" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="5"/>
@@ -5500,7 +5777,7 @@
       <c r="Q265" s="5"/>
       <c r="R265" s="5"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:18" ht="14.25" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="5"/>
@@ -5520,7 +5797,7 @@
       <c r="Q266" s="5"/>
       <c r="R266" s="5"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:18" ht="14.25" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="5"/>
@@ -5540,7 +5817,7 @@
       <c r="Q267" s="5"/>
       <c r="R267" s="5"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:18" ht="14.25" customHeight="1">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="5"/>
@@ -5560,7 +5837,7 @@
       <c r="Q268" s="5"/>
       <c r="R268" s="5"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:18" ht="14.25" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="5"/>
@@ -5580,7 +5857,7 @@
       <c r="Q269" s="5"/>
       <c r="R269" s="5"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:18" ht="14.25" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="5"/>
@@ -5600,7 +5877,7 @@
       <c r="Q270" s="5"/>
       <c r="R270" s="5"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:18" ht="14.25" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="5"/>
@@ -5620,7 +5897,7 @@
       <c r="Q271" s="5"/>
       <c r="R271" s="5"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:18" ht="14.25" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="6"/>
       <c r="C272" s="5"/>
@@ -5640,7 +5917,7 @@
       <c r="Q272" s="5"/>
       <c r="R272" s="5"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:18" ht="14.25" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="5"/>
@@ -5660,7 +5937,7 @@
       <c r="Q273" s="5"/>
       <c r="R273" s="5"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:18" ht="14.25" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="5"/>
@@ -5680,7 +5957,7 @@
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:18" ht="14.25" customHeight="1">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="5"/>
@@ -5700,7 +5977,7 @@
       <c r="Q275" s="5"/>
       <c r="R275" s="5"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:18" ht="14.25" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="5"/>
@@ -5720,7 +5997,7 @@
       <c r="Q276" s="5"/>
       <c r="R276" s="5"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:18" ht="14.25" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="5"/>
@@ -5740,7 +6017,7 @@
       <c r="Q277" s="5"/>
       <c r="R277" s="5"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:18" ht="14.25" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="5"/>
@@ -5760,7 +6037,7 @@
       <c r="Q278" s="5"/>
       <c r="R278" s="5"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:18" ht="14.25" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="5"/>
@@ -5780,7 +6057,7 @@
       <c r="Q279" s="5"/>
       <c r="R279" s="5"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:18" ht="14.25" customHeight="1">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="5"/>
@@ -5800,7 +6077,7 @@
       <c r="Q280" s="5"/>
       <c r="R280" s="5"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:18" ht="14.25" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="5"/>
@@ -5820,7 +6097,7 @@
       <c r="Q281" s="5"/>
       <c r="R281" s="5"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:18" ht="14.25" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="5"/>
@@ -5840,7 +6117,7 @@
       <c r="Q282" s="5"/>
       <c r="R282" s="5"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:18" ht="14.25" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="5"/>
@@ -5860,7 +6137,7 @@
       <c r="Q283" s="5"/>
       <c r="R283" s="5"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:18" ht="14.25" customHeight="1">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="5"/>
@@ -5880,7 +6157,7 @@
       <c r="Q284" s="5"/>
       <c r="R284" s="5"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:18" ht="14.25" customHeight="1">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="5"/>
@@ -5900,7 +6177,7 @@
       <c r="Q285" s="5"/>
       <c r="R285" s="5"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:18" ht="14.25" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="5"/>
@@ -5920,7 +6197,7 @@
       <c r="Q286" s="5"/>
       <c r="R286" s="5"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:18" ht="14.25" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="5"/>
@@ -5940,7 +6217,7 @@
       <c r="Q287" s="5"/>
       <c r="R287" s="5"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:18" ht="14.25" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="5"/>
@@ -5960,7 +6237,7 @@
       <c r="Q288" s="5"/>
       <c r="R288" s="5"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:18" ht="14.25" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="5"/>
@@ -5980,7 +6257,7 @@
       <c r="Q289" s="5"/>
       <c r="R289" s="5"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:18" ht="14.25" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="5"/>
@@ -6000,7 +6277,7 @@
       <c r="Q290" s="5"/>
       <c r="R290" s="5"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:18" ht="14.25" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="5"/>
@@ -6020,7 +6297,7 @@
       <c r="Q291" s="5"/>
       <c r="R291" s="5"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:18" ht="14.25" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="5"/>
@@ -6040,7 +6317,7 @@
       <c r="Q292" s="5"/>
       <c r="R292" s="5"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:18" ht="14.25" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="5"/>
@@ -6060,7 +6337,7 @@
       <c r="Q293" s="5"/>
       <c r="R293" s="5"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:18" ht="14.25" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
       <c r="C294" s="5"/>
@@ -6080,7 +6357,7 @@
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:18" ht="14.25" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="5"/>
@@ -6100,7 +6377,7 @@
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:18" ht="14.25" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="5"/>
@@ -6120,7 +6397,7 @@
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:18" ht="14.25" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="5"/>
@@ -6140,7 +6417,7 @@
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:18" ht="14.25" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="5"/>
@@ -6160,7 +6437,7 @@
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:18" ht="14.25" customHeight="1">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="5"/>
@@ -6180,7 +6457,7 @@
       <c r="Q299" s="5"/>
       <c r="R299" s="5"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:18" ht="14.25" customHeight="1">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="5"/>
@@ -6200,7 +6477,7 @@
       <c r="Q300" s="5"/>
       <c r="R300" s="5"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:18" ht="14.25" customHeight="1">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="5"/>
@@ -6220,7 +6497,7 @@
       <c r="Q301" s="5"/>
       <c r="R301" s="5"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:18" ht="14.25" customHeight="1">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="5"/>
@@ -6240,7 +6517,7 @@
       <c r="Q302" s="5"/>
       <c r="R302" s="5"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:18" ht="14.25" customHeight="1">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="5"/>
@@ -6260,7 +6537,7 @@
       <c r="Q303" s="5"/>
       <c r="R303" s="5"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:18" ht="14.25" customHeight="1">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="5"/>
@@ -6280,7 +6557,7 @@
       <c r="Q304" s="5"/>
       <c r="R304" s="5"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:18" ht="14.25" customHeight="1">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="5"/>
@@ -6300,7 +6577,7 @@
       <c r="Q305" s="5"/>
       <c r="R305" s="5"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:18" ht="14.25" customHeight="1">
       <c r="A306" s="5"/>
       <c r="B306" s="6"/>
       <c r="C306" s="5"/>
@@ -6320,7 +6597,7 @@
       <c r="Q306" s="5"/>
       <c r="R306" s="5"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:18" ht="14.25" customHeight="1">
       <c r="A307" s="5"/>
       <c r="B307" s="6"/>
       <c r="C307" s="5"/>
@@ -6340,7 +6617,7 @@
       <c r="Q307" s="5"/>
       <c r="R307" s="5"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:18" ht="14.25" customHeight="1">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="5"/>
@@ -6360,7 +6637,7 @@
       <c r="Q308" s="5"/>
       <c r="R308" s="5"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:18" ht="14.25" customHeight="1">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="5"/>
@@ -6380,7 +6657,7 @@
       <c r="Q309" s="5"/>
       <c r="R309" s="5"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:18" ht="14.25" customHeight="1">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="5"/>
@@ -6400,7 +6677,7 @@
       <c r="Q310" s="5"/>
       <c r="R310" s="5"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:18" ht="14.25" customHeight="1">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="5"/>
@@ -6420,7 +6697,7 @@
       <c r="Q311" s="5"/>
       <c r="R311" s="5"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:18" ht="14.25" customHeight="1">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="5"/>
@@ -6440,7 +6717,7 @@
       <c r="Q312" s="5"/>
       <c r="R312" s="5"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:18" ht="14.25" customHeight="1">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="5"/>
@@ -6460,7 +6737,7 @@
       <c r="Q313" s="5"/>
       <c r="R313" s="5"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:18" ht="14.25" customHeight="1">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="5"/>
@@ -6480,7 +6757,7 @@
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:18" ht="14.25" customHeight="1">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="5"/>
@@ -6500,7 +6777,7 @@
       <c r="Q315" s="5"/>
       <c r="R315" s="5"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:18" ht="14.25" customHeight="1">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="5"/>
@@ -6520,7 +6797,7 @@
       <c r="Q316" s="5"/>
       <c r="R316" s="5"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:18" ht="14.25" customHeight="1">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="5"/>
@@ -6540,7 +6817,7 @@
       <c r="Q317" s="5"/>
       <c r="R317" s="5"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:18" ht="14.25" customHeight="1">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="5"/>
@@ -6560,7 +6837,7 @@
       <c r="Q318" s="5"/>
       <c r="R318" s="5"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:18" ht="14.25" customHeight="1">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="5"/>
@@ -6580,7 +6857,7 @@
       <c r="Q319" s="5"/>
       <c r="R319" s="5"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:18" ht="14.25" customHeight="1">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="5"/>
@@ -6600,7 +6877,7 @@
       <c r="Q320" s="5"/>
       <c r="R320" s="5"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:18" ht="14.25" customHeight="1">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="5"/>
@@ -6620,7 +6897,7 @@
       <c r="Q321" s="5"/>
       <c r="R321" s="5"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:18" ht="14.25" customHeight="1">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="5"/>
@@ -6640,7 +6917,7 @@
       <c r="Q322" s="5"/>
       <c r="R322" s="5"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:18" ht="14.25" customHeight="1">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="5"/>
@@ -6660,7 +6937,7 @@
       <c r="Q323" s="5"/>
       <c r="R323" s="5"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:18" ht="14.25" customHeight="1">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="5"/>
@@ -6680,7 +6957,7 @@
       <c r="Q324" s="5"/>
       <c r="R324" s="5"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:18" ht="14.25" customHeight="1">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="5"/>
@@ -6700,7 +6977,7 @@
       <c r="Q325" s="5"/>
       <c r="R325" s="5"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:18" ht="14.25" customHeight="1">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="5"/>
@@ -6720,7 +6997,7 @@
       <c r="Q326" s="5"/>
       <c r="R326" s="5"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:18" ht="14.25" customHeight="1">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="5"/>
@@ -6740,7 +7017,7 @@
       <c r="Q327" s="5"/>
       <c r="R327" s="5"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:18" ht="14.25" customHeight="1">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="5"/>
@@ -6760,7 +7037,7 @@
       <c r="Q328" s="5"/>
       <c r="R328" s="5"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:18" ht="14.25" customHeight="1">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="5"/>
@@ -6780,7 +7057,7 @@
       <c r="Q329" s="5"/>
       <c r="R329" s="5"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:18" ht="14.25" customHeight="1">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="5"/>
@@ -6800,7 +7077,7 @@
       <c r="Q330" s="5"/>
       <c r="R330" s="5"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:18" ht="14.25" customHeight="1">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="5"/>
@@ -6820,7 +7097,7 @@
       <c r="Q331" s="5"/>
       <c r="R331" s="5"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:18" ht="14.25" customHeight="1">
       <c r="A332" s="5"/>
       <c r="B332" s="6"/>
       <c r="C332" s="5"/>
@@ -6840,7 +7117,7 @@
       <c r="Q332" s="5"/>
       <c r="R332" s="5"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:18" ht="14.25" customHeight="1">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="5"/>
@@ -6860,7 +7137,7 @@
       <c r="Q333" s="5"/>
       <c r="R333" s="5"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:18" ht="14.25" customHeight="1">
       <c r="A334" s="5"/>
       <c r="B334" s="6"/>
       <c r="C334" s="5"/>
@@ -6880,7 +7157,7 @@
       <c r="Q334" s="5"/>
       <c r="R334" s="5"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:18" ht="14.25" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="6"/>
       <c r="C335" s="5"/>
@@ -6900,7 +7177,7 @@
       <c r="Q335" s="5"/>
       <c r="R335" s="5"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:18" ht="14.25" customHeight="1">
       <c r="A336" s="5"/>
       <c r="B336" s="6"/>
       <c r="C336" s="5"/>
@@ -6920,7 +7197,7 @@
       <c r="Q336" s="5"/>
       <c r="R336" s="5"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:18" ht="14.25" customHeight="1">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="5"/>
@@ -6940,7 +7217,7 @@
       <c r="Q337" s="5"/>
       <c r="R337" s="5"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:18" ht="14.25" customHeight="1">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="5"/>
@@ -6960,7 +7237,7 @@
       <c r="Q338" s="5"/>
       <c r="R338" s="5"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:18" ht="14.25" customHeight="1">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="5"/>
@@ -6980,7 +7257,7 @@
       <c r="Q339" s="5"/>
       <c r="R339" s="5"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:18" ht="14.25" customHeight="1">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="5"/>
@@ -7000,7 +7277,7 @@
       <c r="Q340" s="5"/>
       <c r="R340" s="5"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:18" ht="14.25" customHeight="1">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="5"/>
@@ -7020,7 +7297,7 @@
       <c r="Q341" s="5"/>
       <c r="R341" s="5"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:18" ht="14.25" customHeight="1">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="5"/>
@@ -7040,7 +7317,7 @@
       <c r="Q342" s="5"/>
       <c r="R342" s="5"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:18" ht="14.25" customHeight="1">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
       <c r="C343" s="5"/>
@@ -7060,7 +7337,7 @@
       <c r="Q343" s="5"/>
       <c r="R343" s="5"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:18" ht="14.25" customHeight="1">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="5"/>
@@ -7080,7 +7357,7 @@
       <c r="Q344" s="5"/>
       <c r="R344" s="5"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:18" ht="14.25" customHeight="1">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="5"/>
@@ -7100,7 +7377,7 @@
       <c r="Q345" s="5"/>
       <c r="R345" s="5"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:18" ht="14.25" customHeight="1">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="5"/>
@@ -7120,7 +7397,7 @@
       <c r="Q346" s="5"/>
       <c r="R346" s="5"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:18" ht="14.25" customHeight="1">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="5"/>
@@ -7140,7 +7417,7 @@
       <c r="Q347" s="5"/>
       <c r="R347" s="5"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:18" ht="14.25" customHeight="1">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="5"/>
@@ -7160,7 +7437,7 @@
       <c r="Q348" s="5"/>
       <c r="R348" s="5"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:18" ht="14.25" customHeight="1">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="5"/>
@@ -7180,7 +7457,7 @@
       <c r="Q349" s="5"/>
       <c r="R349" s="5"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:18" ht="14.25" customHeight="1">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="5"/>
@@ -7200,7 +7477,7 @@
       <c r="Q350" s="5"/>
       <c r="R350" s="5"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:18" ht="14.25" customHeight="1">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="5"/>
@@ -7220,7 +7497,7 @@
       <c r="Q351" s="5"/>
       <c r="R351" s="5"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:18" ht="14.25" customHeight="1">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="5"/>
@@ -7240,7 +7517,7 @@
       <c r="Q352" s="5"/>
       <c r="R352" s="5"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:18" ht="14.25" customHeight="1">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="5"/>
@@ -7260,7 +7537,7 @@
       <c r="Q353" s="5"/>
       <c r="R353" s="5"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:18" ht="14.25" customHeight="1">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="5"/>
@@ -7280,7 +7557,7 @@
       <c r="Q354" s="5"/>
       <c r="R354" s="5"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:18" ht="14.25" customHeight="1">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="5"/>
@@ -7300,7 +7577,7 @@
       <c r="Q355" s="5"/>
       <c r="R355" s="5"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:18" ht="14.25" customHeight="1">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="5"/>
@@ -7320,7 +7597,7 @@
       <c r="Q356" s="5"/>
       <c r="R356" s="5"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:18" ht="14.25" customHeight="1">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="5"/>
@@ -7340,7 +7617,7 @@
       <c r="Q357" s="5"/>
       <c r="R357" s="5"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:18" ht="14.25" customHeight="1">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="5"/>
@@ -7360,7 +7637,7 @@
       <c r="Q358" s="5"/>
       <c r="R358" s="5"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:18" ht="14.25" customHeight="1">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="5"/>
@@ -7380,7 +7657,7 @@
       <c r="Q359" s="5"/>
       <c r="R359" s="5"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:18" ht="14.25" customHeight="1">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="5"/>
@@ -7400,7 +7677,7 @@
       <c r="Q360" s="5"/>
       <c r="R360" s="5"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:18" ht="14.25" customHeight="1">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="5"/>
@@ -7420,7 +7697,7 @@
       <c r="Q361" s="5"/>
       <c r="R361" s="5"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:18" ht="14.25" customHeight="1">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="5"/>
@@ -7440,7 +7717,7 @@
       <c r="Q362" s="5"/>
       <c r="R362" s="5"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:18" ht="14.25" customHeight="1">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
       <c r="C363" s="5"/>
@@ -7460,7 +7737,7 @@
       <c r="Q363" s="5"/>
       <c r="R363" s="5"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:18" ht="14.25" customHeight="1">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="5"/>
@@ -7480,7 +7757,7 @@
       <c r="Q364" s="5"/>
       <c r="R364" s="5"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:18" ht="14.25" customHeight="1">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="5"/>
@@ -7500,7 +7777,7 @@
       <c r="Q365" s="5"/>
       <c r="R365" s="5"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:18" ht="14.25" customHeight="1">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="5"/>
@@ -7520,7 +7797,7 @@
       <c r="Q366" s="5"/>
       <c r="R366" s="5"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:18" ht="14.25" customHeight="1">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="5"/>
@@ -7540,7 +7817,7 @@
       <c r="Q367" s="5"/>
       <c r="R367" s="5"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:18" ht="14.25" customHeight="1">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="5"/>
@@ -7560,7 +7837,7 @@
       <c r="Q368" s="5"/>
       <c r="R368" s="5"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:18" ht="14.25" customHeight="1">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="5"/>
@@ -7580,7 +7857,7 @@
       <c r="Q369" s="5"/>
       <c r="R369" s="5"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:18" ht="14.25" customHeight="1">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="5"/>
@@ -7600,7 +7877,7 @@
       <c r="Q370" s="5"/>
       <c r="R370" s="5"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:18" ht="14.25" customHeight="1">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="5"/>
@@ -7620,7 +7897,7 @@
       <c r="Q371" s="5"/>
       <c r="R371" s="5"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:18" ht="14.25" customHeight="1">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="5"/>
@@ -7640,7 +7917,7 @@
       <c r="Q372" s="5"/>
       <c r="R372" s="5"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:18" ht="14.25" customHeight="1">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="5"/>
@@ -7660,7 +7937,7 @@
       <c r="Q373" s="5"/>
       <c r="R373" s="5"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:18" ht="14.25" customHeight="1">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="5"/>
@@ -7680,7 +7957,7 @@
       <c r="Q374" s="5"/>
       <c r="R374" s="5"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:18" ht="14.25" customHeight="1">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="5"/>
@@ -7700,7 +7977,7 @@
       <c r="Q375" s="5"/>
       <c r="R375" s="5"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:18" ht="14.25" customHeight="1">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="5"/>
@@ -7720,7 +7997,7 @@
       <c r="Q376" s="5"/>
       <c r="R376" s="5"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:18" ht="14.25" customHeight="1">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="5"/>
@@ -7740,7 +8017,7 @@
       <c r="Q377" s="5"/>
       <c r="R377" s="5"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:18" ht="14.25" customHeight="1">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="5"/>
@@ -7760,7 +8037,7 @@
       <c r="Q378" s="5"/>
       <c r="R378" s="5"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:18" ht="14.25" customHeight="1">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="5"/>
@@ -7780,7 +8057,7 @@
       <c r="Q379" s="5"/>
       <c r="R379" s="5"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:18" ht="14.25" customHeight="1">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="5"/>
@@ -7800,7 +8077,7 @@
       <c r="Q380" s="5"/>
       <c r="R380" s="5"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:18" ht="14.25" customHeight="1">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="5"/>
@@ -7820,7 +8097,7 @@
       <c r="Q381" s="5"/>
       <c r="R381" s="5"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:18" ht="14.25" customHeight="1">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="5"/>
@@ -7840,7 +8117,7 @@
       <c r="Q382" s="5"/>
       <c r="R382" s="5"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:18" ht="14.25" customHeight="1">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="5"/>
@@ -7860,7 +8137,7 @@
       <c r="Q383" s="5"/>
       <c r="R383" s="5"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:18" ht="14.25" customHeight="1">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="5"/>
@@ -7880,7 +8157,7 @@
       <c r="Q384" s="5"/>
       <c r="R384" s="5"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:18" ht="14.25" customHeight="1">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="5"/>
@@ -7900,7 +8177,7 @@
       <c r="Q385" s="5"/>
       <c r="R385" s="5"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:18" ht="14.25" customHeight="1">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="5"/>
@@ -7920,7 +8197,7 @@
       <c r="Q386" s="5"/>
       <c r="R386" s="5"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:18" ht="14.25" customHeight="1">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="5"/>
@@ -7940,7 +8217,7 @@
       <c r="Q387" s="5"/>
       <c r="R387" s="5"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:18" ht="14.25" customHeight="1">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="5"/>
@@ -7960,7 +8237,7 @@
       <c r="Q388" s="5"/>
       <c r="R388" s="5"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:18" ht="14.25" customHeight="1">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="5"/>
@@ -7980,7 +8257,7 @@
       <c r="Q389" s="5"/>
       <c r="R389" s="5"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:18" ht="14.25" customHeight="1">
       <c r="A390" s="5"/>
       <c r="B390" s="6"/>
       <c r="C390" s="5"/>
@@ -8000,7 +8277,7 @@
       <c r="Q390" s="5"/>
       <c r="R390" s="5"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:18" ht="14.25" customHeight="1">
       <c r="A391" s="5"/>
       <c r="B391" s="6"/>
       <c r="C391" s="5"/>
@@ -8020,7 +8297,7 @@
       <c r="Q391" s="5"/>
       <c r="R391" s="5"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:18" ht="14.25" customHeight="1">
       <c r="A392" s="5"/>
       <c r="B392" s="6"/>
       <c r="C392" s="5"/>
@@ -8040,7 +8317,7 @@
       <c r="Q392" s="5"/>
       <c r="R392" s="5"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:18" ht="14.25" customHeight="1">
       <c r="A393" s="5"/>
       <c r="B393" s="6"/>
       <c r="C393" s="5"/>
@@ -8060,7 +8337,7 @@
       <c r="Q393" s="5"/>
       <c r="R393" s="5"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:18" ht="14.25" customHeight="1">
       <c r="A394" s="5"/>
       <c r="B394" s="6"/>
       <c r="C394" s="5"/>
@@ -8080,7 +8357,7 @@
       <c r="Q394" s="5"/>
       <c r="R394" s="5"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:18" ht="14.25" customHeight="1">
       <c r="A395" s="5"/>
       <c r="B395" s="6"/>
       <c r="C395" s="5"/>
@@ -8100,7 +8377,7 @@
       <c r="Q395" s="5"/>
       <c r="R395" s="5"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:18" ht="14.25" customHeight="1">
       <c r="A396" s="5"/>
       <c r="B396" s="6"/>
       <c r="C396" s="5"/>
@@ -8120,7 +8397,7 @@
       <c r="Q396" s="5"/>
       <c r="R396" s="5"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:18" ht="14.25" customHeight="1">
       <c r="A397" s="5"/>
       <c r="B397" s="6"/>
       <c r="C397" s="5"/>
@@ -8140,7 +8417,7 @@
       <c r="Q397" s="5"/>
       <c r="R397" s="5"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:18" ht="14.25" customHeight="1">
       <c r="A398" s="5"/>
       <c r="B398" s="6"/>
       <c r="C398" s="5"/>
@@ -8160,7 +8437,7 @@
       <c r="Q398" s="5"/>
       <c r="R398" s="5"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:18" ht="14.25" customHeight="1">
       <c r="A399" s="5"/>
       <c r="B399" s="6"/>
       <c r="C399" s="5"/>
@@ -8180,7 +8457,7 @@
       <c r="Q399" s="5"/>
       <c r="R399" s="5"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:18" ht="14.25" customHeight="1">
       <c r="A400" s="5"/>
       <c r="B400" s="6"/>
       <c r="C400" s="5"/>
@@ -8200,7 +8477,7 @@
       <c r="Q400" s="5"/>
       <c r="R400" s="5"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:18" ht="14.25" customHeight="1">
       <c r="A401" s="5"/>
       <c r="B401" s="6"/>
       <c r="C401" s="5"/>
@@ -8220,7 +8497,7 @@
       <c r="Q401" s="5"/>
       <c r="R401" s="5"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:18" ht="14.25" customHeight="1">
       <c r="A402" s="5"/>
       <c r="B402" s="6"/>
       <c r="C402" s="5"/>
@@ -8240,7 +8517,7 @@
       <c r="Q402" s="5"/>
       <c r="R402" s="5"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:18" ht="14.25" customHeight="1">
       <c r="A403" s="5"/>
       <c r="B403" s="6"/>
       <c r="C403" s="5"/>
@@ -8260,7 +8537,7 @@
       <c r="Q403" s="5"/>
       <c r="R403" s="5"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:18" ht="14.25" customHeight="1">
       <c r="A404" s="5"/>
       <c r="B404" s="6"/>
       <c r="C404" s="5"/>
@@ -8280,7 +8557,7 @@
       <c r="Q404" s="5"/>
       <c r="R404" s="5"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:18" ht="14.25" customHeight="1">
       <c r="A405" s="5"/>
       <c r="B405" s="6"/>
       <c r="C405" s="5"/>
@@ -8300,7 +8577,7 @@
       <c r="Q405" s="5"/>
       <c r="R405" s="5"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:18" ht="14.25" customHeight="1">
       <c r="A406" s="5"/>
       <c r="B406" s="6"/>
       <c r="C406" s="5"/>
@@ -8320,7 +8597,7 @@
       <c r="Q406" s="5"/>
       <c r="R406" s="5"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:18" ht="14.25" customHeight="1">
       <c r="A407" s="5"/>
       <c r="B407" s="6"/>
       <c r="C407" s="5"/>
@@ -8340,7 +8617,7 @@
       <c r="Q407" s="5"/>
       <c r="R407" s="5"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:18" ht="14.25" customHeight="1">
       <c r="A408" s="5"/>
       <c r="B408" s="6"/>
       <c r="C408" s="5"/>
@@ -8360,7 +8637,7 @@
       <c r="Q408" s="5"/>
       <c r="R408" s="5"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:18" ht="14.25" customHeight="1">
       <c r="A409" s="5"/>
       <c r="B409" s="6"/>
       <c r="C409" s="5"/>
@@ -8380,7 +8657,7 @@
       <c r="Q409" s="5"/>
       <c r="R409" s="5"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:18" ht="14.25" customHeight="1">
       <c r="A410" s="5"/>
       <c r="B410" s="6"/>
       <c r="C410" s="5"/>
@@ -8400,7 +8677,7 @@
       <c r="Q410" s="5"/>
       <c r="R410" s="5"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:18" ht="14.25" customHeight="1">
       <c r="A411" s="5"/>
       <c r="B411" s="6"/>
       <c r="C411" s="5"/>
@@ -8420,7 +8697,7 @@
       <c r="Q411" s="5"/>
       <c r="R411" s="5"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:18" ht="14.25" customHeight="1">
       <c r="A412" s="5"/>
       <c r="B412" s="6"/>
       <c r="C412" s="5"/>
@@ -8440,7 +8717,7 @@
       <c r="Q412" s="5"/>
       <c r="R412" s="5"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:18" ht="14.25" customHeight="1">
       <c r="A413" s="5"/>
       <c r="B413" s="6"/>
       <c r="C413" s="5"/>
@@ -8460,7 +8737,7 @@
       <c r="Q413" s="5"/>
       <c r="R413" s="5"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:18" ht="14.25" customHeight="1">
       <c r="A414" s="5"/>
       <c r="B414" s="6"/>
       <c r="C414" s="5"/>
@@ -8480,7 +8757,7 @@
       <c r="Q414" s="5"/>
       <c r="R414" s="5"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:18" ht="14.25" customHeight="1">
       <c r="A415" s="5"/>
       <c r="B415" s="6"/>
       <c r="C415" s="5"/>
@@ -8500,7 +8777,7 @@
       <c r="Q415" s="5"/>
       <c r="R415" s="5"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:18" ht="14.25" customHeight="1">
       <c r="A416" s="5"/>
       <c r="B416" s="6"/>
       <c r="C416" s="5"/>
@@ -8520,7 +8797,7 @@
       <c r="Q416" s="5"/>
       <c r="R416" s="5"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:18" ht="14.25" customHeight="1">
       <c r="A417" s="5"/>
       <c r="B417" s="6"/>
       <c r="C417" s="5"/>
@@ -8540,7 +8817,7 @@
       <c r="Q417" s="5"/>
       <c r="R417" s="5"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:18" ht="14.25" customHeight="1">
       <c r="A418" s="5"/>
       <c r="B418" s="6"/>
       <c r="C418" s="5"/>
@@ -8560,7 +8837,7 @@
       <c r="Q418" s="5"/>
       <c r="R418" s="5"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:18" ht="14.25" customHeight="1">
       <c r="A419" s="5"/>
       <c r="B419" s="6"/>
       <c r="C419" s="5"/>
@@ -8580,7 +8857,7 @@
       <c r="Q419" s="5"/>
       <c r="R419" s="5"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:18" ht="14.25" customHeight="1">
       <c r="A420" s="5"/>
       <c r="B420" s="6"/>
       <c r="C420" s="5"/>
@@ -8600,7 +8877,7 @@
       <c r="Q420" s="5"/>
       <c r="R420" s="5"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:18" ht="14.25" customHeight="1">
       <c r="A421" s="5"/>
       <c r="B421" s="6"/>
       <c r="C421" s="5"/>
@@ -8620,7 +8897,7 @@
       <c r="Q421" s="5"/>
       <c r="R421" s="5"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:18" ht="14.25" customHeight="1">
       <c r="A422" s="5"/>
       <c r="B422" s="6"/>
       <c r="C422" s="5"/>
@@ -8640,7 +8917,7 @@
       <c r="Q422" s="5"/>
       <c r="R422" s="5"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:18" ht="14.25" customHeight="1">
       <c r="A423" s="5"/>
       <c r="B423" s="6"/>
       <c r="C423" s="5"/>
@@ -8660,7 +8937,7 @@
       <c r="Q423" s="5"/>
       <c r="R423" s="5"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:18" ht="14.25" customHeight="1">
       <c r="A424" s="5"/>
       <c r="B424" s="6"/>
       <c r="C424" s="5"/>
@@ -8680,7 +8957,7 @@
       <c r="Q424" s="5"/>
       <c r="R424" s="5"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:18" ht="14.25" customHeight="1">
       <c r="A425" s="5"/>
       <c r="B425" s="6"/>
       <c r="C425" s="5"/>
@@ -8700,7 +8977,7 @@
       <c r="Q425" s="5"/>
       <c r="R425" s="5"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:18" ht="14.25" customHeight="1">
       <c r="A426" s="5"/>
       <c r="B426" s="6"/>
       <c r="C426" s="5"/>
@@ -8720,7 +8997,7 @@
       <c r="Q426" s="5"/>
       <c r="R426" s="5"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:18" ht="14.25" customHeight="1">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
       <c r="C427" s="5"/>
@@ -8740,7 +9017,7 @@
       <c r="Q427" s="5"/>
       <c r="R427" s="5"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:18" ht="14.25" customHeight="1">
       <c r="A428" s="5"/>
       <c r="B428" s="6"/>
       <c r="C428" s="5"/>
@@ -8760,7 +9037,7 @@
       <c r="Q428" s="5"/>
       <c r="R428" s="5"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:18" ht="14.25" customHeight="1">
       <c r="A429" s="5"/>
       <c r="B429" s="6"/>
       <c r="C429" s="5"/>
@@ -8780,7 +9057,7 @@
       <c r="Q429" s="5"/>
       <c r="R429" s="5"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:18" ht="14.25" customHeight="1">
       <c r="A430" s="5"/>
       <c r="B430" s="6"/>
       <c r="C430" s="5"/>
@@ -8800,7 +9077,7 @@
       <c r="Q430" s="5"/>
       <c r="R430" s="5"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:18" ht="14.25" customHeight="1">
       <c r="A431" s="5"/>
       <c r="B431" s="6"/>
       <c r="C431" s="5"/>
@@ -8820,7 +9097,7 @@
       <c r="Q431" s="5"/>
       <c r="R431" s="5"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:18" ht="14.25" customHeight="1">
       <c r="A432" s="5"/>
       <c r="B432" s="6"/>
       <c r="C432" s="5"/>
@@ -8840,7 +9117,7 @@
       <c r="Q432" s="5"/>
       <c r="R432" s="5"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:18" ht="14.25" customHeight="1">
       <c r="A433" s="5"/>
       <c r="B433" s="6"/>
       <c r="C433" s="5"/>
@@ -8860,7 +9137,7 @@
       <c r="Q433" s="5"/>
       <c r="R433" s="5"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:18" ht="14.25" customHeight="1">
       <c r="A434" s="5"/>
       <c r="B434" s="6"/>
       <c r="C434" s="5"/>
@@ -8880,7 +9157,7 @@
       <c r="Q434" s="5"/>
       <c r="R434" s="5"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:18" ht="14.25" customHeight="1">
       <c r="A435" s="5"/>
       <c r="B435" s="6"/>
       <c r="C435" s="5"/>
@@ -8900,7 +9177,7 @@
       <c r="Q435" s="5"/>
       <c r="R435" s="5"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:18" ht="14.25" customHeight="1">
       <c r="A436" s="5"/>
       <c r="B436" s="6"/>
       <c r="C436" s="5"/>
@@ -8920,7 +9197,7 @@
       <c r="Q436" s="5"/>
       <c r="R436" s="5"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:18" ht="14.25" customHeight="1">
       <c r="A437" s="5"/>
       <c r="B437" s="6"/>
       <c r="C437" s="5"/>
@@ -8940,7 +9217,7 @@
       <c r="Q437" s="5"/>
       <c r="R437" s="5"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:18" ht="14.25" customHeight="1">
       <c r="A438" s="5"/>
       <c r="B438" s="6"/>
       <c r="C438" s="5"/>
@@ -8960,7 +9237,7 @@
       <c r="Q438" s="5"/>
       <c r="R438" s="5"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:18" ht="14.25" customHeight="1">
       <c r="A439" s="5"/>
       <c r="B439" s="6"/>
       <c r="C439" s="5"/>
@@ -8980,7 +9257,7 @@
       <c r="Q439" s="5"/>
       <c r="R439" s="5"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:18" ht="14.25" customHeight="1">
       <c r="A440" s="5"/>
       <c r="B440" s="6"/>
       <c r="C440" s="5"/>
@@ -9000,7 +9277,7 @@
       <c r="Q440" s="5"/>
       <c r="R440" s="5"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:18" ht="14.25" customHeight="1">
       <c r="A441" s="5"/>
       <c r="B441" s="6"/>
       <c r="C441" s="5"/>
@@ -9020,7 +9297,7 @@
       <c r="Q441" s="5"/>
       <c r="R441" s="5"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:18" ht="14.25" customHeight="1">
       <c r="A442" s="5"/>
       <c r="B442" s="6"/>
       <c r="C442" s="5"/>
@@ -9040,7 +9317,7 @@
       <c r="Q442" s="5"/>
       <c r="R442" s="5"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:18" ht="14.25" customHeight="1">
       <c r="A443" s="5"/>
       <c r="B443" s="6"/>
       <c r="C443" s="5"/>
@@ -9060,7 +9337,7 @@
       <c r="Q443" s="5"/>
       <c r="R443" s="5"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:18" ht="14.25" customHeight="1">
       <c r="A444" s="5"/>
       <c r="B444" s="6"/>
       <c r="C444" s="5"/>
@@ -9080,7 +9357,7 @@
       <c r="Q444" s="5"/>
       <c r="R444" s="5"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:18" ht="14.25" customHeight="1">
       <c r="A445" s="5"/>
       <c r="B445" s="6"/>
       <c r="C445" s="5"/>
@@ -9100,7 +9377,7 @@
       <c r="Q445" s="5"/>
       <c r="R445" s="5"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:18" ht="14.25" customHeight="1">
       <c r="A446" s="5"/>
       <c r="B446" s="6"/>
       <c r="C446" s="5"/>
@@ -9120,7 +9397,7 @@
       <c r="Q446" s="5"/>
       <c r="R446" s="5"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:18" ht="14.25" customHeight="1">
       <c r="A447" s="5"/>
       <c r="B447" s="6"/>
       <c r="C447" s="5"/>
@@ -9140,7 +9417,7 @@
       <c r="Q447" s="5"/>
       <c r="R447" s="5"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:18" ht="14.25" customHeight="1">
       <c r="A448" s="5"/>
       <c r="B448" s="6"/>
       <c r="C448" s="5"/>
@@ -9160,7 +9437,7 @@
       <c r="Q448" s="5"/>
       <c r="R448" s="5"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:18" ht="14.25" customHeight="1">
       <c r="A449" s="5"/>
       <c r="B449" s="6"/>
       <c r="C449" s="5"/>
@@ -9180,7 +9457,7 @@
       <c r="Q449" s="5"/>
       <c r="R449" s="5"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:18" ht="14.25" customHeight="1">
       <c r="A450" s="5"/>
       <c r="B450" s="6"/>
       <c r="C450" s="5"/>
@@ -9200,7 +9477,7 @@
       <c r="Q450" s="5"/>
       <c r="R450" s="5"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:18" ht="14.25" customHeight="1">
       <c r="A451" s="5"/>
       <c r="B451" s="6"/>
       <c r="C451" s="5"/>
@@ -9220,7 +9497,7 @@
       <c r="Q451" s="5"/>
       <c r="R451" s="5"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:18" ht="14.25" customHeight="1">
       <c r="A452" s="5"/>
       <c r="B452" s="6"/>
       <c r="C452" s="5"/>
@@ -9240,7 +9517,7 @@
       <c r="Q452" s="5"/>
       <c r="R452" s="5"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:18" ht="14.25" customHeight="1">
       <c r="A453" s="5"/>
       <c r="B453" s="6"/>
       <c r="C453" s="5"/>
@@ -9260,7 +9537,7 @@
       <c r="Q453" s="5"/>
       <c r="R453" s="5"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:18" ht="14.25" customHeight="1">
       <c r="A454" s="5"/>
       <c r="B454" s="6"/>
       <c r="C454" s="5"/>
@@ -9280,7 +9557,7 @@
       <c r="Q454" s="5"/>
       <c r="R454" s="5"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:18" ht="14.25" customHeight="1">
       <c r="A455" s="5"/>
       <c r="B455" s="6"/>
       <c r="C455" s="5"/>
@@ -9300,7 +9577,7 @@
       <c r="Q455" s="5"/>
       <c r="R455" s="5"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:18" ht="14.25" customHeight="1">
       <c r="A456" s="5"/>
       <c r="B456" s="6"/>
       <c r="C456" s="5"/>
@@ -9320,7 +9597,7 @@
       <c r="Q456" s="5"/>
       <c r="R456" s="5"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:18" ht="14.25" customHeight="1">
       <c r="A457" s="5"/>
       <c r="B457" s="6"/>
       <c r="C457" s="5"/>
@@ -9340,7 +9617,7 @@
       <c r="Q457" s="5"/>
       <c r="R457" s="5"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:18" ht="14.25" customHeight="1">
       <c r="A458" s="5"/>
       <c r="B458" s="6"/>
       <c r="C458" s="5"/>
@@ -9360,7 +9637,7 @@
       <c r="Q458" s="5"/>
       <c r="R458" s="5"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:18" ht="14.25" customHeight="1">
       <c r="A459" s="5"/>
       <c r="B459" s="6"/>
       <c r="C459" s="5"/>
@@ -9380,7 +9657,7 @@
       <c r="Q459" s="5"/>
       <c r="R459" s="5"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:18" ht="14.25" customHeight="1">
       <c r="A460" s="5"/>
       <c r="B460" s="6"/>
       <c r="C460" s="5"/>
@@ -9400,7 +9677,7 @@
       <c r="Q460" s="5"/>
       <c r="R460" s="5"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:18" ht="14.25" customHeight="1">
       <c r="A461" s="5"/>
       <c r="B461" s="6"/>
       <c r="C461" s="5"/>
@@ -9420,7 +9697,7 @@
       <c r="Q461" s="5"/>
       <c r="R461" s="5"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:18" ht="14.25" customHeight="1">
       <c r="A462" s="5"/>
       <c r="B462" s="6"/>
       <c r="C462" s="5"/>
@@ -9440,7 +9717,7 @@
       <c r="Q462" s="5"/>
       <c r="R462" s="5"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:18" ht="14.25" customHeight="1">
       <c r="A463" s="5"/>
       <c r="B463" s="6"/>
       <c r="C463" s="5"/>
@@ -9460,7 +9737,7 @@
       <c r="Q463" s="5"/>
       <c r="R463" s="5"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:18" ht="14.25" customHeight="1">
       <c r="A464" s="5"/>
       <c r="B464" s="6"/>
       <c r="C464" s="5"/>
@@ -9480,7 +9757,7 @@
       <c r="Q464" s="5"/>
       <c r="R464" s="5"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:18" ht="14.25" customHeight="1">
       <c r="A465" s="5"/>
       <c r="B465" s="6"/>
       <c r="C465" s="5"/>
@@ -9500,7 +9777,7 @@
       <c r="Q465" s="5"/>
       <c r="R465" s="5"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:18" ht="14.25" customHeight="1">
       <c r="A466" s="5"/>
       <c r="B466" s="6"/>
       <c r="C466" s="5"/>
@@ -9520,7 +9797,7 @@
       <c r="Q466" s="5"/>
       <c r="R466" s="5"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:18" ht="14.25" customHeight="1">
       <c r="A467" s="5"/>
       <c r="B467" s="6"/>
       <c r="C467" s="5"/>
@@ -9540,7 +9817,7 @@
       <c r="Q467" s="5"/>
       <c r="R467" s="5"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:18" ht="14.25" customHeight="1">
       <c r="A468" s="5"/>
       <c r="B468" s="6"/>
       <c r="C468" s="5"/>
@@ -9560,7 +9837,7 @@
       <c r="Q468" s="5"/>
       <c r="R468" s="5"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:18" ht="14.25" customHeight="1">
       <c r="A469" s="5"/>
       <c r="B469" s="6"/>
       <c r="C469" s="5"/>
@@ -9580,7 +9857,7 @@
       <c r="Q469" s="5"/>
       <c r="R469" s="5"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:18" ht="14.25" customHeight="1">
       <c r="A470" s="5"/>
       <c r="B470" s="6"/>
       <c r="C470" s="5"/>
@@ -9600,7 +9877,7 @@
       <c r="Q470" s="5"/>
       <c r="R470" s="5"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:18" ht="14.25" customHeight="1">
       <c r="A471" s="5"/>
       <c r="B471" s="6"/>
       <c r="C471" s="5"/>
@@ -9620,7 +9897,7 @@
       <c r="Q471" s="5"/>
       <c r="R471" s="5"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:18" ht="14.25" customHeight="1">
       <c r="A472" s="5"/>
       <c r="B472" s="6"/>
       <c r="C472" s="5"/>
@@ -9640,7 +9917,7 @@
       <c r="Q472" s="5"/>
       <c r="R472" s="5"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:18" ht="14.25" customHeight="1">
       <c r="A473" s="5"/>
       <c r="B473" s="6"/>
       <c r="C473" s="5"/>
@@ -9660,7 +9937,7 @@
       <c r="Q473" s="5"/>
       <c r="R473" s="5"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:18" ht="14.25" customHeight="1">
       <c r="A474" s="5"/>
       <c r="B474" s="6"/>
       <c r="C474" s="5"/>
@@ -9680,7 +9957,7 @@
       <c r="Q474" s="5"/>
       <c r="R474" s="5"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:18" ht="14.25" customHeight="1">
       <c r="A475" s="5"/>
       <c r="B475" s="6"/>
       <c r="C475" s="5"/>
@@ -9700,7 +9977,7 @@
       <c r="Q475" s="5"/>
       <c r="R475" s="5"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:18" ht="14.25" customHeight="1">
       <c r="A476" s="5"/>
       <c r="B476" s="6"/>
       <c r="C476" s="5"/>
@@ -9720,7 +9997,7 @@
       <c r="Q476" s="5"/>
       <c r="R476" s="5"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:18" ht="14.25" customHeight="1">
       <c r="A477" s="5"/>
       <c r="B477" s="6"/>
       <c r="C477" s="5"/>
@@ -9740,7 +10017,7 @@
       <c r="Q477" s="5"/>
       <c r="R477" s="5"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:18" ht="14.25" customHeight="1">
       <c r="A478" s="5"/>
       <c r="B478" s="6"/>
       <c r="C478" s="5"/>
@@ -9760,7 +10037,7 @@
       <c r="Q478" s="5"/>
       <c r="R478" s="5"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:18" ht="14.25" customHeight="1">
       <c r="A479" s="5"/>
       <c r="B479" s="6"/>
       <c r="C479" s="5"/>
@@ -9780,7 +10057,7 @@
       <c r="Q479" s="5"/>
       <c r="R479" s="5"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:18" ht="14.25" customHeight="1">
       <c r="A480" s="5"/>
       <c r="B480" s="6"/>
       <c r="C480" s="5"/>
@@ -9800,7 +10077,7 @@
       <c r="Q480" s="5"/>
       <c r="R480" s="5"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:18" ht="14.25" customHeight="1">
       <c r="A481" s="5"/>
       <c r="B481" s="6"/>
       <c r="C481" s="5"/>
@@ -9820,7 +10097,7 @@
       <c r="Q481" s="5"/>
       <c r="R481" s="5"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:18" ht="14.25" customHeight="1">
       <c r="A482" s="5"/>
       <c r="B482" s="6"/>
       <c r="C482" s="5"/>
@@ -9840,7 +10117,7 @@
       <c r="Q482" s="5"/>
       <c r="R482" s="5"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:18" ht="14.25" customHeight="1">
       <c r="A483" s="5"/>
       <c r="B483" s="6"/>
       <c r="C483" s="5"/>
@@ -9860,7 +10137,7 @@
       <c r="Q483" s="5"/>
       <c r="R483" s="5"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="1:18" ht="14.25" customHeight="1">
       <c r="A484" s="5"/>
       <c r="B484" s="6"/>
       <c r="C484" s="5"/>
@@ -9880,7 +10157,7 @@
       <c r="Q484" s="5"/>
       <c r="R484" s="5"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:18" ht="14.25" customHeight="1">
       <c r="A485" s="5"/>
       <c r="B485" s="6"/>
       <c r="C485" s="5"/>
@@ -9900,7 +10177,7 @@
       <c r="Q485" s="5"/>
       <c r="R485" s="5"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:18" ht="14.25" customHeight="1">
       <c r="A486" s="5"/>
       <c r="B486" s="6"/>
       <c r="C486" s="5"/>
@@ -9920,7 +10197,7 @@
       <c r="Q486" s="5"/>
       <c r="R486" s="5"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:18" ht="14.25" customHeight="1">
       <c r="A487" s="5"/>
       <c r="B487" s="6"/>
       <c r="C487" s="5"/>
@@ -9940,7 +10217,7 @@
       <c r="Q487" s="5"/>
       <c r="R487" s="5"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:18" ht="14.25" customHeight="1">
       <c r="A488" s="5"/>
       <c r="B488" s="6"/>
       <c r="C488" s="5"/>
@@ -9960,7 +10237,7 @@
       <c r="Q488" s="5"/>
       <c r="R488" s="5"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:18" ht="14.25" customHeight="1">
       <c r="A489" s="5"/>
       <c r="B489" s="6"/>
       <c r="C489" s="5"/>
@@ -9980,7 +10257,7 @@
       <c r="Q489" s="5"/>
       <c r="R489" s="5"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:18" ht="14.25" customHeight="1">
       <c r="A490" s="5"/>
       <c r="B490" s="6"/>
       <c r="C490" s="5"/>
@@ -10000,7 +10277,7 @@
       <c r="Q490" s="5"/>
       <c r="R490" s="5"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:18" ht="14.25" customHeight="1">
       <c r="A491" s="5"/>
       <c r="B491" s="6"/>
       <c r="C491" s="5"/>
@@ -10020,7 +10297,7 @@
       <c r="Q491" s="5"/>
       <c r="R491" s="5"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:18" ht="14.25" customHeight="1">
       <c r="A492" s="5"/>
       <c r="B492" s="6"/>
       <c r="C492" s="5"/>
@@ -10040,7 +10317,7 @@
       <c r="Q492" s="5"/>
       <c r="R492" s="5"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:18" ht="14.25" customHeight="1">
       <c r="A493" s="5"/>
       <c r="B493" s="6"/>
       <c r="C493" s="5"/>
@@ -10060,7 +10337,7 @@
       <c r="Q493" s="5"/>
       <c r="R493" s="5"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:18" ht="14.25" customHeight="1">
       <c r="A494" s="5"/>
       <c r="B494" s="6"/>
       <c r="C494" s="5"/>
@@ -10080,7 +10357,7 @@
       <c r="Q494" s="5"/>
       <c r="R494" s="5"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:18" ht="14.25" customHeight="1">
       <c r="A495" s="5"/>
       <c r="B495" s="6"/>
       <c r="C495" s="5"/>
@@ -10100,7 +10377,7 @@
       <c r="Q495" s="5"/>
       <c r="R495" s="5"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:18" ht="14.25" customHeight="1">
       <c r="A496" s="5"/>
       <c r="B496" s="6"/>
       <c r="C496" s="5"/>
@@ -10120,7 +10397,7 @@
       <c r="Q496" s="5"/>
       <c r="R496" s="5"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:18" ht="14.25" customHeight="1">
       <c r="A497" s="5"/>
       <c r="B497" s="6"/>
       <c r="C497" s="5"/>
@@ -10140,7 +10417,7 @@
       <c r="Q497" s="5"/>
       <c r="R497" s="5"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:18" ht="14.25" customHeight="1">
       <c r="A498" s="5"/>
       <c r="B498" s="6"/>
       <c r="C498" s="5"/>
@@ -10160,7 +10437,7 @@
       <c r="Q498" s="5"/>
       <c r="R498" s="5"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:18" ht="14.25" customHeight="1">
       <c r="A499" s="5"/>
       <c r="B499" s="6"/>
       <c r="C499" s="5"/>
@@ -10180,7 +10457,7 @@
       <c r="Q499" s="5"/>
       <c r="R499" s="5"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:18" ht="14.25" customHeight="1">
       <c r="A500" s="5"/>
       <c r="B500" s="6"/>
       <c r="C500" s="5"/>
@@ -10200,7 +10477,7 @@
       <c r="Q500" s="5"/>
       <c r="R500" s="5"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:18" ht="14.25" customHeight="1">
       <c r="A501" s="5"/>
       <c r="B501" s="6"/>
       <c r="C501" s="5"/>
@@ -10220,7 +10497,7 @@
       <c r="Q501" s="5"/>
       <c r="R501" s="5"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:18" ht="14.25" customHeight="1">
       <c r="A502" s="5"/>
       <c r="B502" s="6"/>
       <c r="C502" s="5"/>
@@ -10240,7 +10517,7 @@
       <c r="Q502" s="5"/>
       <c r="R502" s="5"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:18" ht="14.25" customHeight="1">
       <c r="A503" s="5"/>
       <c r="B503" s="6"/>
       <c r="C503" s="5"/>
@@ -10260,7 +10537,7 @@
       <c r="Q503" s="5"/>
       <c r="R503" s="5"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:18" ht="14.25" customHeight="1">
       <c r="A504" s="5"/>
       <c r="B504" s="6"/>
       <c r="C504" s="5"/>
@@ -10280,7 +10557,7 @@
       <c r="Q504" s="5"/>
       <c r="R504" s="5"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:18" ht="14.25" customHeight="1">
       <c r="A505" s="5"/>
       <c r="B505" s="6"/>
       <c r="C505" s="5"/>
@@ -10300,7 +10577,7 @@
       <c r="Q505" s="5"/>
       <c r="R505" s="5"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:18" ht="14.25" customHeight="1">
       <c r="A506" s="5"/>
       <c r="B506" s="6"/>
       <c r="C506" s="5"/>
@@ -10320,7 +10597,7 @@
       <c r="Q506" s="5"/>
       <c r="R506" s="5"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:18" ht="14.25" customHeight="1">
       <c r="A507" s="5"/>
       <c r="B507" s="6"/>
       <c r="C507" s="5"/>
@@ -10340,7 +10617,7 @@
       <c r="Q507" s="5"/>
       <c r="R507" s="5"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:18" ht="14.25" customHeight="1">
       <c r="A508" s="5"/>
       <c r="B508" s="6"/>
       <c r="C508" s="5"/>
@@ -10360,7 +10637,7 @@
       <c r="Q508" s="5"/>
       <c r="R508" s="5"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:18" ht="14.25" customHeight="1">
       <c r="A509" s="5"/>
       <c r="B509" s="6"/>
       <c r="C509" s="5"/>
@@ -10380,7 +10657,7 @@
       <c r="Q509" s="5"/>
       <c r="R509" s="5"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:18" ht="14.25" customHeight="1">
       <c r="A510" s="5"/>
       <c r="B510" s="6"/>
       <c r="C510" s="5"/>
@@ -10400,7 +10677,7 @@
       <c r="Q510" s="5"/>
       <c r="R510" s="5"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:18" ht="14.25" customHeight="1">
       <c r="A511" s="5"/>
       <c r="B511" s="6"/>
       <c r="C511" s="5"/>
@@ -10420,7 +10697,7 @@
       <c r="Q511" s="5"/>
       <c r="R511" s="5"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="1:18" ht="14.25" customHeight="1">
       <c r="A512" s="5"/>
       <c r="B512" s="6"/>
       <c r="C512" s="5"/>
@@ -10440,7 +10717,7 @@
       <c r="Q512" s="5"/>
       <c r="R512" s="5"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="1:18" ht="14.25" customHeight="1">
       <c r="A513" s="5"/>
       <c r="B513" s="6"/>
       <c r="C513" s="5"/>
@@ -10460,7 +10737,7 @@
       <c r="Q513" s="5"/>
       <c r="R513" s="5"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="1:18" ht="14.25" customHeight="1">
       <c r="A514" s="5"/>
       <c r="B514" s="6"/>
       <c r="C514" s="5"/>
@@ -10480,7 +10757,7 @@
       <c r="Q514" s="5"/>
       <c r="R514" s="5"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="1:18" ht="14.25" customHeight="1">
       <c r="A515" s="5"/>
       <c r="B515" s="6"/>
       <c r="C515" s="5"/>
@@ -10500,7 +10777,7 @@
       <c r="Q515" s="5"/>
       <c r="R515" s="5"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="1:18" ht="14.25" customHeight="1">
       <c r="A516" s="5"/>
       <c r="B516" s="6"/>
       <c r="C516" s="5"/>
@@ -10520,7 +10797,7 @@
       <c r="Q516" s="5"/>
       <c r="R516" s="5"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="1:18" ht="14.25" customHeight="1">
       <c r="A517" s="5"/>
       <c r="B517" s="6"/>
       <c r="C517" s="5"/>
@@ -10540,7 +10817,7 @@
       <c r="Q517" s="5"/>
       <c r="R517" s="5"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="1:18" ht="14.25" customHeight="1">
       <c r="A518" s="5"/>
       <c r="B518" s="6"/>
       <c r="C518" s="5"/>
@@ -10560,7 +10837,7 @@
       <c r="Q518" s="5"/>
       <c r="R518" s="5"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="1:18" ht="14.25" customHeight="1">
       <c r="A519" s="5"/>
       <c r="B519" s="6"/>
       <c r="C519" s="5"/>
@@ -10580,7 +10857,7 @@
       <c r="Q519" s="5"/>
       <c r="R519" s="5"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="1:18" ht="14.25" customHeight="1">
       <c r="A520" s="5"/>
       <c r="B520" s="6"/>
       <c r="C520" s="5"/>
@@ -10600,7 +10877,7 @@
       <c r="Q520" s="5"/>
       <c r="R520" s="5"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="1:18" ht="14.25" customHeight="1">
       <c r="A521" s="5"/>
       <c r="B521" s="6"/>
       <c r="C521" s="5"/>
@@ -10620,7 +10897,7 @@
       <c r="Q521" s="5"/>
       <c r="R521" s="5"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="1:18" ht="14.25" customHeight="1">
       <c r="A522" s="5"/>
       <c r="B522" s="6"/>
       <c r="C522" s="5"/>
@@ -10640,7 +10917,7 @@
       <c r="Q522" s="5"/>
       <c r="R522" s="5"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="1:18" ht="14.25" customHeight="1">
       <c r="A523" s="5"/>
       <c r="B523" s="6"/>
       <c r="C523" s="5"/>
@@ -10660,7 +10937,7 @@
       <c r="Q523" s="5"/>
       <c r="R523" s="5"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="1:18" ht="14.25" customHeight="1">
       <c r="A524" s="5"/>
       <c r="B524" s="6"/>
       <c r="C524" s="5"/>
@@ -10680,7 +10957,7 @@
       <c r="Q524" s="5"/>
       <c r="R524" s="5"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="1:18" ht="14.25" customHeight="1">
       <c r="A525" s="5"/>
       <c r="B525" s="6"/>
       <c r="C525" s="5"/>
@@ -10700,7 +10977,7 @@
       <c r="Q525" s="5"/>
       <c r="R525" s="5"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="1:18" ht="14.25" customHeight="1">
       <c r="A526" s="5"/>
       <c r="B526" s="6"/>
       <c r="C526" s="5"/>
@@ -10720,7 +10997,7 @@
       <c r="Q526" s="5"/>
       <c r="R526" s="5"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="1:18" ht="14.25" customHeight="1">
       <c r="A527" s="5"/>
       <c r="B527" s="6"/>
       <c r="C527" s="5"/>
@@ -10740,7 +11017,7 @@
       <c r="Q527" s="5"/>
       <c r="R527" s="5"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="1:18" ht="14.25" customHeight="1">
       <c r="A528" s="5"/>
       <c r="B528" s="6"/>
       <c r="C528" s="5"/>
@@ -10760,7 +11037,7 @@
       <c r="Q528" s="5"/>
       <c r="R528" s="5"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="1:18" ht="14.25" customHeight="1">
       <c r="A529" s="5"/>
       <c r="B529" s="6"/>
       <c r="C529" s="5"/>
@@ -10780,7 +11057,7 @@
       <c r="Q529" s="5"/>
       <c r="R529" s="5"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="1:18" ht="14.25" customHeight="1">
       <c r="A530" s="5"/>
       <c r="B530" s="6"/>
       <c r="C530" s="5"/>
@@ -10800,7 +11077,7 @@
       <c r="Q530" s="5"/>
       <c r="R530" s="5"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="1:18" ht="14.25" customHeight="1">
       <c r="A531" s="5"/>
       <c r="B531" s="6"/>
       <c r="C531" s="5"/>
@@ -10820,7 +11097,7 @@
       <c r="Q531" s="5"/>
       <c r="R531" s="5"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="1:18" ht="14.25" customHeight="1">
       <c r="A532" s="5"/>
       <c r="B532" s="6"/>
       <c r="C532" s="5"/>
@@ -10840,7 +11117,7 @@
       <c r="Q532" s="5"/>
       <c r="R532" s="5"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="1:18" ht="14.25" customHeight="1">
       <c r="A533" s="5"/>
       <c r="B533" s="6"/>
       <c r="C533" s="5"/>
@@ -10860,7 +11137,7 @@
       <c r="Q533" s="5"/>
       <c r="R533" s="5"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="1:18" ht="14.25" customHeight="1">
       <c r="A534" s="5"/>
       <c r="B534" s="6"/>
       <c r="C534" s="5"/>
@@ -10880,7 +11157,7 @@
       <c r="Q534" s="5"/>
       <c r="R534" s="5"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="1:18" ht="14.25" customHeight="1">
       <c r="A535" s="5"/>
       <c r="B535" s="6"/>
       <c r="C535" s="5"/>
@@ -10900,7 +11177,7 @@
       <c r="Q535" s="5"/>
       <c r="R535" s="5"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="1:18" ht="14.25" customHeight="1">
       <c r="A536" s="5"/>
       <c r="B536" s="6"/>
       <c r="C536" s="5"/>
@@ -10920,7 +11197,7 @@
       <c r="Q536" s="5"/>
       <c r="R536" s="5"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="1:18" ht="14.25" customHeight="1">
       <c r="A537" s="5"/>
       <c r="B537" s="6"/>
       <c r="C537" s="5"/>
@@ -10940,7 +11217,7 @@
       <c r="Q537" s="5"/>
       <c r="R537" s="5"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="1:18" ht="14.25" customHeight="1">
       <c r="A538" s="5"/>
       <c r="B538" s="6"/>
       <c r="C538" s="5"/>
@@ -10960,7 +11237,7 @@
       <c r="Q538" s="5"/>
       <c r="R538" s="5"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="1:18" ht="14.25" customHeight="1">
       <c r="A539" s="5"/>
       <c r="B539" s="6"/>
       <c r="C539" s="5"/>
@@ -10980,7 +11257,7 @@
       <c r="Q539" s="5"/>
       <c r="R539" s="5"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="1:18" ht="14.25" customHeight="1">
       <c r="A540" s="5"/>
       <c r="B540" s="6"/>
       <c r="C540" s="5"/>
@@ -11000,7 +11277,7 @@
       <c r="Q540" s="5"/>
       <c r="R540" s="5"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="1:18" ht="14.25" customHeight="1">
       <c r="A541" s="5"/>
       <c r="B541" s="6"/>
       <c r="C541" s="5"/>
@@ -11020,7 +11297,7 @@
       <c r="Q541" s="5"/>
       <c r="R541" s="5"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="1:18" ht="14.25" customHeight="1">
       <c r="A542" s="5"/>
       <c r="B542" s="6"/>
       <c r="C542" s="5"/>
@@ -11040,7 +11317,7 @@
       <c r="Q542" s="5"/>
       <c r="R542" s="5"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="1:18" ht="14.25" customHeight="1">
       <c r="A543" s="5"/>
       <c r="B543" s="6"/>
       <c r="C543" s="5"/>
@@ -11060,7 +11337,7 @@
       <c r="Q543" s="5"/>
       <c r="R543" s="5"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="1:18" ht="14.25" customHeight="1">
       <c r="A544" s="5"/>
       <c r="B544" s="6"/>
       <c r="C544" s="5"/>
@@ -11080,7 +11357,7 @@
       <c r="Q544" s="5"/>
       <c r="R544" s="5"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="1:18" ht="14.25" customHeight="1">
       <c r="A545" s="5"/>
       <c r="B545" s="6"/>
       <c r="C545" s="5"/>
@@ -11100,7 +11377,7 @@
       <c r="Q545" s="5"/>
       <c r="R545" s="5"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="1:18" ht="14.25" customHeight="1">
       <c r="A546" s="5"/>
       <c r="B546" s="6"/>
       <c r="C546" s="5"/>
@@ -11120,7 +11397,7 @@
       <c r="Q546" s="5"/>
       <c r="R546" s="5"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="1:18" ht="14.25" customHeight="1">
       <c r="A547" s="5"/>
       <c r="B547" s="6"/>
       <c r="C547" s="5"/>
@@ -11140,7 +11417,7 @@
       <c r="Q547" s="5"/>
       <c r="R547" s="5"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="1:18" ht="14.25" customHeight="1">
       <c r="A548" s="5"/>
       <c r="B548" s="6"/>
       <c r="C548" s="5"/>
@@ -11160,7 +11437,7 @@
       <c r="Q548" s="5"/>
       <c r="R548" s="5"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="1:18" ht="14.25" customHeight="1">
       <c r="A549" s="5"/>
       <c r="B549" s="6"/>
       <c r="C549" s="5"/>
@@ -11180,7 +11457,7 @@
       <c r="Q549" s="5"/>
       <c r="R549" s="5"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="1:18" ht="14.25" customHeight="1">
       <c r="A550" s="5"/>
       <c r="B550" s="6"/>
       <c r="C550" s="5"/>
@@ -11200,7 +11477,7 @@
       <c r="Q550" s="5"/>
       <c r="R550" s="5"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="1:18" ht="14.25" customHeight="1">
       <c r="A551" s="5"/>
       <c r="B551" s="6"/>
       <c r="C551" s="5"/>
@@ -11220,7 +11497,7 @@
       <c r="Q551" s="5"/>
       <c r="R551" s="5"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="1:18" ht="14.25" customHeight="1">
       <c r="A552" s="5"/>
       <c r="B552" s="6"/>
       <c r="C552" s="5"/>
@@ -11240,7 +11517,7 @@
       <c r="Q552" s="5"/>
       <c r="R552" s="5"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="1:18" ht="14.25" customHeight="1">
       <c r="A553" s="5"/>
       <c r="B553" s="6"/>
       <c r="C553" s="5"/>
@@ -11260,7 +11537,7 @@
       <c r="Q553" s="5"/>
       <c r="R553" s="5"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="1:18" ht="14.25" customHeight="1">
       <c r="A554" s="5"/>
       <c r="B554" s="6"/>
       <c r="C554" s="5"/>
@@ -11280,7 +11557,7 @@
       <c r="Q554" s="5"/>
       <c r="R554" s="5"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="1:18" ht="14.25" customHeight="1">
       <c r="A555" s="5"/>
       <c r="B555" s="6"/>
       <c r="C555" s="5"/>
@@ -11300,7 +11577,7 @@
       <c r="Q555" s="5"/>
       <c r="R555" s="5"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="1:18" ht="14.25" customHeight="1">
       <c r="A556" s="5"/>
       <c r="B556" s="6"/>
       <c r="C556" s="5"/>
@@ -11320,7 +11597,7 @@
       <c r="Q556" s="5"/>
       <c r="R556" s="5"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="1:18" ht="14.25" customHeight="1">
       <c r="A557" s="5"/>
       <c r="B557" s="6"/>
       <c r="C557" s="5"/>
@@ -11340,7 +11617,7 @@
       <c r="Q557" s="5"/>
       <c r="R557" s="5"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="1:18" ht="14.25" customHeight="1">
       <c r="A558" s="5"/>
       <c r="B558" s="6"/>
       <c r="C558" s="5"/>
@@ -11360,7 +11637,7 @@
       <c r="Q558" s="5"/>
       <c r="R558" s="5"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="1:18" ht="14.25" customHeight="1">
       <c r="A559" s="5"/>
       <c r="B559" s="6"/>
       <c r="C559" s="5"/>
@@ -11380,7 +11657,7 @@
       <c r="Q559" s="5"/>
       <c r="R559" s="5"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="1:18" ht="14.25" customHeight="1">
       <c r="A560" s="5"/>
       <c r="B560" s="6"/>
       <c r="C560" s="5"/>
@@ -11400,7 +11677,7 @@
       <c r="Q560" s="5"/>
       <c r="R560" s="5"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="1:18" ht="14.25" customHeight="1">
       <c r="A561" s="5"/>
       <c r="B561" s="6"/>
       <c r="C561" s="5"/>
@@ -11420,7 +11697,7 @@
       <c r="Q561" s="5"/>
       <c r="R561" s="5"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="1:18" ht="14.25" customHeight="1">
       <c r="A562" s="5"/>
       <c r="B562" s="6"/>
       <c r="C562" s="5"/>
@@ -11440,7 +11717,7 @@
       <c r="Q562" s="5"/>
       <c r="R562" s="5"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="1:18" ht="14.25" customHeight="1">
       <c r="A563" s="5"/>
       <c r="B563" s="6"/>
       <c r="C563" s="5"/>
@@ -11460,7 +11737,7 @@
       <c r="Q563" s="5"/>
       <c r="R563" s="5"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="1:18" ht="14.25" customHeight="1">
       <c r="A564" s="5"/>
       <c r="B564" s="6"/>
       <c r="C564" s="5"/>
@@ -11480,7 +11757,7 @@
       <c r="Q564" s="5"/>
       <c r="R564" s="5"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="1:18" ht="14.25" customHeight="1">
       <c r="A565" s="5"/>
       <c r="B565" s="6"/>
       <c r="C565" s="5"/>
@@ -11500,7 +11777,7 @@
       <c r="Q565" s="5"/>
       <c r="R565" s="5"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="1:18" ht="14.25" customHeight="1">
       <c r="A566" s="5"/>
       <c r="B566" s="6"/>
       <c r="C566" s="5"/>
@@ -11520,7 +11797,7 @@
       <c r="Q566" s="5"/>
       <c r="R566" s="5"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="1:18" ht="14.25" customHeight="1">
       <c r="A567" s="5"/>
       <c r="B567" s="6"/>
       <c r="C567" s="5"/>
@@ -11540,7 +11817,7 @@
       <c r="Q567" s="5"/>
       <c r="R567" s="5"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="1:18" ht="14.25" customHeight="1">
       <c r="A568" s="5"/>
       <c r="B568" s="6"/>
       <c r="C568" s="5"/>
@@ -11560,7 +11837,7 @@
       <c r="Q568" s="5"/>
       <c r="R568" s="5"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="1:18" ht="14.25" customHeight="1">
       <c r="A569" s="5"/>
       <c r="B569" s="6"/>
       <c r="C569" s="5"/>
@@ -11580,7 +11857,7 @@
       <c r="Q569" s="5"/>
       <c r="R569" s="5"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="1:18" ht="14.25" customHeight="1">
       <c r="A570" s="5"/>
       <c r="B570" s="6"/>
       <c r="C570" s="5"/>
@@ -11600,7 +11877,7 @@
       <c r="Q570" s="5"/>
       <c r="R570" s="5"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="1:18" ht="14.25" customHeight="1">
       <c r="A571" s="5"/>
       <c r="B571" s="6"/>
       <c r="C571" s="5"/>
@@ -11620,7 +11897,7 @@
       <c r="Q571" s="5"/>
       <c r="R571" s="5"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="1:18" ht="14.25" customHeight="1">
       <c r="A572" s="5"/>
       <c r="B572" s="6"/>
       <c r="C572" s="5"/>
@@ -11640,7 +11917,7 @@
       <c r="Q572" s="5"/>
       <c r="R572" s="5"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="1:18" ht="14.25" customHeight="1">
       <c r="A573" s="5"/>
       <c r="B573" s="6"/>
       <c r="C573" s="5"/>
@@ -11660,7 +11937,7 @@
       <c r="Q573" s="5"/>
       <c r="R573" s="5"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="1:18" ht="14.25" customHeight="1">
       <c r="A574" s="5"/>
       <c r="B574" s="6"/>
       <c r="C574" s="5"/>
@@ -11680,7 +11957,7 @@
       <c r="Q574" s="5"/>
       <c r="R574" s="5"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="1:18" ht="14.25" customHeight="1">
       <c r="A575" s="5"/>
       <c r="B575" s="6"/>
       <c r="C575" s="5"/>
@@ -11700,7 +11977,7 @@
       <c r="Q575" s="5"/>
       <c r="R575" s="5"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="1:18" ht="14.25" customHeight="1">
       <c r="A576" s="5"/>
       <c r="B576" s="6"/>
       <c r="C576" s="5"/>
@@ -11720,7 +11997,7 @@
       <c r="Q576" s="5"/>
       <c r="R576" s="5"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="1:18" ht="14.25" customHeight="1">
       <c r="A577" s="5"/>
       <c r="B577" s="6"/>
       <c r="C577" s="5"/>
@@ -11740,7 +12017,7 @@
       <c r="Q577" s="5"/>
       <c r="R577" s="5"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="1:18" ht="14.25" customHeight="1">
       <c r="A578" s="5"/>
       <c r="B578" s="6"/>
       <c r="C578" s="5"/>
@@ -11760,7 +12037,7 @@
       <c r="Q578" s="5"/>
       <c r="R578" s="5"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="1:18" ht="14.25" customHeight="1">
       <c r="A579" s="5"/>
       <c r="B579" s="6"/>
       <c r="C579" s="5"/>
@@ -11780,7 +12057,7 @@
       <c r="Q579" s="5"/>
       <c r="R579" s="5"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="1:18" ht="14.25" customHeight="1">
       <c r="A580" s="5"/>
       <c r="B580" s="6"/>
       <c r="C580" s="5"/>
@@ -11800,7 +12077,7 @@
       <c r="Q580" s="5"/>
       <c r="R580" s="5"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="1:18" ht="14.25" customHeight="1">
       <c r="A581" s="5"/>
       <c r="B581" s="6"/>
       <c r="C581" s="5"/>
@@ -11820,7 +12097,7 @@
       <c r="Q581" s="5"/>
       <c r="R581" s="5"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="1:18" ht="14.25" customHeight="1">
       <c r="A582" s="5"/>
       <c r="B582" s="6"/>
       <c r="C582" s="5"/>
@@ -11840,7 +12117,7 @@
       <c r="Q582" s="5"/>
       <c r="R582" s="5"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="1:18" ht="14.25" customHeight="1">
       <c r="A583" s="5"/>
       <c r="B583" s="6"/>
       <c r="C583" s="5"/>
@@ -11860,7 +12137,7 @@
       <c r="Q583" s="5"/>
       <c r="R583" s="5"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="1:18" ht="14.25" customHeight="1">
       <c r="A584" s="5"/>
       <c r="B584" s="6"/>
       <c r="C584" s="5"/>
@@ -11880,7 +12157,7 @@
       <c r="Q584" s="5"/>
       <c r="R584" s="5"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="1:18" ht="14.25" customHeight="1">
       <c r="A585" s="5"/>
       <c r="B585" s="6"/>
       <c r="C585" s="5"/>
@@ -11900,7 +12177,7 @@
       <c r="Q585" s="5"/>
       <c r="R585" s="5"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="1:18" ht="14.25" customHeight="1">
       <c r="A586" s="5"/>
       <c r="B586" s="6"/>
       <c r="C586" s="5"/>
@@ -11920,7 +12197,7 @@
       <c r="Q586" s="5"/>
       <c r="R586" s="5"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="1:18" ht="14.25" customHeight="1">
       <c r="A587" s="5"/>
       <c r="B587" s="6"/>
       <c r="C587" s="5"/>
@@ -11940,7 +12217,7 @@
       <c r="Q587" s="5"/>
       <c r="R587" s="5"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="1:18" ht="14.25" customHeight="1">
       <c r="A588" s="5"/>
       <c r="B588" s="6"/>
       <c r="C588" s="5"/>
@@ -11960,7 +12237,7 @@
       <c r="Q588" s="5"/>
       <c r="R588" s="5"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="1:18" ht="14.25" customHeight="1">
       <c r="A589" s="5"/>
       <c r="B589" s="6"/>
       <c r="C589" s="5"/>
@@ -11980,7 +12257,7 @@
       <c r="Q589" s="5"/>
       <c r="R589" s="5"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="1:18" ht="14.25" customHeight="1">
       <c r="A590" s="5"/>
       <c r="B590" s="6"/>
       <c r="C590" s="5"/>
@@ -12000,7 +12277,7 @@
       <c r="Q590" s="5"/>
       <c r="R590" s="5"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="1:18" ht="14.25" customHeight="1">
       <c r="A591" s="5"/>
       <c r="B591" s="6"/>
       <c r="C591" s="5"/>
@@ -12020,7 +12297,7 @@
       <c r="Q591" s="5"/>
       <c r="R591" s="5"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="1:18" ht="14.25" customHeight="1">
       <c r="A592" s="5"/>
       <c r="B592" s="6"/>
       <c r="C592" s="5"/>
@@ -12040,7 +12317,7 @@
       <c r="Q592" s="5"/>
       <c r="R592" s="5"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="1:18" ht="14.25" customHeight="1">
       <c r="A593" s="5"/>
       <c r="B593" s="6"/>
       <c r="C593" s="5"/>
@@ -12060,7 +12337,7 @@
       <c r="Q593" s="5"/>
       <c r="R593" s="5"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="1:18" ht="14.25" customHeight="1">
       <c r="A594" s="5"/>
       <c r="B594" s="6"/>
       <c r="C594" s="5"/>
@@ -12080,7 +12357,7 @@
       <c r="Q594" s="5"/>
       <c r="R594" s="5"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="1:18" ht="14.25" customHeight="1">
       <c r="A595" s="5"/>
       <c r="B595" s="6"/>
       <c r="C595" s="5"/>
@@ -12100,7 +12377,7 @@
       <c r="Q595" s="5"/>
       <c r="R595" s="5"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="1:18" ht="14.25" customHeight="1">
       <c r="A596" s="5"/>
       <c r="B596" s="6"/>
       <c r="C596" s="5"/>
@@ -12120,7 +12397,7 @@
       <c r="Q596" s="5"/>
       <c r="R596" s="5"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="1:18" ht="14.25" customHeight="1">
       <c r="A597" s="5"/>
       <c r="B597" s="6"/>
       <c r="C597" s="5"/>
@@ -12140,7 +12417,7 @@
       <c r="Q597" s="5"/>
       <c r="R597" s="5"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="1:18" ht="14.25" customHeight="1">
       <c r="A598" s="5"/>
       <c r="B598" s="6"/>
       <c r="C598" s="5"/>
@@ -12160,7 +12437,7 @@
       <c r="Q598" s="5"/>
       <c r="R598" s="5"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="1:18" ht="14.25" customHeight="1">
       <c r="A599" s="5"/>
       <c r="B599" s="6"/>
       <c r="C599" s="5"/>
@@ -12180,7 +12457,7 @@
       <c r="Q599" s="5"/>
       <c r="R599" s="5"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="1:18" ht="14.25" customHeight="1">
       <c r="A600" s="5"/>
       <c r="B600" s="6"/>
       <c r="C600" s="5"/>
@@ -12200,7 +12477,7 @@
       <c r="Q600" s="5"/>
       <c r="R600" s="5"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="1:18" ht="14.25" customHeight="1">
       <c r="A601" s="5"/>
       <c r="B601" s="6"/>
       <c r="C601" s="5"/>
@@ -12220,7 +12497,7 @@
       <c r="Q601" s="5"/>
       <c r="R601" s="5"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="1:18" ht="14.25" customHeight="1">
       <c r="A602" s="5"/>
       <c r="B602" s="6"/>
       <c r="C602" s="5"/>
@@ -12240,7 +12517,7 @@
       <c r="Q602" s="5"/>
       <c r="R602" s="5"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="1:18" ht="14.25" customHeight="1">
       <c r="A603" s="5"/>
       <c r="B603" s="6"/>
       <c r="C603" s="5"/>
@@ -12260,7 +12537,7 @@
       <c r="Q603" s="5"/>
       <c r="R603" s="5"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="1:18" ht="14.25" customHeight="1">
       <c r="A604" s="5"/>
       <c r="B604" s="6"/>
       <c r="C604" s="5"/>
@@ -12280,7 +12557,7 @@
       <c r="Q604" s="5"/>
       <c r="R604" s="5"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="1:18" ht="14.25" customHeight="1">
       <c r="A605" s="5"/>
       <c r="B605" s="6"/>
       <c r="C605" s="5"/>
@@ -12300,7 +12577,7 @@
       <c r="Q605" s="5"/>
       <c r="R605" s="5"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="1:18" ht="14.25" customHeight="1">
       <c r="A606" s="5"/>
       <c r="B606" s="6"/>
       <c r="C606" s="5"/>
@@ -12320,7 +12597,7 @@
       <c r="Q606" s="5"/>
       <c r="R606" s="5"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="1:18" ht="14.25" customHeight="1">
       <c r="A607" s="5"/>
       <c r="B607" s="6"/>
       <c r="C607" s="5"/>
@@ -12340,7 +12617,7 @@
       <c r="Q607" s="5"/>
       <c r="R607" s="5"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="1:18" ht="14.25" customHeight="1">
       <c r="A608" s="5"/>
       <c r="B608" s="6"/>
       <c r="C608" s="5"/>
@@ -12360,7 +12637,7 @@
       <c r="Q608" s="5"/>
       <c r="R608" s="5"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="1:18" ht="14.25" customHeight="1">
       <c r="A609" s="5"/>
       <c r="B609" s="6"/>
       <c r="C609" s="5"/>
@@ -12380,7 +12657,7 @@
       <c r="Q609" s="5"/>
       <c r="R609" s="5"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="1:18" ht="14.25" customHeight="1">
       <c r="A610" s="5"/>
       <c r="B610" s="6"/>
       <c r="C610" s="5"/>
@@ -12400,7 +12677,7 @@
       <c r="Q610" s="5"/>
       <c r="R610" s="5"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="1:18" ht="14.25" customHeight="1">
       <c r="A611" s="5"/>
       <c r="B611" s="6"/>
       <c r="C611" s="5"/>
@@ -12420,7 +12697,7 @@
       <c r="Q611" s="5"/>
       <c r="R611" s="5"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="1:18" ht="14.25" customHeight="1">
       <c r="A612" s="5"/>
       <c r="B612" s="6"/>
       <c r="C612" s="5"/>
@@ -12440,7 +12717,7 @@
       <c r="Q612" s="5"/>
       <c r="R612" s="5"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="1:18" ht="14.25" customHeight="1">
       <c r="A613" s="5"/>
       <c r="B613" s="6"/>
       <c r="C613" s="5"/>
@@ -12460,7 +12737,7 @@
       <c r="Q613" s="5"/>
       <c r="R613" s="5"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="1:18" ht="14.25" customHeight="1">
       <c r="A614" s="5"/>
       <c r="B614" s="6"/>
       <c r="C614" s="5"/>
@@ -12480,7 +12757,7 @@
       <c r="Q614" s="5"/>
       <c r="R614" s="5"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="1:18" ht="14.25" customHeight="1">
       <c r="A615" s="5"/>
       <c r="B615" s="6"/>
       <c r="C615" s="5"/>
@@ -12500,7 +12777,7 @@
       <c r="Q615" s="5"/>
       <c r="R615" s="5"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="1:18" ht="14.25" customHeight="1">
       <c r="A616" s="5"/>
       <c r="B616" s="6"/>
       <c r="C616" s="5"/>
@@ -12520,7 +12797,7 @@
       <c r="Q616" s="5"/>
       <c r="R616" s="5"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="1:18" ht="14.25" customHeight="1">
       <c r="A617" s="5"/>
       <c r="B617" s="6"/>
       <c r="C617" s="5"/>
@@ -12540,7 +12817,7 @@
       <c r="Q617" s="5"/>
       <c r="R617" s="5"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="1:18" ht="14.25" customHeight="1">
       <c r="A618" s="5"/>
       <c r="B618" s="6"/>
       <c r="C618" s="5"/>
@@ -12560,7 +12837,7 @@
       <c r="Q618" s="5"/>
       <c r="R618" s="5"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="1:18" ht="14.25" customHeight="1">
       <c r="A619" s="5"/>
       <c r="B619" s="6"/>
       <c r="C619" s="5"/>
@@ -12580,7 +12857,7 @@
       <c r="Q619" s="5"/>
       <c r="R619" s="5"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="1:18" ht="14.25" customHeight="1">
       <c r="A620" s="5"/>
       <c r="B620" s="6"/>
       <c r="C620" s="5"/>
@@ -12600,7 +12877,7 @@
       <c r="Q620" s="5"/>
       <c r="R620" s="5"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="1:18" ht="14.25" customHeight="1">
       <c r="A621" s="5"/>
       <c r="B621" s="6"/>
       <c r="C621" s="5"/>
@@ -12620,7 +12897,7 @@
       <c r="Q621" s="5"/>
       <c r="R621" s="5"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="1:18" ht="14.25" customHeight="1">
       <c r="A622" s="5"/>
       <c r="B622" s="6"/>
       <c r="C622" s="5"/>
@@ -12640,7 +12917,7 @@
       <c r="Q622" s="5"/>
       <c r="R622" s="5"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="1:18" ht="14.25" customHeight="1">
       <c r="A623" s="5"/>
       <c r="B623" s="6"/>
       <c r="C623" s="5"/>
@@ -12660,7 +12937,7 @@
       <c r="Q623" s="5"/>
       <c r="R623" s="5"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="1:18" ht="14.25" customHeight="1">
       <c r="A624" s="5"/>
       <c r="B624" s="6"/>
       <c r="C624" s="5"/>
@@ -12680,7 +12957,7 @@
       <c r="Q624" s="5"/>
       <c r="R624" s="5"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="1:18" ht="14.25" customHeight="1">
       <c r="A625" s="5"/>
       <c r="B625" s="6"/>
       <c r="C625" s="5"/>
@@ -12700,7 +12977,7 @@
       <c r="Q625" s="5"/>
       <c r="R625" s="5"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="1:18" ht="14.25" customHeight="1">
       <c r="A626" s="5"/>
       <c r="B626" s="6"/>
       <c r="C626" s="5"/>
@@ -12720,7 +12997,7 @@
       <c r="Q626" s="5"/>
       <c r="R626" s="5"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="1:18" ht="14.25" customHeight="1">
       <c r="A627" s="5"/>
       <c r="B627" s="6"/>
       <c r="C627" s="5"/>
@@ -12740,7 +13017,7 @@
       <c r="Q627" s="5"/>
       <c r="R627" s="5"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="1:18" ht="14.25" customHeight="1">
       <c r="A628" s="5"/>
       <c r="B628" s="6"/>
       <c r="C628" s="5"/>
@@ -12760,7 +13037,7 @@
       <c r="Q628" s="5"/>
       <c r="R628" s="5"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="1:18" ht="14.25" customHeight="1">
       <c r="A629" s="5"/>
       <c r="B629" s="6"/>
       <c r="C629" s="5"/>
@@ -12780,7 +13057,7 @@
       <c r="Q629" s="5"/>
       <c r="R629" s="5"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="1:18" ht="14.25" customHeight="1">
       <c r="A630" s="5"/>
       <c r="B630" s="6"/>
       <c r="C630" s="5"/>
@@ -12800,7 +13077,7 @@
       <c r="Q630" s="5"/>
       <c r="R630" s="5"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="1:18" ht="14.25" customHeight="1">
       <c r="A631" s="5"/>
       <c r="B631" s="6"/>
       <c r="C631" s="5"/>
@@ -12820,7 +13097,7 @@
       <c r="Q631" s="5"/>
       <c r="R631" s="5"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="1:18" ht="14.25" customHeight="1">
       <c r="A632" s="5"/>
       <c r="B632" s="6"/>
       <c r="C632" s="5"/>
@@ -12840,7 +13117,7 @@
       <c r="Q632" s="5"/>
       <c r="R632" s="5"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="1:18" ht="14.25" customHeight="1">
       <c r="A633" s="5"/>
       <c r="B633" s="6"/>
       <c r="C633" s="5"/>
@@ -12860,7 +13137,7 @@
       <c r="Q633" s="5"/>
       <c r="R633" s="5"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="1:18" ht="14.25" customHeight="1">
       <c r="A634" s="5"/>
       <c r="B634" s="6"/>
       <c r="C634" s="5"/>
@@ -12880,7 +13157,7 @@
       <c r="Q634" s="5"/>
       <c r="R634" s="5"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="1:18" ht="14.25" customHeight="1">
       <c r="A635" s="5"/>
       <c r="B635" s="6"/>
       <c r="C635" s="5"/>
@@ -12900,7 +13177,7 @@
       <c r="Q635" s="5"/>
       <c r="R635" s="5"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="1:18" ht="14.25" customHeight="1">
       <c r="A636" s="5"/>
       <c r="B636" s="6"/>
       <c r="C636" s="5"/>
@@ -12920,7 +13197,7 @@
       <c r="Q636" s="5"/>
       <c r="R636" s="5"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="1:18" ht="14.25" customHeight="1">
       <c r="A637" s="5"/>
       <c r="B637" s="6"/>
       <c r="C637" s="5"/>
@@ -12940,7 +13217,7 @@
       <c r="Q637" s="5"/>
       <c r="R637" s="5"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="1:18" ht="14.25" customHeight="1">
       <c r="A638" s="5"/>
       <c r="B638" s="6"/>
       <c r="C638" s="5"/>
@@ -12960,7 +13237,7 @@
       <c r="Q638" s="5"/>
       <c r="R638" s="5"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="1:18" ht="14.25" customHeight="1">
       <c r="A639" s="5"/>
       <c r="B639" s="6"/>
       <c r="C639" s="5"/>
@@ -12980,7 +13257,7 @@
       <c r="Q639" s="5"/>
       <c r="R639" s="5"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="1:18" ht="14.25" customHeight="1">
       <c r="A640" s="5"/>
       <c r="B640" s="6"/>
       <c r="C640" s="5"/>
@@ -13000,7 +13277,7 @@
       <c r="Q640" s="5"/>
       <c r="R640" s="5"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="1:18" ht="14.25" customHeight="1">
       <c r="A641" s="5"/>
       <c r="B641" s="6"/>
       <c r="C641" s="5"/>
@@ -13020,7 +13297,7 @@
       <c r="Q641" s="5"/>
       <c r="R641" s="5"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="1:18" ht="14.25" customHeight="1">
       <c r="A642" s="5"/>
       <c r="B642" s="6"/>
       <c r="C642" s="5"/>
@@ -13040,7 +13317,7 @@
       <c r="Q642" s="5"/>
       <c r="R642" s="5"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="1:18" ht="14.25" customHeight="1">
       <c r="A643" s="5"/>
       <c r="B643" s="6"/>
       <c r="C643" s="5"/>
@@ -13060,7 +13337,7 @@
       <c r="Q643" s="5"/>
       <c r="R643" s="5"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="1:18" ht="14.25" customHeight="1">
       <c r="A644" s="5"/>
       <c r="B644" s="6"/>
       <c r="C644" s="5"/>
@@ -13080,7 +13357,7 @@
       <c r="Q644" s="5"/>
       <c r="R644" s="5"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="1:18" ht="14.25" customHeight="1">
       <c r="A645" s="5"/>
       <c r="B645" s="6"/>
       <c r="C645" s="5"/>
@@ -13100,7 +13377,7 @@
       <c r="Q645" s="5"/>
       <c r="R645" s="5"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="1:18" ht="14.25" customHeight="1">
       <c r="A646" s="5"/>
       <c r="B646" s="6"/>
       <c r="C646" s="5"/>
@@ -13120,7 +13397,7 @@
       <c r="Q646" s="5"/>
       <c r="R646" s="5"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="1:18" ht="14.25" customHeight="1">
       <c r="A647" s="5"/>
       <c r="B647" s="6"/>
       <c r="C647" s="5"/>
@@ -13140,7 +13417,7 @@
       <c r="Q647" s="5"/>
       <c r="R647" s="5"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="1:18" ht="14.25" customHeight="1">
       <c r="A648" s="5"/>
       <c r="B648" s="6"/>
       <c r="C648" s="5"/>
@@ -13160,7 +13437,7 @@
       <c r="Q648" s="5"/>
       <c r="R648" s="5"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="1:18" ht="14.25" customHeight="1">
       <c r="A649" s="5"/>
       <c r="B649" s="6"/>
       <c r="C649" s="5"/>
@@ -13180,7 +13457,7 @@
       <c r="Q649" s="5"/>
       <c r="R649" s="5"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="1:18" ht="14.25" customHeight="1">
       <c r="A650" s="5"/>
       <c r="B650" s="6"/>
       <c r="C650" s="5"/>
@@ -13200,7 +13477,7 @@
       <c r="Q650" s="5"/>
       <c r="R650" s="5"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="1:18" ht="14.25" customHeight="1">
       <c r="A651" s="5"/>
       <c r="B651" s="6"/>
       <c r="C651" s="5"/>
@@ -13220,7 +13497,7 @@
       <c r="Q651" s="5"/>
       <c r="R651" s="5"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="1:18" ht="14.25" customHeight="1">
       <c r="A652" s="5"/>
       <c r="B652" s="6"/>
       <c r="C652" s="5"/>
@@ -13240,7 +13517,7 @@
       <c r="Q652" s="5"/>
       <c r="R652" s="5"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="1:18" ht="14.25" customHeight="1">
       <c r="A653" s="5"/>
       <c r="B653" s="6"/>
       <c r="C653" s="5"/>
@@ -13260,7 +13537,7 @@
       <c r="Q653" s="5"/>
       <c r="R653" s="5"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="1:18" ht="14.25" customHeight="1">
       <c r="A654" s="5"/>
       <c r="B654" s="6"/>
       <c r="C654" s="5"/>
@@ -13280,7 +13557,7 @@
       <c r="Q654" s="5"/>
       <c r="R654" s="5"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="1:18" ht="14.25" customHeight="1">
       <c r="A655" s="5"/>
       <c r="B655" s="6"/>
       <c r="C655" s="5"/>
@@ -13300,7 +13577,7 @@
       <c r="Q655" s="5"/>
       <c r="R655" s="5"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="1:18" ht="14.25" customHeight="1">
       <c r="A656" s="5"/>
       <c r="B656" s="6"/>
       <c r="C656" s="5"/>
@@ -13320,7 +13597,7 @@
       <c r="Q656" s="5"/>
       <c r="R656" s="5"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="1:18" ht="14.25" customHeight="1">
       <c r="A657" s="5"/>
       <c r="B657" s="6"/>
       <c r="C657" s="5"/>
@@ -13340,7 +13617,7 @@
       <c r="Q657" s="5"/>
       <c r="R657" s="5"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="1:18" ht="14.25" customHeight="1">
       <c r="A658" s="5"/>
       <c r="B658" s="6"/>
       <c r="C658" s="5"/>
@@ -13360,7 +13637,7 @@
       <c r="Q658" s="5"/>
       <c r="R658" s="5"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="1:18" ht="14.25" customHeight="1">
       <c r="A659" s="5"/>
       <c r="B659" s="6"/>
       <c r="C659" s="5"/>
@@ -13380,7 +13657,7 @@
       <c r="Q659" s="5"/>
       <c r="R659" s="5"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="1:18" ht="14.25" customHeight="1">
       <c r="A660" s="5"/>
       <c r="B660" s="6"/>
       <c r="C660" s="5"/>
@@ -13400,7 +13677,7 @@
       <c r="Q660" s="5"/>
       <c r="R660" s="5"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="1:18" ht="14.25" customHeight="1">
       <c r="A661" s="5"/>
       <c r="B661" s="6"/>
       <c r="C661" s="5"/>
@@ -13420,7 +13697,7 @@
       <c r="Q661" s="5"/>
       <c r="R661" s="5"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="1:18" ht="14.25" customHeight="1">
       <c r="A662" s="5"/>
       <c r="B662" s="6"/>
       <c r="C662" s="5"/>
@@ -13440,7 +13717,7 @@
       <c r="Q662" s="5"/>
       <c r="R662" s="5"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="1:18" ht="14.25" customHeight="1">
       <c r="A663" s="5"/>
       <c r="B663" s="6"/>
       <c r="C663" s="5"/>
@@ -13460,7 +13737,7 @@
       <c r="Q663" s="5"/>
       <c r="R663" s="5"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="1:18" ht="14.25" customHeight="1">
       <c r="A664" s="5"/>
       <c r="B664" s="6"/>
       <c r="C664" s="5"/>
@@ -13480,7 +13757,7 @@
       <c r="Q664" s="5"/>
       <c r="R664" s="5"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="1:18" ht="14.25" customHeight="1">
       <c r="A665" s="5"/>
       <c r="B665" s="6"/>
       <c r="C665" s="5"/>
@@ -13500,7 +13777,7 @@
       <c r="Q665" s="5"/>
       <c r="R665" s="5"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="1:18" ht="14.25" customHeight="1">
       <c r="A666" s="5"/>
       <c r="B666" s="6"/>
       <c r="C666" s="5"/>
@@ -13520,7 +13797,7 @@
       <c r="Q666" s="5"/>
       <c r="R666" s="5"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="1:18" ht="14.25" customHeight="1">
       <c r="A667" s="5"/>
       <c r="B667" s="6"/>
       <c r="C667" s="5"/>
@@ -13540,7 +13817,7 @@
       <c r="Q667" s="5"/>
       <c r="R667" s="5"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="1:18" ht="14.25" customHeight="1">
       <c r="A668" s="5"/>
       <c r="B668" s="6"/>
       <c r="C668" s="5"/>
@@ -13560,7 +13837,7 @@
       <c r="Q668" s="5"/>
       <c r="R668" s="5"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="1:18" ht="14.25" customHeight="1">
       <c r="A669" s="5"/>
       <c r="B669" s="6"/>
       <c r="C669" s="5"/>
@@ -13580,7 +13857,7 @@
       <c r="Q669" s="5"/>
       <c r="R669" s="5"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="1:18" ht="14.25" customHeight="1">
       <c r="A670" s="5"/>
       <c r="B670" s="6"/>
       <c r="C670" s="5"/>
@@ -13600,7 +13877,7 @@
       <c r="Q670" s="5"/>
       <c r="R670" s="5"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="1:18" ht="14.25" customHeight="1">
       <c r="A671" s="5"/>
       <c r="B671" s="6"/>
       <c r="C671" s="5"/>
@@ -13620,7 +13897,7 @@
       <c r="Q671" s="5"/>
       <c r="R671" s="5"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="1:18" ht="14.25" customHeight="1">
       <c r="A672" s="5"/>
       <c r="B672" s="6"/>
       <c r="C672" s="5"/>
@@ -13640,7 +13917,7 @@
       <c r="Q672" s="5"/>
       <c r="R672" s="5"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="1:18" ht="14.25" customHeight="1">
       <c r="A673" s="5"/>
       <c r="B673" s="6"/>
       <c r="C673" s="5"/>
@@ -13660,7 +13937,7 @@
       <c r="Q673" s="5"/>
       <c r="R673" s="5"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="1:18" ht="14.25" customHeight="1">
       <c r="A674" s="5"/>
       <c r="B674" s="6"/>
       <c r="C674" s="5"/>
@@ -13680,7 +13957,7 @@
       <c r="Q674" s="5"/>
       <c r="R674" s="5"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="1:18" ht="14.25" customHeight="1">
       <c r="A675" s="5"/>
       <c r="B675" s="6"/>
       <c r="C675" s="5"/>
@@ -13700,7 +13977,7 @@
       <c r="Q675" s="5"/>
       <c r="R675" s="5"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="1:18" ht="14.25" customHeight="1">
       <c r="A676" s="5"/>
       <c r="B676" s="6"/>
       <c r="C676" s="5"/>
@@ -13720,7 +13997,7 @@
       <c r="Q676" s="5"/>
       <c r="R676" s="5"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="1:18" ht="14.25" customHeight="1">
       <c r="A677" s="5"/>
       <c r="B677" s="6"/>
       <c r="C677" s="5"/>
@@ -13740,7 +14017,7 @@
       <c r="Q677" s="5"/>
       <c r="R677" s="5"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="1:18" ht="14.25" customHeight="1">
       <c r="A678" s="5"/>
       <c r="B678" s="6"/>
       <c r="C678" s="5"/>
@@ -13760,7 +14037,7 @@
       <c r="Q678" s="5"/>
       <c r="R678" s="5"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="1:18" ht="14.25" customHeight="1">
       <c r="A679" s="5"/>
       <c r="B679" s="6"/>
       <c r="C679" s="5"/>
@@ -13780,7 +14057,7 @@
       <c r="Q679" s="5"/>
       <c r="R679" s="5"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="1:18" ht="14.25" customHeight="1">
       <c r="A680" s="5"/>
       <c r="B680" s="6"/>
       <c r="C680" s="5"/>
@@ -13800,7 +14077,7 @@
       <c r="Q680" s="5"/>
       <c r="R680" s="5"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="1:18" ht="14.25" customHeight="1">
       <c r="A681" s="5"/>
       <c r="B681" s="6"/>
       <c r="C681" s="5"/>
@@ -13820,7 +14097,7 @@
       <c r="Q681" s="5"/>
       <c r="R681" s="5"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="1:18" ht="14.25" customHeight="1">
       <c r="A682" s="5"/>
       <c r="B682" s="6"/>
       <c r="C682" s="5"/>
@@ -13840,7 +14117,7 @@
       <c r="Q682" s="5"/>
       <c r="R682" s="5"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="1:18" ht="14.25" customHeight="1">
       <c r="A683" s="5"/>
       <c r="B683" s="6"/>
       <c r="C683" s="5"/>
@@ -13860,7 +14137,7 @@
       <c r="Q683" s="5"/>
       <c r="R683" s="5"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="1:18" ht="14.25" customHeight="1">
       <c r="A684" s="5"/>
       <c r="B684" s="6"/>
       <c r="C684" s="5"/>
@@ -13880,7 +14157,7 @@
       <c r="Q684" s="5"/>
       <c r="R684" s="5"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="1:18" ht="14.25" customHeight="1">
       <c r="A685" s="5"/>
       <c r="B685" s="6"/>
       <c r="C685" s="5"/>
@@ -13900,7 +14177,7 @@
       <c r="Q685" s="5"/>
       <c r="R685" s="5"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="1:18" ht="14.25" customHeight="1">
       <c r="A686" s="5"/>
       <c r="B686" s="6"/>
       <c r="C686" s="5"/>
@@ -13920,7 +14197,7 @@
       <c r="Q686" s="5"/>
       <c r="R686" s="5"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="1:18" ht="14.25" customHeight="1">
       <c r="A687" s="5"/>
       <c r="B687" s="6"/>
       <c r="C687" s="5"/>
@@ -13940,7 +14217,7 @@
       <c r="Q687" s="5"/>
       <c r="R687" s="5"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="1:18" ht="14.25" customHeight="1">
       <c r="A688" s="5"/>
       <c r="B688" s="6"/>
       <c r="C688" s="5"/>
@@ -13960,7 +14237,7 @@
       <c r="Q688" s="5"/>
       <c r="R688" s="5"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="1:18" ht="14.25" customHeight="1">
       <c r="A689" s="5"/>
       <c r="B689" s="6"/>
       <c r="C689" s="5"/>
@@ -13980,7 +14257,7 @@
       <c r="Q689" s="5"/>
       <c r="R689" s="5"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="1:18" ht="14.25" customHeight="1">
       <c r="A690" s="5"/>
       <c r="B690" s="6"/>
       <c r="C690" s="5"/>
@@ -14000,7 +14277,7 @@
       <c r="Q690" s="5"/>
       <c r="R690" s="5"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="1:18" ht="14.25" customHeight="1">
       <c r="A691" s="5"/>
       <c r="B691" s="6"/>
       <c r="C691" s="5"/>
@@ -14020,7 +14297,7 @@
       <c r="Q691" s="5"/>
       <c r="R691" s="5"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="1:18" ht="14.25" customHeight="1">
       <c r="A692" s="5"/>
       <c r="B692" s="6"/>
       <c r="C692" s="5"/>
@@ -14040,7 +14317,7 @@
       <c r="Q692" s="5"/>
       <c r="R692" s="5"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="1:18" ht="14.25" customHeight="1">
       <c r="A693" s="5"/>
       <c r="B693" s="6"/>
       <c r="C693" s="5"/>
@@ -14060,7 +14337,7 @@
       <c r="Q693" s="5"/>
       <c r="R693" s="5"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="1:18" ht="14.25" customHeight="1">
       <c r="A694" s="5"/>
       <c r="B694" s="6"/>
       <c r="C694" s="5"/>
@@ -14080,7 +14357,7 @@
       <c r="Q694" s="5"/>
       <c r="R694" s="5"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="1:18" ht="14.25" customHeight="1">
       <c r="A695" s="5"/>
       <c r="B695" s="6"/>
       <c r="C695" s="5"/>
@@ -14100,7 +14377,7 @@
       <c r="Q695" s="5"/>
       <c r="R695" s="5"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="1:18" ht="14.25" customHeight="1">
       <c r="A696" s="5"/>
       <c r="B696" s="6"/>
       <c r="C696" s="5"/>
@@ -14120,7 +14397,7 @@
       <c r="Q696" s="5"/>
       <c r="R696" s="5"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="1:18" ht="14.25" customHeight="1">
       <c r="A697" s="5"/>
       <c r="B697" s="6"/>
       <c r="C697" s="5"/>
@@ -14140,7 +14417,7 @@
       <c r="Q697" s="5"/>
       <c r="R697" s="5"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="1:18" ht="14.25" customHeight="1">
       <c r="A698" s="5"/>
       <c r="B698" s="6"/>
       <c r="C698" s="5"/>
@@ -14160,7 +14437,7 @@
       <c r="Q698" s="5"/>
       <c r="R698" s="5"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="1:18" ht="14.25" customHeight="1">
       <c r="A699" s="5"/>
       <c r="B699" s="6"/>
       <c r="C699" s="5"/>
@@ -14180,7 +14457,7 @@
       <c r="Q699" s="5"/>
       <c r="R699" s="5"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="1:18" ht="14.25" customHeight="1">
       <c r="A700" s="5"/>
       <c r="B700" s="6"/>
       <c r="C700" s="5"/>
@@ -14200,7 +14477,7 @@
       <c r="Q700" s="5"/>
       <c r="R700" s="5"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="1:18" ht="14.25" customHeight="1">
       <c r="A701" s="5"/>
       <c r="B701" s="6"/>
       <c r="C701" s="5"/>
@@ -14220,7 +14497,7 @@
       <c r="Q701" s="5"/>
       <c r="R701" s="5"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="1:18" ht="14.25" customHeight="1">
       <c r="A702" s="5"/>
       <c r="B702" s="6"/>
       <c r="C702" s="5"/>
@@ -14240,7 +14517,7 @@
       <c r="Q702" s="5"/>
       <c r="R702" s="5"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="1:18" ht="14.25" customHeight="1">
       <c r="A703" s="5"/>
       <c r="B703" s="6"/>
       <c r="C703" s="5"/>
@@ -14260,7 +14537,7 @@
       <c r="Q703" s="5"/>
       <c r="R703" s="5"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="1:18" ht="14.25" customHeight="1">
       <c r="A704" s="5"/>
       <c r="B704" s="6"/>
       <c r="C704" s="5"/>
@@ -14280,7 +14557,7 @@
       <c r="Q704" s="5"/>
       <c r="R704" s="5"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="1:18" ht="14.25" customHeight="1">
       <c r="A705" s="5"/>
       <c r="B705" s="6"/>
       <c r="C705" s="5"/>
@@ -14300,7 +14577,7 @@
       <c r="Q705" s="5"/>
       <c r="R705" s="5"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="1:18" ht="14.25" customHeight="1">
       <c r="A706" s="5"/>
       <c r="B706" s="6"/>
       <c r="C706" s="5"/>
@@ -14320,7 +14597,7 @@
       <c r="Q706" s="5"/>
       <c r="R706" s="5"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="1:18" ht="14.25" customHeight="1">
       <c r="A707" s="5"/>
       <c r="B707" s="6"/>
       <c r="C707" s="5"/>
@@ -14340,7 +14617,7 @@
       <c r="Q707" s="5"/>
       <c r="R707" s="5"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="1:18" ht="14.25" customHeight="1">
       <c r="A708" s="5"/>
       <c r="B708" s="6"/>
       <c r="C708" s="5"/>
@@ -14360,7 +14637,7 @@
       <c r="Q708" s="5"/>
       <c r="R708" s="5"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="1:18" ht="14.25" customHeight="1">
       <c r="A709" s="5"/>
       <c r="B709" s="6"/>
       <c r="C709" s="5"/>
@@ -14380,7 +14657,7 @@
       <c r="Q709" s="5"/>
       <c r="R709" s="5"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="1:18" ht="14.25" customHeight="1">
       <c r="A710" s="5"/>
       <c r="B710" s="6"/>
       <c r="C710" s="5"/>
@@ -14400,7 +14677,7 @@
       <c r="Q710" s="5"/>
       <c r="R710" s="5"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="1:18" ht="14.25" customHeight="1">
       <c r="A711" s="5"/>
       <c r="B711" s="6"/>
       <c r="C711" s="5"/>
@@ -14420,7 +14697,7 @@
       <c r="Q711" s="5"/>
       <c r="R711" s="5"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="1:18" ht="14.25" customHeight="1">
       <c r="A712" s="5"/>
       <c r="B712" s="6"/>
       <c r="C712" s="5"/>
@@ -14440,7 +14717,7 @@
       <c r="Q712" s="5"/>
       <c r="R712" s="5"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="1:18" ht="14.25" customHeight="1">
       <c r="A713" s="5"/>
       <c r="B713" s="6"/>
       <c r="C713" s="5"/>
@@ -14460,7 +14737,7 @@
       <c r="Q713" s="5"/>
       <c r="R713" s="5"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="1:18" ht="14.25" customHeight="1">
       <c r="A714" s="5"/>
       <c r="B714" s="6"/>
       <c r="C714" s="5"/>
@@ -14480,7 +14757,7 @@
       <c r="Q714" s="5"/>
       <c r="R714" s="5"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="1:18" ht="14.25" customHeight="1">
       <c r="A715" s="5"/>
       <c r="B715" s="6"/>
       <c r="C715" s="5"/>
@@ -14500,7 +14777,7 @@
       <c r="Q715" s="5"/>
       <c r="R715" s="5"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="1:18" ht="14.25" customHeight="1">
       <c r="A716" s="5"/>
       <c r="B716" s="6"/>
       <c r="C716" s="5"/>
@@ -14520,7 +14797,7 @@
       <c r="Q716" s="5"/>
       <c r="R716" s="5"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="1:18" ht="14.25" customHeight="1">
       <c r="A717" s="5"/>
       <c r="B717" s="6"/>
       <c r="C717" s="5"/>
@@ -14540,7 +14817,7 @@
       <c r="Q717" s="5"/>
       <c r="R717" s="5"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="1:18" ht="14.25" customHeight="1">
       <c r="A718" s="5"/>
       <c r="B718" s="6"/>
       <c r="C718" s="5"/>
@@ -14560,7 +14837,7 @@
       <c r="Q718" s="5"/>
       <c r="R718" s="5"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="1:18" ht="14.25" customHeight="1">
       <c r="A719" s="5"/>
       <c r="B719" s="6"/>
       <c r="C719" s="5"/>
@@ -14580,7 +14857,7 @@
       <c r="Q719" s="5"/>
       <c r="R719" s="5"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="1:18" ht="14.25" customHeight="1">
       <c r="A720" s="5"/>
       <c r="B720" s="6"/>
       <c r="C720" s="5"/>
@@ -14600,7 +14877,7 @@
       <c r="Q720" s="5"/>
       <c r="R720" s="5"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="1:18" ht="14.25" customHeight="1">
       <c r="A721" s="5"/>
       <c r="B721" s="6"/>
       <c r="C721" s="5"/>
@@ -14620,7 +14897,7 @@
       <c r="Q721" s="5"/>
       <c r="R721" s="5"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="1:18" ht="14.25" customHeight="1">
       <c r="A722" s="5"/>
       <c r="B722" s="6"/>
       <c r="C722" s="5"/>
@@ -14640,7 +14917,7 @@
       <c r="Q722" s="5"/>
       <c r="R722" s="5"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="1:18" ht="14.25" customHeight="1">
       <c r="A723" s="5"/>
       <c r="B723" s="6"/>
       <c r="C723" s="5"/>
@@ -14660,7 +14937,7 @@
       <c r="Q723" s="5"/>
       <c r="R723" s="5"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="1:18" ht="14.25" customHeight="1">
       <c r="A724" s="5"/>
       <c r="B724" s="6"/>
       <c r="C724" s="5"/>
@@ -14680,7 +14957,7 @@
       <c r="Q724" s="5"/>
       <c r="R724" s="5"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="1:18" ht="14.25" customHeight="1">
       <c r="A725" s="5"/>
       <c r="B725" s="6"/>
       <c r="C725" s="5"/>
@@ -14700,7 +14977,7 @@
       <c r="Q725" s="5"/>
       <c r="R725" s="5"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="1:18" ht="14.25" customHeight="1">
       <c r="A726" s="5"/>
       <c r="B726" s="6"/>
       <c r="C726" s="5"/>
@@ -14720,7 +14997,7 @@
       <c r="Q726" s="5"/>
       <c r="R726" s="5"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="1:18" ht="14.25" customHeight="1">
       <c r="A727" s="5"/>
       <c r="B727" s="6"/>
       <c r="C727" s="5"/>
@@ -14740,7 +15017,7 @@
       <c r="Q727" s="5"/>
       <c r="R727" s="5"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="1:18" ht="14.25" customHeight="1">
       <c r="A728" s="5"/>
       <c r="B728" s="6"/>
       <c r="C728" s="5"/>
@@ -14760,7 +15037,7 @@
       <c r="Q728" s="5"/>
       <c r="R728" s="5"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="1:18" ht="14.25" customHeight="1">
       <c r="A729" s="5"/>
       <c r="B729" s="6"/>
       <c r="C729" s="5"/>
@@ -14780,7 +15057,7 @@
       <c r="Q729" s="5"/>
       <c r="R729" s="5"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="1:18" ht="14.25" customHeight="1">
       <c r="A730" s="5"/>
       <c r="B730" s="6"/>
       <c r="C730" s="5"/>
@@ -14800,7 +15077,7 @@
       <c r="Q730" s="5"/>
       <c r="R730" s="5"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="1:18" ht="14.25" customHeight="1">
       <c r="A731" s="5"/>
       <c r="B731" s="6"/>
       <c r="C731" s="5"/>
@@ -14820,7 +15097,7 @@
       <c r="Q731" s="5"/>
       <c r="R731" s="5"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="1:18" ht="14.25" customHeight="1">
       <c r="A732" s="5"/>
       <c r="B732" s="6"/>
       <c r="C732" s="5"/>
@@ -14840,7 +15117,7 @@
       <c r="Q732" s="5"/>
       <c r="R732" s="5"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="1:18" ht="14.25" customHeight="1">
       <c r="A733" s="5"/>
       <c r="B733" s="6"/>
       <c r="C733" s="5"/>
@@ -14860,7 +15137,7 @@
       <c r="Q733" s="5"/>
       <c r="R733" s="5"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="1:18" ht="14.25" customHeight="1">
       <c r="A734" s="5"/>
       <c r="B734" s="6"/>
       <c r="C734" s="5"/>
@@ -14880,7 +15157,7 @@
       <c r="Q734" s="5"/>
       <c r="R734" s="5"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="1:18" ht="14.25" customHeight="1">
       <c r="A735" s="5"/>
       <c r="B735" s="6"/>
       <c r="C735" s="5"/>
@@ -14900,7 +15177,7 @@
       <c r="Q735" s="5"/>
       <c r="R735" s="5"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="1:18" ht="14.25" customHeight="1">
       <c r="A736" s="5"/>
       <c r="B736" s="6"/>
       <c r="C736" s="5"/>
@@ -14920,7 +15197,7 @@
       <c r="Q736" s="5"/>
       <c r="R736" s="5"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="1:18" ht="14.25" customHeight="1">
       <c r="A737" s="5"/>
       <c r="B737" s="6"/>
       <c r="C737" s="5"/>
@@ -14940,7 +15217,7 @@
       <c r="Q737" s="5"/>
       <c r="R737" s="5"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="1:18" ht="14.25" customHeight="1">
       <c r="A738" s="5"/>
       <c r="B738" s="6"/>
       <c r="C738" s="5"/>
@@ -14960,7 +15237,7 @@
       <c r="Q738" s="5"/>
       <c r="R738" s="5"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="1:18" ht="14.25" customHeight="1">
       <c r="A739" s="5"/>
       <c r="B739" s="6"/>
       <c r="C739" s="5"/>
@@ -14980,7 +15257,7 @@
       <c r="Q739" s="5"/>
       <c r="R739" s="5"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="1:18" ht="14.25" customHeight="1">
       <c r="A740" s="5"/>
       <c r="B740" s="6"/>
       <c r="C740" s="5"/>
@@ -15000,7 +15277,7 @@
       <c r="Q740" s="5"/>
       <c r="R740" s="5"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="1:18" ht="14.25" customHeight="1">
       <c r="A741" s="5"/>
       <c r="B741" s="6"/>
       <c r="C741" s="5"/>
@@ -15020,7 +15297,7 @@
       <c r="Q741" s="5"/>
       <c r="R741" s="5"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="1:18" ht="14.25" customHeight="1">
       <c r="A742" s="5"/>
       <c r="B742" s="6"/>
       <c r="C742" s="5"/>
@@ -15040,7 +15317,7 @@
       <c r="Q742" s="5"/>
       <c r="R742" s="5"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="1:18" ht="14.25" customHeight="1">
       <c r="A743" s="5"/>
       <c r="B743" s="6"/>
       <c r="C743" s="5"/>
@@ -15060,7 +15337,7 @@
       <c r="Q743" s="5"/>
       <c r="R743" s="5"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="1:18" ht="14.25" customHeight="1">
       <c r="A744" s="5"/>
       <c r="B744" s="6"/>
       <c r="C744" s="5"/>
@@ -15080,7 +15357,7 @@
       <c r="Q744" s="5"/>
       <c r="R744" s="5"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="1:18" ht="14.25" customHeight="1">
       <c r="A745" s="5"/>
       <c r="B745" s="6"/>
       <c r="C745" s="5"/>
@@ -15100,7 +15377,7 @@
       <c r="Q745" s="5"/>
       <c r="R745" s="5"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="1:18" ht="14.25" customHeight="1">
       <c r="A746" s="5"/>
       <c r="B746" s="6"/>
       <c r="C746" s="5"/>
@@ -15120,7 +15397,7 @@
       <c r="Q746" s="5"/>
       <c r="R746" s="5"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="1:18" ht="14.25" customHeight="1">
       <c r="A747" s="5"/>
       <c r="B747" s="6"/>
       <c r="C747" s="5"/>
@@ -15140,7 +15417,7 @@
       <c r="Q747" s="5"/>
       <c r="R747" s="5"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="1:18" ht="14.25" customHeight="1">
       <c r="A748" s="5"/>
       <c r="B748" s="6"/>
       <c r="C748" s="5"/>
@@ -15160,7 +15437,7 @@
       <c r="Q748" s="5"/>
       <c r="R748" s="5"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="1:18" ht="14.25" customHeight="1">
       <c r="A749" s="5"/>
       <c r="B749" s="6"/>
       <c r="C749" s="5"/>
@@ -15180,7 +15457,7 @@
       <c r="Q749" s="5"/>
       <c r="R749" s="5"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="1:18" ht="14.25" customHeight="1">
       <c r="A750" s="5"/>
       <c r="B750" s="6"/>
       <c r="C750" s="5"/>
@@ -15200,7 +15477,7 @@
       <c r="Q750" s="5"/>
       <c r="R750" s="5"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="1:18" ht="14.25" customHeight="1">
       <c r="A751" s="5"/>
       <c r="B751" s="6"/>
       <c r="C751" s="5"/>
@@ -15220,7 +15497,7 @@
       <c r="Q751" s="5"/>
       <c r="R751" s="5"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="1:18" ht="14.25" customHeight="1">
       <c r="A752" s="5"/>
       <c r="B752" s="6"/>
       <c r="C752" s="5"/>
@@ -15240,7 +15517,7 @@
       <c r="Q752" s="5"/>
       <c r="R752" s="5"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="1:18" ht="14.25" customHeight="1">
       <c r="A753" s="5"/>
       <c r="B753" s="6"/>
       <c r="C753" s="5"/>
@@ -15260,7 +15537,7 @@
       <c r="Q753" s="5"/>
       <c r="R753" s="5"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="1:18" ht="14.25" customHeight="1">
       <c r="A754" s="5"/>
       <c r="B754" s="6"/>
       <c r="C754" s="5"/>
@@ -15280,7 +15557,7 @@
       <c r="Q754" s="5"/>
       <c r="R754" s="5"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="1:18" ht="14.25" customHeight="1">
       <c r="A755" s="5"/>
       <c r="B755" s="6"/>
       <c r="C755" s="5"/>
@@ -15300,7 +15577,7 @@
       <c r="Q755" s="5"/>
       <c r="R755" s="5"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="1:18" ht="14.25" customHeight="1">
       <c r="A756" s="5"/>
       <c r="B756" s="6"/>
       <c r="C756" s="5"/>
@@ -15320,7 +15597,7 @@
       <c r="Q756" s="5"/>
       <c r="R756" s="5"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="1:18" ht="14.25" customHeight="1">
       <c r="A757" s="5"/>
       <c r="B757" s="6"/>
       <c r="C757" s="5"/>
@@ -15340,7 +15617,7 @@
       <c r="Q757" s="5"/>
       <c r="R757" s="5"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="1:18" ht="14.25" customHeight="1">
       <c r="A758" s="5"/>
       <c r="B758" s="6"/>
       <c r="C758" s="5"/>
@@ -15360,7 +15637,7 @@
       <c r="Q758" s="5"/>
       <c r="R758" s="5"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="1:18" ht="14.25" customHeight="1">
       <c r="A759" s="5"/>
       <c r="B759" s="6"/>
       <c r="C759" s="5"/>
@@ -15380,7 +15657,7 @@
       <c r="Q759" s="5"/>
       <c r="R759" s="5"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="1:18" ht="14.25" customHeight="1">
       <c r="A760" s="5"/>
       <c r="B760" s="6"/>
       <c r="C760" s="5"/>
@@ -15400,7 +15677,7 @@
       <c r="Q760" s="5"/>
       <c r="R760" s="5"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="1:18" ht="14.25" customHeight="1">
       <c r="A761" s="5"/>
       <c r="B761" s="6"/>
       <c r="C761" s="5"/>
@@ -15420,7 +15697,7 @@
       <c r="Q761" s="5"/>
       <c r="R761" s="5"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="1:18" ht="14.25" customHeight="1">
       <c r="A762" s="5"/>
       <c r="B762" s="6"/>
       <c r="C762" s="5"/>
@@ -15440,7 +15717,7 @@
       <c r="Q762" s="5"/>
       <c r="R762" s="5"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="1:18" ht="14.25" customHeight="1">
       <c r="A763" s="5"/>
       <c r="B763" s="6"/>
       <c r="C763" s="5"/>
@@ -15460,7 +15737,7 @@
       <c r="Q763" s="5"/>
       <c r="R763" s="5"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="1:18" ht="14.25" customHeight="1">
       <c r="A764" s="5"/>
       <c r="B764" s="6"/>
       <c r="C764" s="5"/>
@@ -15480,7 +15757,7 @@
       <c r="Q764" s="5"/>
       <c r="R764" s="5"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="1:18" ht="14.25" customHeight="1">
       <c r="A765" s="5"/>
       <c r="B765" s="6"/>
       <c r="C765" s="5"/>
@@ -15500,7 +15777,7 @@
       <c r="Q765" s="5"/>
       <c r="R765" s="5"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="1:18" ht="14.25" customHeight="1">
       <c r="A766" s="5"/>
       <c r="B766" s="6"/>
       <c r="C766" s="5"/>
@@ -15520,7 +15797,7 @@
       <c r="Q766" s="5"/>
       <c r="R766" s="5"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="1:18" ht="14.25" customHeight="1">
       <c r="A767" s="5"/>
       <c r="B767" s="6"/>
       <c r="C767" s="5"/>
@@ -15540,7 +15817,7 @@
       <c r="Q767" s="5"/>
       <c r="R767" s="5"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="1:18" ht="14.25" customHeight="1">
       <c r="A768" s="5"/>
       <c r="B768" s="6"/>
       <c r="C768" s="5"/>
@@ -15560,7 +15837,7 @@
       <c r="Q768" s="5"/>
       <c r="R768" s="5"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="1:18" ht="14.25" customHeight="1">
       <c r="A769" s="5"/>
       <c r="B769" s="6"/>
       <c r="C769" s="5"/>
@@ -15580,7 +15857,7 @@
       <c r="Q769" s="5"/>
       <c r="R769" s="5"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="1:18" ht="14.25" customHeight="1">
       <c r="A770" s="5"/>
       <c r="B770" s="6"/>
       <c r="C770" s="5"/>
@@ -15600,7 +15877,7 @@
       <c r="Q770" s="5"/>
       <c r="R770" s="5"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="1:18" ht="14.25" customHeight="1">
       <c r="A771" s="5"/>
       <c r="B771" s="6"/>
       <c r="C771" s="5"/>
@@ -15620,7 +15897,7 @@
       <c r="Q771" s="5"/>
       <c r="R771" s="5"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="1:18" ht="14.25" customHeight="1">
       <c r="A772" s="5"/>
       <c r="B772" s="6"/>
       <c r="C772" s="5"/>
@@ -15640,7 +15917,7 @@
       <c r="Q772" s="5"/>
       <c r="R772" s="5"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="1:18" ht="14.25" customHeight="1">
       <c r="A773" s="5"/>
       <c r="B773" s="6"/>
       <c r="C773" s="5"/>
@@ -15660,7 +15937,7 @@
       <c r="Q773" s="5"/>
       <c r="R773" s="5"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="1:18" ht="14.25" customHeight="1">
       <c r="A774" s="5"/>
       <c r="B774" s="6"/>
       <c r="C774" s="5"/>
@@ -15680,7 +15957,7 @@
       <c r="Q774" s="5"/>
       <c r="R774" s="5"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="1:18" ht="14.25" customHeight="1">
       <c r="A775" s="5"/>
       <c r="B775" s="6"/>
       <c r="C775" s="5"/>
@@ -15700,7 +15977,7 @@
       <c r="Q775" s="5"/>
       <c r="R775" s="5"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="1:18" ht="14.25" customHeight="1">
       <c r="A776" s="5"/>
       <c r="B776" s="6"/>
       <c r="C776" s="5"/>
@@ -15720,7 +15997,7 @@
       <c r="Q776" s="5"/>
       <c r="R776" s="5"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="1:18" ht="14.25" customHeight="1">
       <c r="A777" s="5"/>
       <c r="B777" s="6"/>
       <c r="C777" s="5"/>
@@ -15740,7 +16017,7 @@
       <c r="Q777" s="5"/>
       <c r="R777" s="5"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="1:18" ht="14.25" customHeight="1">
       <c r="A778" s="5"/>
       <c r="B778" s="6"/>
       <c r="C778" s="5"/>
@@ -15760,7 +16037,7 @@
       <c r="Q778" s="5"/>
       <c r="R778" s="5"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="1:18" ht="14.25" customHeight="1">
       <c r="A779" s="5"/>
       <c r="B779" s="6"/>
       <c r="C779" s="5"/>
@@ -15780,7 +16057,7 @@
       <c r="Q779" s="5"/>
       <c r="R779" s="5"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="1:18" ht="14.25" customHeight="1">
       <c r="A780" s="5"/>
       <c r="B780" s="6"/>
       <c r="C780" s="5"/>
@@ -15800,7 +16077,7 @@
       <c r="Q780" s="5"/>
       <c r="R780" s="5"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="1:18" ht="14.25" customHeight="1">
       <c r="A781" s="5"/>
       <c r="B781" s="6"/>
       <c r="C781" s="5"/>
@@ -15820,7 +16097,7 @@
       <c r="Q781" s="5"/>
       <c r="R781" s="5"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="1:18" ht="14.25" customHeight="1">
       <c r="A782" s="5"/>
       <c r="B782" s="6"/>
       <c r="C782" s="5"/>
@@ -15840,7 +16117,7 @@
       <c r="Q782" s="5"/>
       <c r="R782" s="5"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="1:18" ht="14.25" customHeight="1">
       <c r="A783" s="5"/>
       <c r="B783" s="6"/>
       <c r="C783" s="5"/>
@@ -15860,7 +16137,7 @@
       <c r="Q783" s="5"/>
       <c r="R783" s="5"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="1:18" ht="14.25" customHeight="1">
       <c r="A784" s="5"/>
       <c r="B784" s="6"/>
       <c r="C784" s="5"/>
@@ -15880,7 +16157,7 @@
       <c r="Q784" s="5"/>
       <c r="R784" s="5"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="1:18" ht="14.25" customHeight="1">
       <c r="A785" s="5"/>
       <c r="B785" s="6"/>
       <c r="C785" s="5"/>
@@ -15900,7 +16177,7 @@
       <c r="Q785" s="5"/>
       <c r="R785" s="5"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="1:18" ht="14.25" customHeight="1">
       <c r="A786" s="5"/>
       <c r="B786" s="6"/>
       <c r="C786" s="5"/>
@@ -15920,7 +16197,7 @@
       <c r="Q786" s="5"/>
       <c r="R786" s="5"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="1:18" ht="14.25" customHeight="1">
       <c r="A787" s="5"/>
       <c r="B787" s="6"/>
       <c r="C787" s="5"/>
@@ -15940,7 +16217,7 @@
       <c r="Q787" s="5"/>
       <c r="R787" s="5"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="1:18" ht="14.25" customHeight="1">
       <c r="A788" s="5"/>
       <c r="B788" s="6"/>
       <c r="C788" s="5"/>
@@ -15960,7 +16237,7 @@
       <c r="Q788" s="5"/>
       <c r="R788" s="5"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="1:18" ht="14.25" customHeight="1">
       <c r="A789" s="5"/>
       <c r="B789" s="6"/>
       <c r="C789" s="5"/>
@@ -15980,7 +16257,7 @@
       <c r="Q789" s="5"/>
       <c r="R789" s="5"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="1:18" ht="14.25" customHeight="1">
       <c r="A790" s="5"/>
       <c r="B790" s="6"/>
       <c r="C790" s="5"/>
@@ -16000,7 +16277,7 @@
       <c r="Q790" s="5"/>
       <c r="R790" s="5"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="1:18" ht="14.25" customHeight="1">
       <c r="A791" s="5"/>
       <c r="B791" s="6"/>
       <c r="C791" s="5"/>
@@ -16020,7 +16297,7 @@
       <c r="Q791" s="5"/>
       <c r="R791" s="5"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="1:18" ht="14.25" customHeight="1">
       <c r="A792" s="5"/>
       <c r="B792" s="6"/>
       <c r="C792" s="5"/>
@@ -16040,7 +16317,7 @@
       <c r="Q792" s="5"/>
       <c r="R792" s="5"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="1:18" ht="14.25" customHeight="1">
       <c r="A793" s="5"/>
       <c r="B793" s="6"/>
       <c r="C793" s="5"/>
@@ -16060,7 +16337,7 @@
       <c r="Q793" s="5"/>
       <c r="R793" s="5"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="1:18" ht="14.25" customHeight="1">
       <c r="A794" s="5"/>
       <c r="B794" s="6"/>
       <c r="C794" s="5"/>
@@ -16080,7 +16357,7 @@
       <c r="Q794" s="5"/>
       <c r="R794" s="5"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="1:18" ht="14.25" customHeight="1">
       <c r="A795" s="5"/>
       <c r="B795" s="6"/>
       <c r="C795" s="5"/>
@@ -16100,7 +16377,7 @@
       <c r="Q795" s="5"/>
       <c r="R795" s="5"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="1:18" ht="14.25" customHeight="1">
       <c r="A796" s="5"/>
       <c r="B796" s="6"/>
       <c r="C796" s="5"/>
@@ -16120,7 +16397,7 @@
       <c r="Q796" s="5"/>
       <c r="R796" s="5"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="1:18" ht="14.25" customHeight="1">
       <c r="A797" s="5"/>
       <c r="B797" s="6"/>
       <c r="C797" s="5"/>
@@ -16140,7 +16417,7 @@
       <c r="Q797" s="5"/>
       <c r="R797" s="5"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="1:18" ht="14.25" customHeight="1">
       <c r="A798" s="5"/>
       <c r="B798" s="6"/>
       <c r="C798" s="5"/>
@@ -16160,7 +16437,7 @@
       <c r="Q798" s="5"/>
       <c r="R798" s="5"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="1:18" ht="14.25" customHeight="1">
       <c r="A799" s="5"/>
       <c r="B799" s="6"/>
       <c r="C799" s="5"/>
@@ -16180,7 +16457,7 @@
       <c r="Q799" s="5"/>
       <c r="R799" s="5"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="1:18" ht="14.25" customHeight="1">
       <c r="A800" s="5"/>
       <c r="B800" s="6"/>
       <c r="C800" s="5"/>
@@ -16200,7 +16477,7 @@
       <c r="Q800" s="5"/>
       <c r="R800" s="5"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="1:18" ht="14.25" customHeight="1">
       <c r="A801" s="5"/>
       <c r="B801" s="6"/>
       <c r="C801" s="5"/>
@@ -16220,7 +16497,7 @@
       <c r="Q801" s="5"/>
       <c r="R801" s="5"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="1:18" ht="14.25" customHeight="1">
       <c r="A802" s="5"/>
       <c r="B802" s="6"/>
       <c r="C802" s="5"/>
@@ -16240,7 +16517,7 @@
       <c r="Q802" s="5"/>
       <c r="R802" s="5"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="1:18" ht="14.25" customHeight="1">
       <c r="A803" s="5"/>
       <c r="B803" s="6"/>
       <c r="C803" s="5"/>
@@ -16260,7 +16537,7 @@
       <c r="Q803" s="5"/>
       <c r="R803" s="5"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="1:18" ht="14.25" customHeight="1">
       <c r="A804" s="5"/>
       <c r="B804" s="6"/>
       <c r="C804" s="5"/>
@@ -16280,7 +16557,7 @@
       <c r="Q804" s="5"/>
       <c r="R804" s="5"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="1:18" ht="14.25" customHeight="1">
       <c r="A805" s="5"/>
       <c r="B805" s="6"/>
       <c r="C805" s="5"/>
@@ -16300,7 +16577,7 @@
       <c r="Q805" s="5"/>
       <c r="R805" s="5"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="1:18" ht="14.25" customHeight="1">
       <c r="A806" s="5"/>
       <c r="B806" s="6"/>
       <c r="C806" s="5"/>
@@ -16320,7 +16597,7 @@
       <c r="Q806" s="5"/>
       <c r="R806" s="5"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="1:18" ht="14.25" customHeight="1">
       <c r="A807" s="5"/>
       <c r="B807" s="6"/>
       <c r="C807" s="5"/>
@@ -16340,7 +16617,7 @@
       <c r="Q807" s="5"/>
       <c r="R807" s="5"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="1:18" ht="14.25" customHeight="1">
       <c r="A808" s="5"/>
       <c r="B808" s="6"/>
       <c r="C808" s="5"/>
@@ -16360,7 +16637,7 @@
       <c r="Q808" s="5"/>
       <c r="R808" s="5"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="1:18" ht="14.25" customHeight="1">
       <c r="A809" s="5"/>
       <c r="B809" s="6"/>
       <c r="C809" s="5"/>
@@ -16380,7 +16657,7 @@
       <c r="Q809" s="5"/>
       <c r="R809" s="5"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="1:18" ht="14.25" customHeight="1">
       <c r="A810" s="5"/>
       <c r="B810" s="6"/>
       <c r="C810" s="5"/>
@@ -16400,7 +16677,7 @@
       <c r="Q810" s="5"/>
       <c r="R810" s="5"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="1:18" ht="14.25" customHeight="1">
       <c r="A811" s="5"/>
       <c r="B811" s="6"/>
       <c r="C811" s="5"/>
@@ -16420,7 +16697,7 @@
       <c r="Q811" s="5"/>
       <c r="R811" s="5"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="1:18" ht="14.25" customHeight="1">
       <c r="A812" s="5"/>
       <c r="B812" s="6"/>
       <c r="C812" s="5"/>
@@ -16440,7 +16717,7 @@
       <c r="Q812" s="5"/>
       <c r="R812" s="5"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="1:18" ht="14.25" customHeight="1">
       <c r="A813" s="5"/>
       <c r="B813" s="6"/>
       <c r="C813" s="5"/>
@@ -16460,7 +16737,7 @@
       <c r="Q813" s="5"/>
       <c r="R813" s="5"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="1:18" ht="14.25" customHeight="1">
       <c r="A814" s="5"/>
       <c r="B814" s="6"/>
       <c r="C814" s="5"/>
@@ -16480,7 +16757,7 @@
       <c r="Q814" s="5"/>
       <c r="R814" s="5"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="1:18" ht="14.25" customHeight="1">
       <c r="A815" s="5"/>
       <c r="B815" s="6"/>
       <c r="C815" s="5"/>
@@ -16500,7 +16777,7 @@
       <c r="Q815" s="5"/>
       <c r="R815" s="5"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="1:18" ht="14.25" customHeight="1">
       <c r="A816" s="5"/>
       <c r="B816" s="6"/>
       <c r="C816" s="5"/>
@@ -16520,7 +16797,7 @@
       <c r="Q816" s="5"/>
       <c r="R816" s="5"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="1:18" ht="14.25" customHeight="1">
       <c r="A817" s="5"/>
       <c r="B817" s="6"/>
       <c r="C817" s="5"/>
@@ -16540,7 +16817,7 @@
       <c r="Q817" s="5"/>
       <c r="R817" s="5"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="1:18" ht="14.25" customHeight="1">
       <c r="A818" s="5"/>
       <c r="B818" s="6"/>
       <c r="C818" s="5"/>
@@ -16560,7 +16837,7 @@
       <c r="Q818" s="5"/>
       <c r="R818" s="5"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="1:18" ht="14.25" customHeight="1">
       <c r="A819" s="5"/>
       <c r="B819" s="6"/>
       <c r="C819" s="5"/>
@@ -16580,7 +16857,7 @@
       <c r="Q819" s="5"/>
       <c r="R819" s="5"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="1:18" ht="14.25" customHeight="1">
       <c r="A820" s="5"/>
       <c r="B820" s="6"/>
       <c r="C820" s="5"/>
@@ -16600,7 +16877,7 @@
       <c r="Q820" s="5"/>
       <c r="R820" s="5"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="1:18" ht="14.25" customHeight="1">
       <c r="A821" s="5"/>
       <c r="B821" s="6"/>
       <c r="C821" s="5"/>
@@ -16620,7 +16897,7 @@
       <c r="Q821" s="5"/>
       <c r="R821" s="5"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="1:18" ht="14.25" customHeight="1">
       <c r="A822" s="5"/>
       <c r="B822" s="6"/>
       <c r="C822" s="5"/>
@@ -16640,7 +16917,7 @@
       <c r="Q822" s="5"/>
       <c r="R822" s="5"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="1:18" ht="14.25" customHeight="1">
       <c r="A823" s="5"/>
       <c r="B823" s="6"/>
       <c r="C823" s="5"/>
@@ -16660,7 +16937,7 @@
       <c r="Q823" s="5"/>
       <c r="R823" s="5"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="1:18" ht="14.25" customHeight="1">
       <c r="A824" s="5"/>
       <c r="B824" s="6"/>
       <c r="C824" s="5"/>
@@ -16680,7 +16957,7 @@
       <c r="Q824" s="5"/>
       <c r="R824" s="5"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="1:18" ht="14.25" customHeight="1">
       <c r="A825" s="5"/>
       <c r="B825" s="6"/>
       <c r="C825" s="5"/>
@@ -16700,7 +16977,7 @@
       <c r="Q825" s="5"/>
       <c r="R825" s="5"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="1:18" ht="14.25" customHeight="1">
       <c r="A826" s="5"/>
       <c r="B826" s="6"/>
       <c r="C826" s="5"/>
@@ -16720,7 +16997,7 @@
       <c r="Q826" s="5"/>
       <c r="R826" s="5"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="1:18" ht="14.25" customHeight="1">
       <c r="A827" s="5"/>
       <c r="B827" s="6"/>
       <c r="C827" s="5"/>
@@ -16740,7 +17017,7 @@
       <c r="Q827" s="5"/>
       <c r="R827" s="5"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="1:18" ht="14.25" customHeight="1">
       <c r="A828" s="5"/>
       <c r="B828" s="6"/>
       <c r="C828" s="5"/>
@@ -16760,7 +17037,7 @@
       <c r="Q828" s="5"/>
       <c r="R828" s="5"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="1:18" ht="14.25" customHeight="1">
       <c r="A829" s="5"/>
       <c r="B829" s="6"/>
       <c r="C829" s="5"/>
@@ -16780,7 +17057,7 @@
       <c r="Q829" s="5"/>
       <c r="R829" s="5"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="1:18" ht="14.25" customHeight="1">
       <c r="A830" s="5"/>
       <c r="B830" s="6"/>
       <c r="C830" s="5"/>
@@ -16800,7 +17077,7 @@
       <c r="Q830" s="5"/>
       <c r="R830" s="5"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="1:18" ht="14.25" customHeight="1">
       <c r="A831" s="5"/>
       <c r="B831" s="6"/>
       <c r="C831" s="5"/>
@@ -16820,7 +17097,7 @@
       <c r="Q831" s="5"/>
       <c r="R831" s="5"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="1:18" ht="14.25" customHeight="1">
       <c r="A832" s="5"/>
       <c r="B832" s="6"/>
       <c r="C832" s="5"/>
@@ -16840,7 +17117,7 @@
       <c r="Q832" s="5"/>
       <c r="R832" s="5"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="1:18" ht="14.25" customHeight="1">
       <c r="A833" s="5"/>
       <c r="B833" s="6"/>
       <c r="C833" s="5"/>
@@ -16860,7 +17137,7 @@
       <c r="Q833" s="5"/>
       <c r="R833" s="5"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="1:18" ht="14.25" customHeight="1">
       <c r="A834" s="5"/>
       <c r="B834" s="6"/>
       <c r="C834" s="5"/>
@@ -16880,7 +17157,7 @@
       <c r="Q834" s="5"/>
       <c r="R834" s="5"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="1:18" ht="14.25" customHeight="1">
       <c r="A835" s="5"/>
       <c r="B835" s="6"/>
       <c r="C835" s="5"/>
@@ -16900,7 +17177,7 @@
       <c r="Q835" s="5"/>
       <c r="R835" s="5"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="1:18" ht="14.25" customHeight="1">
       <c r="A836" s="5"/>
       <c r="B836" s="6"/>
       <c r="C836" s="5"/>
@@ -16920,7 +17197,7 @@
       <c r="Q836" s="5"/>
       <c r="R836" s="5"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="1:18" ht="14.25" customHeight="1">
       <c r="A837" s="5"/>
       <c r="B837" s="6"/>
       <c r="C837" s="5"/>
@@ -16940,7 +17217,7 @@
       <c r="Q837" s="5"/>
       <c r="R837" s="5"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="1:18" ht="14.25" customHeight="1">
       <c r="A838" s="5"/>
       <c r="B838" s="6"/>
       <c r="C838" s="5"/>
@@ -16960,7 +17237,7 @@
       <c r="Q838" s="5"/>
       <c r="R838" s="5"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="1:18" ht="14.25" customHeight="1">
       <c r="A839" s="5"/>
       <c r="B839" s="6"/>
       <c r="C839" s="5"/>
@@ -16980,7 +17257,7 @@
       <c r="Q839" s="5"/>
       <c r="R839" s="5"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="1:18" ht="14.25" customHeight="1">
       <c r="A840" s="5"/>
       <c r="B840" s="6"/>
       <c r="C840" s="5"/>
@@ -17000,7 +17277,7 @@
       <c r="Q840" s="5"/>
       <c r="R840" s="5"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="1:18" ht="14.25" customHeight="1">
       <c r="A841" s="5"/>
       <c r="B841" s="6"/>
       <c r="C841" s="5"/>
@@ -17020,7 +17297,7 @@
       <c r="Q841" s="5"/>
       <c r="R841" s="5"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="1:18" ht="14.25" customHeight="1">
       <c r="A842" s="5"/>
       <c r="B842" s="6"/>
       <c r="C842" s="5"/>
@@ -17040,7 +17317,7 @@
       <c r="Q842" s="5"/>
       <c r="R842" s="5"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="1:18" ht="14.25" customHeight="1">
       <c r="A843" s="5"/>
       <c r="B843" s="6"/>
       <c r="C843" s="5"/>
@@ -17060,7 +17337,7 @@
       <c r="Q843" s="5"/>
       <c r="R843" s="5"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="1:18" ht="14.25" customHeight="1">
       <c r="A844" s="5"/>
       <c r="B844" s="6"/>
       <c r="C844" s="5"/>
@@ -17080,7 +17357,7 @@
       <c r="Q844" s="5"/>
       <c r="R844" s="5"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="1:18" ht="14.25" customHeight="1">
       <c r="A845" s="5"/>
       <c r="B845" s="6"/>
       <c r="C845" s="5"/>
@@ -17100,7 +17377,7 @@
       <c r="Q845" s="5"/>
       <c r="R845" s="5"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="1:18" ht="14.25" customHeight="1">
       <c r="A846" s="5"/>
       <c r="B846" s="6"/>
       <c r="C846" s="5"/>
@@ -17120,7 +17397,7 @@
       <c r="Q846" s="5"/>
       <c r="R846" s="5"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="1:18" ht="14.25" customHeight="1">
       <c r="A847" s="5"/>
       <c r="B847" s="6"/>
       <c r="C847" s="5"/>
@@ -17140,7 +17417,7 @@
       <c r="Q847" s="5"/>
       <c r="R847" s="5"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="1:18" ht="14.25" customHeight="1">
       <c r="A848" s="5"/>
       <c r="B848" s="6"/>
       <c r="C848" s="5"/>
@@ -17160,7 +17437,7 @@
       <c r="Q848" s="5"/>
       <c r="R848" s="5"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="1:18" ht="14.25" customHeight="1">
       <c r="A849" s="5"/>
       <c r="B849" s="6"/>
       <c r="C849" s="5"/>
@@ -17180,7 +17457,7 @@
       <c r="Q849" s="5"/>
       <c r="R849" s="5"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="1:18" ht="14.25" customHeight="1">
       <c r="A850" s="5"/>
       <c r="B850" s="6"/>
       <c r="C850" s="5"/>
@@ -17200,7 +17477,7 @@
       <c r="Q850" s="5"/>
       <c r="R850" s="5"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="1:18" ht="14.25" customHeight="1">
       <c r="A851" s="5"/>
       <c r="B851" s="6"/>
       <c r="C851" s="5"/>
@@ -17220,7 +17497,7 @@
       <c r="Q851" s="5"/>
       <c r="R851" s="5"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="1:18" ht="14.25" customHeight="1">
       <c r="A852" s="5"/>
       <c r="B852" s="6"/>
       <c r="C852" s="5"/>
@@ -17240,7 +17517,7 @@
       <c r="Q852" s="5"/>
       <c r="R852" s="5"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="1:18" ht="14.25" customHeight="1">
       <c r="A853" s="5"/>
       <c r="B853" s="6"/>
       <c r="C853" s="5"/>
@@ -17260,7 +17537,7 @@
       <c r="Q853" s="5"/>
       <c r="R853" s="5"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="1:18" ht="14.25" customHeight="1">
       <c r="A854" s="5"/>
       <c r="B854" s="6"/>
       <c r="C854" s="5"/>
@@ -17280,7 +17557,7 @@
       <c r="Q854" s="5"/>
       <c r="R854" s="5"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="1:18" ht="14.25" customHeight="1">
       <c r="A855" s="5"/>
       <c r="B855" s="6"/>
       <c r="C855" s="5"/>
@@ -17300,7 +17577,7 @@
       <c r="Q855" s="5"/>
       <c r="R855" s="5"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="1:18" ht="14.25" customHeight="1">
       <c r="A856" s="5"/>
       <c r="B856" s="6"/>
       <c r="C856" s="5"/>
@@ -17320,7 +17597,7 @@
       <c r="Q856" s="5"/>
       <c r="R856" s="5"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="1:18" ht="14.25" customHeight="1">
       <c r="A857" s="5"/>
       <c r="B857" s="6"/>
       <c r="C857" s="5"/>
@@ -17340,7 +17617,7 @@
       <c r="Q857" s="5"/>
       <c r="R857" s="5"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="1:18" ht="14.25" customHeight="1">
       <c r="A858" s="5"/>
       <c r="B858" s="6"/>
       <c r="C858" s="5"/>
@@ -17360,7 +17637,7 @@
       <c r="Q858" s="5"/>
       <c r="R858" s="5"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="1:18" ht="14.25" customHeight="1">
       <c r="A859" s="5"/>
       <c r="B859" s="6"/>
       <c r="C859" s="5"/>
@@ -17380,7 +17657,7 @@
       <c r="Q859" s="5"/>
       <c r="R859" s="5"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="1:18" ht="14.25" customHeight="1">
       <c r="A860" s="5"/>
       <c r="B860" s="6"/>
       <c r="C860" s="5"/>
@@ -17400,7 +17677,7 @@
       <c r="Q860" s="5"/>
       <c r="R860" s="5"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="1:18" ht="14.25" customHeight="1">
       <c r="A861" s="5"/>
       <c r="B861" s="6"/>
       <c r="C861" s="5"/>
@@ -17420,7 +17697,7 @@
       <c r="Q861" s="5"/>
       <c r="R861" s="5"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="1:18" ht="14.25" customHeight="1">
       <c r="A862" s="5"/>
       <c r="B862" s="6"/>
       <c r="C862" s="5"/>
@@ -17440,7 +17717,7 @@
       <c r="Q862" s="5"/>
       <c r="R862" s="5"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="1:18" ht="14.25" customHeight="1">
       <c r="A863" s="5"/>
       <c r="B863" s="6"/>
       <c r="C863" s="5"/>
@@ -17460,7 +17737,7 @@
       <c r="Q863" s="5"/>
       <c r="R863" s="5"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="1:18" ht="14.25" customHeight="1">
       <c r="A864" s="5"/>
       <c r="B864" s="6"/>
       <c r="C864" s="5"/>
@@ -17480,7 +17757,7 @@
       <c r="Q864" s="5"/>
       <c r="R864" s="5"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="1:18" ht="14.25" customHeight="1">
       <c r="A865" s="5"/>
       <c r="B865" s="6"/>
       <c r="C865" s="5"/>
@@ -17500,7 +17777,7 @@
       <c r="Q865" s="5"/>
       <c r="R865" s="5"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="1:18" ht="14.25" customHeight="1">
       <c r="A866" s="5"/>
       <c r="B866" s="6"/>
       <c r="C866" s="5"/>
@@ -17520,7 +17797,7 @@
       <c r="Q866" s="5"/>
       <c r="R866" s="5"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="1:18" ht="14.25" customHeight="1">
       <c r="A867" s="5"/>
       <c r="B867" s="6"/>
       <c r="C867" s="5"/>
@@ -17540,7 +17817,7 @@
       <c r="Q867" s="5"/>
       <c r="R867" s="5"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="1:18" ht="14.25" customHeight="1">
       <c r="A868" s="5"/>
       <c r="B868" s="6"/>
       <c r="C868" s="5"/>
@@ -17560,7 +17837,7 @@
       <c r="Q868" s="5"/>
       <c r="R868" s="5"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="1:18" ht="14.25" customHeight="1">
       <c r="A869" s="5"/>
       <c r="B869" s="6"/>
       <c r="C869" s="5"/>
@@ -17580,7 +17857,7 @@
       <c r="Q869" s="5"/>
       <c r="R869" s="5"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="1:18" ht="14.25" customHeight="1">
       <c r="A870" s="5"/>
       <c r="B870" s="6"/>
       <c r="C870" s="5"/>
@@ -17600,7 +17877,7 @@
       <c r="Q870" s="5"/>
       <c r="R870" s="5"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="1:18" ht="14.25" customHeight="1">
       <c r="A871" s="5"/>
       <c r="B871" s="6"/>
       <c r="C871" s="5"/>
@@ -17620,7 +17897,7 @@
       <c r="Q871" s="5"/>
       <c r="R871" s="5"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="1:18" ht="14.25" customHeight="1">
       <c r="A872" s="5"/>
       <c r="B872" s="6"/>
       <c r="C872" s="5"/>
@@ -17640,7 +17917,7 @@
       <c r="Q872" s="5"/>
       <c r="R872" s="5"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="1:18" ht="14.25" customHeight="1">
       <c r="A873" s="5"/>
       <c r="B873" s="6"/>
       <c r="C873" s="5"/>
@@ -17660,7 +17937,7 @@
       <c r="Q873" s="5"/>
       <c r="R873" s="5"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="1:18" ht="14.25" customHeight="1">
       <c r="A874" s="5"/>
       <c r="B874" s="6"/>
       <c r="C874" s="5"/>
@@ -17680,7 +17957,7 @@
       <c r="Q874" s="5"/>
       <c r="R874" s="5"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="1:18" ht="14.25" customHeight="1">
       <c r="A875" s="5"/>
       <c r="B875" s="6"/>
       <c r="C875" s="5"/>
@@ -17700,7 +17977,7 @@
       <c r="Q875" s="5"/>
       <c r="R875" s="5"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="1:18" ht="14.25" customHeight="1">
       <c r="A876" s="5"/>
       <c r="B876" s="6"/>
       <c r="C876" s="5"/>
@@ -17720,7 +17997,7 @@
       <c r="Q876" s="5"/>
       <c r="R876" s="5"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="1:18" ht="14.25" customHeight="1">
       <c r="A877" s="5"/>
       <c r="B877" s="6"/>
       <c r="C877" s="5"/>
@@ -17740,7 +18017,7 @@
       <c r="Q877" s="5"/>
       <c r="R877" s="5"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="1:18" ht="14.25" customHeight="1">
       <c r="A878" s="5"/>
       <c r="B878" s="6"/>
       <c r="C878" s="5"/>
@@ -17760,7 +18037,7 @@
       <c r="Q878" s="5"/>
       <c r="R878" s="5"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="1:18" ht="14.25" customHeight="1">
       <c r="A879" s="5"/>
       <c r="B879" s="6"/>
       <c r="C879" s="5"/>
@@ -17780,7 +18057,7 @@
       <c r="Q879" s="5"/>
       <c r="R879" s="5"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="1:18" ht="14.25" customHeight="1">
       <c r="A880" s="5"/>
       <c r="B880" s="6"/>
       <c r="C880" s="5"/>
@@ -17800,7 +18077,7 @@
       <c r="Q880" s="5"/>
       <c r="R880" s="5"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="1:18" ht="14.25" customHeight="1">
       <c r="A881" s="5"/>
       <c r="B881" s="6"/>
       <c r="C881" s="5"/>
@@ -17820,7 +18097,7 @@
       <c r="Q881" s="5"/>
       <c r="R881" s="5"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="1:18" ht="14.25" customHeight="1">
       <c r="A882" s="5"/>
       <c r="B882" s="6"/>
       <c r="C882" s="5"/>
@@ -17840,7 +18117,7 @@
       <c r="Q882" s="5"/>
       <c r="R882" s="5"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="1:18" ht="14.25" customHeight="1">
       <c r="A883" s="5"/>
       <c r="B883" s="6"/>
       <c r="C883" s="5"/>
@@ -17860,7 +18137,7 @@
       <c r="Q883" s="5"/>
       <c r="R883" s="5"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="1:18" ht="14.25" customHeight="1">
       <c r="A884" s="5"/>
       <c r="B884" s="6"/>
       <c r="C884" s="5"/>
@@ -17880,7 +18157,7 @@
       <c r="Q884" s="5"/>
       <c r="R884" s="5"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="1:18" ht="14.25" customHeight="1">
       <c r="A885" s="5"/>
       <c r="B885" s="6"/>
       <c r="C885" s="5"/>
@@ -17900,7 +18177,7 @@
       <c r="Q885" s="5"/>
       <c r="R885" s="5"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="1:18" ht="14.25" customHeight="1">
       <c r="A886" s="5"/>
       <c r="B886" s="6"/>
       <c r="C886" s="5"/>
@@ -17920,7 +18197,7 @@
       <c r="Q886" s="5"/>
       <c r="R886" s="5"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="1:18" ht="14.25" customHeight="1">
       <c r="A887" s="5"/>
       <c r="B887" s="6"/>
       <c r="C887" s="5"/>
@@ -17940,7 +18217,7 @@
       <c r="Q887" s="5"/>
       <c r="R887" s="5"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="1:18" ht="14.25" customHeight="1">
       <c r="A888" s="5"/>
       <c r="B888" s="6"/>
       <c r="C888" s="5"/>
@@ -17960,7 +18237,7 @@
       <c r="Q888" s="5"/>
       <c r="R888" s="5"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="1:18" ht="14.25" customHeight="1">
       <c r="A889" s="5"/>
       <c r="B889" s="6"/>
       <c r="C889" s="5"/>
@@ -17980,7 +18257,7 @@
       <c r="Q889" s="5"/>
       <c r="R889" s="5"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="1:18" ht="14.25" customHeight="1">
       <c r="A890" s="5"/>
       <c r="B890" s="6"/>
       <c r="C890" s="5"/>
@@ -18000,7 +18277,7 @@
       <c r="Q890" s="5"/>
       <c r="R890" s="5"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="1:18" ht="14.25" customHeight="1">
       <c r="A891" s="5"/>
       <c r="B891" s="6"/>
       <c r="C891" s="5"/>
@@ -18020,7 +18297,7 @@
       <c r="Q891" s="5"/>
       <c r="R891" s="5"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="1:18" ht="14.25" customHeight="1">
       <c r="A892" s="5"/>
       <c r="B892" s="6"/>
       <c r="C892" s="5"/>
@@ -18040,7 +18317,7 @@
       <c r="Q892" s="5"/>
       <c r="R892" s="5"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="1:18" ht="14.25" customHeight="1">
       <c r="A893" s="5"/>
       <c r="B893" s="6"/>
       <c r="C893" s="5"/>
@@ -18060,7 +18337,7 @@
       <c r="Q893" s="5"/>
       <c r="R893" s="5"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="1:18" ht="14.25" customHeight="1">
       <c r="A894" s="5"/>
       <c r="B894" s="6"/>
       <c r="C894" s="5"/>
@@ -18080,7 +18357,7 @@
       <c r="Q894" s="5"/>
       <c r="R894" s="5"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="1:18" ht="14.25" customHeight="1">
       <c r="A895" s="5"/>
       <c r="B895" s="6"/>
       <c r="C895" s="5"/>
@@ -18100,7 +18377,7 @@
       <c r="Q895" s="5"/>
       <c r="R895" s="5"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="1:18" ht="14.25" customHeight="1">
       <c r="A896" s="5"/>
       <c r="B896" s="6"/>
       <c r="C896" s="5"/>
@@ -18120,7 +18397,7 @@
       <c r="Q896" s="5"/>
       <c r="R896" s="5"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="1:18" ht="14.25" customHeight="1">
       <c r="A897" s="5"/>
       <c r="B897" s="6"/>
       <c r="C897" s="5"/>
@@ -18140,7 +18417,7 @@
       <c r="Q897" s="5"/>
       <c r="R897" s="5"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="1:18" ht="14.25" customHeight="1">
       <c r="A898" s="5"/>
       <c r="B898" s="6"/>
       <c r="C898" s="5"/>
@@ -18160,7 +18437,7 @@
       <c r="Q898" s="5"/>
       <c r="R898" s="5"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="1:18" ht="14.25" customHeight="1">
       <c r="A899" s="5"/>
       <c r="B899" s="6"/>
       <c r="C899" s="5"/>
@@ -18180,7 +18457,7 @@
       <c r="Q899" s="5"/>
       <c r="R899" s="5"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="1:18" ht="14.25" customHeight="1">
       <c r="A900" s="5"/>
       <c r="B900" s="6"/>
       <c r="C900" s="5"/>
@@ -18200,7 +18477,7 @@
       <c r="Q900" s="5"/>
       <c r="R900" s="5"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="1:18" ht="14.25" customHeight="1">
       <c r="A901" s="5"/>
       <c r="B901" s="6"/>
       <c r="C901" s="5"/>
@@ -18220,7 +18497,7 @@
       <c r="Q901" s="5"/>
       <c r="R901" s="5"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="1:18" ht="14.25" customHeight="1">
       <c r="A902" s="5"/>
       <c r="B902" s="6"/>
       <c r="C902" s="5"/>
@@ -18240,7 +18517,7 @@
       <c r="Q902" s="5"/>
       <c r="R902" s="5"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="1:18" ht="14.25" customHeight="1">
       <c r="A903" s="5"/>
       <c r="B903" s="6"/>
       <c r="C903" s="5"/>
@@ -18260,7 +18537,7 @@
       <c r="Q903" s="5"/>
       <c r="R903" s="5"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="1:18" ht="14.25" customHeight="1">
       <c r="A904" s="5"/>
       <c r="B904" s="6"/>
       <c r="C904" s="5"/>
@@ -18280,7 +18557,7 @@
       <c r="Q904" s="5"/>
       <c r="R904" s="5"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="1:18" ht="14.25" customHeight="1">
       <c r="A905" s="5"/>
       <c r="B905" s="6"/>
       <c r="C905" s="5"/>
@@ -18300,7 +18577,7 @@
       <c r="Q905" s="5"/>
       <c r="R905" s="5"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="1:18" ht="14.25" customHeight="1">
       <c r="A906" s="5"/>
       <c r="B906" s="6"/>
       <c r="C906" s="5"/>
@@ -18320,7 +18597,7 @@
       <c r="Q906" s="5"/>
       <c r="R906" s="5"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="1:18" ht="14.25" customHeight="1">
       <c r="A907" s="5"/>
       <c r="B907" s="6"/>
       <c r="C907" s="5"/>
@@ -18340,7 +18617,7 @@
       <c r="Q907" s="5"/>
       <c r="R907" s="5"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="1:18" ht="14.25" customHeight="1">
       <c r="A908" s="5"/>
       <c r="B908" s="6"/>
       <c r="C908" s="5"/>
@@ -18360,7 +18637,7 @@
       <c r="Q908" s="5"/>
       <c r="R908" s="5"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="1:18" ht="14.25" customHeight="1">
       <c r="A909" s="5"/>
       <c r="B909" s="6"/>
       <c r="C909" s="5"/>
@@ -18380,7 +18657,7 @@
       <c r="Q909" s="5"/>
       <c r="R909" s="5"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="1:18" ht="14.25" customHeight="1">
       <c r="A910" s="5"/>
       <c r="B910" s="6"/>
       <c r="C910" s="5"/>
@@ -18400,7 +18677,7 @@
       <c r="Q910" s="5"/>
       <c r="R910" s="5"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="1:18" ht="14.25" customHeight="1">
       <c r="A911" s="5"/>
       <c r="B911" s="6"/>
       <c r="C911" s="5"/>
@@ -18420,7 +18697,7 @@
       <c r="Q911" s="5"/>
       <c r="R911" s="5"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="1:18" ht="14.25" customHeight="1">
       <c r="A912" s="5"/>
       <c r="B912" s="6"/>
       <c r="C912" s="5"/>
@@ -18440,7 +18717,7 @@
       <c r="Q912" s="5"/>
       <c r="R912" s="5"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="1:18" ht="14.25" customHeight="1">
       <c r="A913" s="5"/>
       <c r="B913" s="6"/>
       <c r="C913" s="5"/>
@@ -18460,7 +18737,7 @@
       <c r="Q913" s="5"/>
       <c r="R913" s="5"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="1:18" ht="14.25" customHeight="1">
       <c r="A914" s="5"/>
       <c r="B914" s="6"/>
       <c r="C914" s="5"/>
@@ -18480,7 +18757,7 @@
       <c r="Q914" s="5"/>
       <c r="R914" s="5"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="1:18" ht="14.25" customHeight="1">
       <c r="A915" s="5"/>
       <c r="B915" s="6"/>
       <c r="C915" s="5"/>
@@ -18500,7 +18777,7 @@
       <c r="Q915" s="5"/>
       <c r="R915" s="5"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="1:18" ht="14.25" customHeight="1">
       <c r="A916" s="5"/>
       <c r="B916" s="6"/>
       <c r="C916" s="5"/>
@@ -18520,7 +18797,7 @@
       <c r="Q916" s="5"/>
       <c r="R916" s="5"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="1:18" ht="14.25" customHeight="1">
       <c r="A917" s="5"/>
       <c r="B917" s="6"/>
       <c r="C917" s="5"/>
@@ -18540,7 +18817,7 @@
       <c r="Q917" s="5"/>
       <c r="R917" s="5"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="1:18" ht="14.25" customHeight="1">
       <c r="A918" s="5"/>
       <c r="B918" s="6"/>
       <c r="C918" s="5"/>
@@ -18560,7 +18837,7 @@
       <c r="Q918" s="5"/>
       <c r="R918" s="5"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="1:18" ht="14.25" customHeight="1">
       <c r="A919" s="5"/>
       <c r="B919" s="6"/>
       <c r="C919" s="5"/>
@@ -18580,7 +18857,7 @@
       <c r="Q919" s="5"/>
       <c r="R919" s="5"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="1:18" ht="14.25" customHeight="1">
       <c r="A920" s="5"/>
       <c r="B920" s="6"/>
       <c r="C920" s="5"/>
@@ -18600,7 +18877,7 @@
       <c r="Q920" s="5"/>
       <c r="R920" s="5"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="1:18" ht="14.25" customHeight="1">
       <c r="A921" s="5"/>
       <c r="B921" s="6"/>
       <c r="C921" s="5"/>
@@ -18620,7 +18897,7 @@
       <c r="Q921" s="5"/>
       <c r="R921" s="5"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="1:18" ht="14.25" customHeight="1">
       <c r="A922" s="5"/>
       <c r="B922" s="6"/>
       <c r="C922" s="5"/>
@@ -18640,7 +18917,7 @@
       <c r="Q922" s="5"/>
       <c r="R922" s="5"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="1:18" ht="14.25" customHeight="1">
       <c r="A923" s="5"/>
       <c r="B923" s="6"/>
       <c r="C923" s="5"/>
@@ -18660,7 +18937,7 @@
       <c r="Q923" s="5"/>
       <c r="R923" s="5"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="1:18" ht="14.25" customHeight="1">
       <c r="A924" s="5"/>
       <c r="B924" s="6"/>
       <c r="C924" s="5"/>
@@ -18680,7 +18957,7 @@
       <c r="Q924" s="5"/>
       <c r="R924" s="5"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="1:18" ht="14.25" customHeight="1">
       <c r="A925" s="5"/>
       <c r="B925" s="6"/>
       <c r="C925" s="5"/>
@@ -18700,7 +18977,7 @@
       <c r="Q925" s="5"/>
       <c r="R925" s="5"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="1:18" ht="14.25" customHeight="1">
       <c r="A926" s="5"/>
       <c r="B926" s="6"/>
       <c r="C926" s="5"/>
@@ -18720,7 +18997,7 @@
       <c r="Q926" s="5"/>
       <c r="R926" s="5"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="1:18" ht="14.25" customHeight="1">
       <c r="A927" s="5"/>
       <c r="B927" s="6"/>
       <c r="C927" s="5"/>
@@ -18740,7 +19017,7 @@
       <c r="Q927" s="5"/>
       <c r="R927" s="5"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="1:18" ht="14.25" customHeight="1">
       <c r="A928" s="5"/>
       <c r="B928" s="6"/>
       <c r="C928" s="5"/>
@@ -18760,7 +19037,7 @@
       <c r="Q928" s="5"/>
       <c r="R928" s="5"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="1:18" ht="14.25" customHeight="1">
       <c r="A929" s="5"/>
       <c r="B929" s="6"/>
       <c r="C929" s="5"/>
@@ -18780,7 +19057,7 @@
       <c r="Q929" s="5"/>
       <c r="R929" s="5"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="1:18" ht="14.25" customHeight="1">
       <c r="A930" s="5"/>
       <c r="B930" s="6"/>
       <c r="C930" s="5"/>
@@ -18800,7 +19077,7 @@
       <c r="Q930" s="5"/>
       <c r="R930" s="5"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="1:18" ht="14.25" customHeight="1">
       <c r="A931" s="5"/>
       <c r="B931" s="6"/>
       <c r="C931" s="5"/>
@@ -18820,7 +19097,7 @@
       <c r="Q931" s="5"/>
       <c r="R931" s="5"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="1:18" ht="14.25" customHeight="1">
       <c r="A932" s="5"/>
       <c r="B932" s="6"/>
       <c r="C932" s="5"/>
@@ -18840,7 +19117,7 @@
       <c r="Q932" s="5"/>
       <c r="R932" s="5"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="1:18" ht="14.25" customHeight="1">
       <c r="A933" s="5"/>
       <c r="B933" s="6"/>
       <c r="C933" s="5"/>
@@ -18860,7 +19137,7 @@
       <c r="Q933" s="5"/>
       <c r="R933" s="5"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="1:18" ht="14.25" customHeight="1">
       <c r="A934" s="5"/>
       <c r="B934" s="6"/>
       <c r="C934" s="5"/>
@@ -18880,7 +19157,7 @@
       <c r="Q934" s="5"/>
       <c r="R934" s="5"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="1:18" ht="14.25" customHeight="1">
       <c r="A935" s="5"/>
       <c r="B935" s="6"/>
       <c r="C935" s="5"/>
@@ -18900,7 +19177,7 @@
       <c r="Q935" s="5"/>
       <c r="R935" s="5"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="1:18" ht="14.25" customHeight="1">
       <c r="A936" s="5"/>
       <c r="B936" s="6"/>
       <c r="C936" s="5"/>
@@ -18920,7 +19197,7 @@
       <c r="Q936" s="5"/>
       <c r="R936" s="5"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="1:18" ht="14.25" customHeight="1">
       <c r="A937" s="5"/>
       <c r="B937" s="6"/>
       <c r="C937" s="5"/>
@@ -18940,7 +19217,7 @@
       <c r="Q937" s="5"/>
       <c r="R937" s="5"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="1:18" ht="14.25" customHeight="1">
       <c r="A938" s="5"/>
       <c r="B938" s="6"/>
       <c r="C938" s="5"/>
@@ -18960,7 +19237,7 @@
       <c r="Q938" s="5"/>
       <c r="R938" s="5"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="1:18" ht="14.25" customHeight="1">
       <c r="A939" s="5"/>
       <c r="B939" s="6"/>
       <c r="C939" s="5"/>
@@ -18980,7 +19257,7 @@
       <c r="Q939" s="5"/>
       <c r="R939" s="5"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="1:18" ht="14.25" customHeight="1">
       <c r="A940" s="5"/>
       <c r="B940" s="6"/>
       <c r="C940" s="5"/>
@@ -19000,7 +19277,7 @@
       <c r="Q940" s="5"/>
       <c r="R940" s="5"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="1:18" ht="14.25" customHeight="1">
       <c r="A941" s="5"/>
       <c r="B941" s="6"/>
       <c r="C941" s="5"/>
@@ -19020,7 +19297,7 @@
       <c r="Q941" s="5"/>
       <c r="R941" s="5"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="1:18" ht="14.25" customHeight="1">
       <c r="A942" s="5"/>
       <c r="B942" s="6"/>
       <c r="C942" s="5"/>
@@ -19040,7 +19317,7 @@
       <c r="Q942" s="5"/>
       <c r="R942" s="5"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="1:18" ht="14.25" customHeight="1">
       <c r="A943" s="5"/>
       <c r="B943" s="6"/>
       <c r="C943" s="5"/>
@@ -19060,7 +19337,7 @@
       <c r="Q943" s="5"/>
       <c r="R943" s="5"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="1:18" ht="14.25" customHeight="1">
       <c r="A944" s="5"/>
       <c r="B944" s="6"/>
       <c r="C944" s="5"/>
@@ -19080,7 +19357,7 @@
       <c r="Q944" s="5"/>
       <c r="R944" s="5"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="1:18" ht="14.25" customHeight="1">
       <c r="A945" s="5"/>
       <c r="B945" s="6"/>
       <c r="C945" s="5"/>
@@ -19100,7 +19377,7 @@
       <c r="Q945" s="5"/>
       <c r="R945" s="5"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="1:18" ht="14.25" customHeight="1">
       <c r="A946" s="5"/>
       <c r="B946" s="6"/>
       <c r="C946" s="5"/>
@@ -19120,7 +19397,7 @@
       <c r="Q946" s="5"/>
       <c r="R946" s="5"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="1:18" ht="14.25" customHeight="1">
       <c r="A947" s="5"/>
       <c r="B947" s="6"/>
       <c r="C947" s="5"/>
@@ -19140,7 +19417,7 @@
       <c r="Q947" s="5"/>
       <c r="R947" s="5"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="1:18" ht="14.25" customHeight="1">
       <c r="A948" s="5"/>
       <c r="B948" s="6"/>
       <c r="C948" s="5"/>
@@ -19160,7 +19437,7 @@
       <c r="Q948" s="5"/>
       <c r="R948" s="5"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="1:18" ht="14.25" customHeight="1">
       <c r="A949" s="5"/>
       <c r="B949" s="6"/>
       <c r="C949" s="5"/>
@@ -19180,7 +19457,7 @@
       <c r="Q949" s="5"/>
       <c r="R949" s="5"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="1:18" ht="14.25" customHeight="1">
       <c r="A950" s="5"/>
       <c r="B950" s="6"/>
       <c r="C950" s="5"/>
@@ -19200,7 +19477,7 @@
       <c r="Q950" s="5"/>
       <c r="R950" s="5"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="1:18" ht="14.25" customHeight="1">
       <c r="A951" s="5"/>
       <c r="B951" s="6"/>
       <c r="C951" s="5"/>
@@ -19220,7 +19497,7 @@
       <c r="Q951" s="5"/>
       <c r="R951" s="5"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="1:18" ht="14.25" customHeight="1">
       <c r="A952" s="5"/>
       <c r="B952" s="6"/>
       <c r="C952" s="5"/>
@@ -19240,7 +19517,7 @@
       <c r="Q952" s="5"/>
       <c r="R952" s="5"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="1:18" ht="14.25" customHeight="1">
       <c r="A953" s="5"/>
       <c r="B953" s="6"/>
       <c r="C953" s="5"/>
@@ -19260,7 +19537,7 @@
       <c r="Q953" s="5"/>
       <c r="R953" s="5"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="1:18" ht="14.25" customHeight="1">
       <c r="A954" s="5"/>
       <c r="B954" s="6"/>
       <c r="C954" s="5"/>
@@ -19280,7 +19557,7 @@
       <c r="Q954" s="5"/>
       <c r="R954" s="5"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="1:18" ht="14.25" customHeight="1">
       <c r="A955" s="5"/>
       <c r="B955" s="6"/>
       <c r="C955" s="5"/>
@@ -19300,7 +19577,7 @@
       <c r="Q955" s="5"/>
       <c r="R955" s="5"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="1:18" ht="14.25" customHeight="1">
       <c r="A956" s="5"/>
       <c r="B956" s="6"/>
       <c r="C956" s="5"/>
@@ -19320,7 +19597,7 @@
       <c r="Q956" s="5"/>
       <c r="R956" s="5"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="1:18" ht="14.25" customHeight="1">
       <c r="A957" s="5"/>
       <c r="B957" s="6"/>
       <c r="C957" s="5"/>
@@ -19340,7 +19617,7 @@
       <c r="Q957" s="5"/>
       <c r="R957" s="5"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="1:18" ht="14.25" customHeight="1">
       <c r="A958" s="5"/>
       <c r="B958" s="6"/>
       <c r="C958" s="5"/>
@@ -19360,7 +19637,7 @@
       <c r="Q958" s="5"/>
       <c r="R958" s="5"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="1:18" ht="14.25" customHeight="1">
       <c r="A959" s="5"/>
       <c r="B959" s="6"/>
       <c r="C959" s="5"/>
@@ -19380,7 +19657,7 @@
       <c r="Q959" s="5"/>
       <c r="R959" s="5"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="1:18" ht="14.25" customHeight="1">
       <c r="A960" s="5"/>
       <c r="B960" s="6"/>
       <c r="C960" s="5"/>
@@ -19400,7 +19677,7 @@
       <c r="Q960" s="5"/>
       <c r="R960" s="5"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="1:18" ht="14.25" customHeight="1">
       <c r="A961" s="5"/>
       <c r="B961" s="6"/>
       <c r="C961" s="5"/>
@@ -19420,7 +19697,7 @@
       <c r="Q961" s="5"/>
       <c r="R961" s="5"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="1:18" ht="14.25" customHeight="1">
       <c r="A962" s="5"/>
       <c r="B962" s="6"/>
       <c r="C962" s="5"/>
@@ -19440,7 +19717,7 @@
       <c r="Q962" s="5"/>
       <c r="R962" s="5"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="1:18" ht="14.25" customHeight="1">
       <c r="A963" s="5"/>
       <c r="B963" s="6"/>
       <c r="C963" s="5"/>
@@ -19460,7 +19737,7 @@
       <c r="Q963" s="5"/>
       <c r="R963" s="5"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="1:18" ht="14.25" customHeight="1">
       <c r="A964" s="5"/>
       <c r="B964" s="6"/>
       <c r="C964" s="5"/>
@@ -19480,7 +19757,7 @@
       <c r="Q964" s="5"/>
       <c r="R964" s="5"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="1:18" ht="14.25" customHeight="1">
       <c r="A965" s="5"/>
       <c r="B965" s="6"/>
       <c r="C965" s="5"/>
@@ -19500,7 +19777,7 @@
       <c r="Q965" s="5"/>
       <c r="R965" s="5"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="1:18" ht="14.25" customHeight="1">
       <c r="A966" s="5"/>
       <c r="B966" s="6"/>
       <c r="C966" s="5"/>
@@ -19520,7 +19797,7 @@
       <c r="Q966" s="5"/>
       <c r="R966" s="5"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="1:18" ht="14.25" customHeight="1">
       <c r="A967" s="5"/>
       <c r="B967" s="6"/>
       <c r="C967" s="5"/>
@@ -19540,7 +19817,7 @@
       <c r="Q967" s="5"/>
       <c r="R967" s="5"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="1:18" ht="14.25" customHeight="1">
       <c r="A968" s="5"/>
       <c r="B968" s="6"/>
       <c r="C968" s="5"/>
@@ -19560,7 +19837,7 @@
       <c r="Q968" s="5"/>
       <c r="R968" s="5"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="1:18" ht="14.25" customHeight="1">
       <c r="A969" s="5"/>
       <c r="B969" s="6"/>
       <c r="C969" s="5"/>
@@ -19580,7 +19857,7 @@
       <c r="Q969" s="5"/>
       <c r="R969" s="5"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="1:18" ht="14.25" customHeight="1">
       <c r="A970" s="5"/>
       <c r="B970" s="6"/>
       <c r="C970" s="5"/>
@@ -19600,7 +19877,7 @@
       <c r="Q970" s="5"/>
       <c r="R970" s="5"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="1:18" ht="14.25" customHeight="1">
       <c r="A971" s="5"/>
       <c r="B971" s="6"/>
       <c r="C971" s="5"/>
@@ -19620,7 +19897,7 @@
       <c r="Q971" s="5"/>
       <c r="R971" s="5"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="1:18" ht="14.25" customHeight="1">
       <c r="A972" s="5"/>
       <c r="B972" s="6"/>
       <c r="C972" s="5"/>
@@ -19640,7 +19917,7 @@
       <c r="Q972" s="5"/>
       <c r="R972" s="5"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="1:18" ht="14.25" customHeight="1">
       <c r="A973" s="5"/>
       <c r="B973" s="6"/>
       <c r="C973" s="5"/>
@@ -19660,7 +19937,7 @@
       <c r="Q973" s="5"/>
       <c r="R973" s="5"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="1:18" ht="14.25" customHeight="1">
       <c r="A974" s="5"/>
       <c r="B974" s="6"/>
       <c r="C974" s="5"/>
@@ -19680,7 +19957,7 @@
       <c r="Q974" s="5"/>
       <c r="R974" s="5"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="1:18" ht="14.25" customHeight="1">
       <c r="A975" s="5"/>
       <c r="B975" s="6"/>
       <c r="C975" s="5"/>
@@ -19700,7 +19977,7 @@
       <c r="Q975" s="5"/>
       <c r="R975" s="5"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="1:18" ht="14.25" customHeight="1">
       <c r="A976" s="5"/>
       <c r="B976" s="6"/>
       <c r="C976" s="5"/>
@@ -19720,7 +19997,7 @@
       <c r="Q976" s="5"/>
       <c r="R976" s="5"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="1:18" ht="14.25" customHeight="1">
       <c r="A977" s="5"/>
       <c r="B977" s="6"/>
       <c r="C977" s="5"/>
@@ -19740,7 +20017,7 @@
       <c r="Q977" s="5"/>
       <c r="R977" s="5"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="1:18" ht="14.25" customHeight="1">
       <c r="A978" s="5"/>
       <c r="B978" s="6"/>
       <c r="C978" s="5"/>
@@ -19760,7 +20037,7 @@
       <c r="Q978" s="5"/>
       <c r="R978" s="5"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="1:18" ht="14.25" customHeight="1">
       <c r="A979" s="5"/>
       <c r="B979" s="6"/>
       <c r="C979" s="5"/>
@@ -19780,7 +20057,7 @@
       <c r="Q979" s="5"/>
       <c r="R979" s="5"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="1:18" ht="14.25" customHeight="1">
       <c r="A980" s="5"/>
       <c r="B980" s="6"/>
       <c r="C980" s="5"/>
@@ -19800,7 +20077,7 @@
       <c r="Q980" s="5"/>
       <c r="R980" s="5"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="1:18" ht="14.25" customHeight="1">
       <c r="A981" s="5"/>
       <c r="B981" s="6"/>
       <c r="C981" s="5"/>
@@ -19820,7 +20097,7 @@
       <c r="Q981" s="5"/>
       <c r="R981" s="5"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="1:18" ht="14.25" customHeight="1">
       <c r="A982" s="5"/>
       <c r="B982" s="6"/>
       <c r="C982" s="5"/>
@@ -19840,7 +20117,7 @@
       <c r="Q982" s="5"/>
       <c r="R982" s="5"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="1:18" ht="14.25" customHeight="1">
       <c r="A983" s="5"/>
       <c r="B983" s="6"/>
       <c r="C983" s="5"/>
@@ -19860,7 +20137,7 @@
       <c r="Q983" s="5"/>
       <c r="R983" s="5"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="1:18" ht="14.25" customHeight="1">
       <c r="A984" s="5"/>
       <c r="B984" s="6"/>
       <c r="C984" s="5"/>
@@ -19880,7 +20157,7 @@
       <c r="Q984" s="5"/>
       <c r="R984" s="5"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="1:18" ht="14.25" customHeight="1">
       <c r="A985" s="5"/>
       <c r="B985" s="6"/>
       <c r="C985" s="5"/>
@@ -19900,7 +20177,7 @@
       <c r="Q985" s="5"/>
       <c r="R985" s="5"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="1:18" ht="14.25" customHeight="1">
       <c r="A986" s="5"/>
       <c r="B986" s="6"/>
       <c r="C986" s="5"/>
@@ -19920,7 +20197,7 @@
       <c r="Q986" s="5"/>
       <c r="R986" s="5"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="1:18" ht="14.25" customHeight="1">
       <c r="A987" s="5"/>
       <c r="B987" s="6"/>
       <c r="C987" s="5"/>
@@ -19940,7 +20217,7 @@
       <c r="Q987" s="5"/>
       <c r="R987" s="5"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="1:18" ht="14.25" customHeight="1">
       <c r="A988" s="5"/>
       <c r="B988" s="6"/>
       <c r="C988" s="5"/>
@@ -19960,7 +20237,7 @@
       <c r="Q988" s="5"/>
       <c r="R988" s="5"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="1:18" ht="14.25" customHeight="1">
       <c r="A989" s="5"/>
       <c r="B989" s="6"/>
       <c r="C989" s="5"/>
@@ -19980,7 +20257,7 @@
       <c r="Q989" s="5"/>
       <c r="R989" s="5"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="1:18" ht="14.25" customHeight="1">
       <c r="A990" s="5"/>
       <c r="B990" s="6"/>
       <c r="C990" s="5"/>
@@ -20000,7 +20277,7 @@
       <c r="Q990" s="5"/>
       <c r="R990" s="5"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="1:18" ht="14.25" customHeight="1">
       <c r="A991" s="5"/>
       <c r="B991" s="6"/>
       <c r="C991" s="5"/>
@@ -20020,7 +20297,7 @@
       <c r="Q991" s="5"/>
       <c r="R991" s="5"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="1:18" ht="14.25" customHeight="1">
       <c r="A992" s="5"/>
       <c r="B992" s="6"/>
       <c r="C992" s="5"/>
@@ -20040,7 +20317,7 @@
       <c r="Q992" s="5"/>
       <c r="R992" s="5"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="1:18" ht="14.25" customHeight="1">
       <c r="A993" s="5"/>
       <c r="B993" s="6"/>
       <c r="C993" s="5"/>
@@ -20060,7 +20337,7 @@
       <c r="Q993" s="5"/>
       <c r="R993" s="5"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="1:18" ht="14.25" customHeight="1">
       <c r="A994" s="5"/>
       <c r="B994" s="6"/>
       <c r="C994" s="5"/>
@@ -20080,7 +20357,7 @@
       <c r="Q994" s="5"/>
       <c r="R994" s="5"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="1:18" ht="14.25" customHeight="1">
       <c r="A995" s="5"/>
       <c r="B995" s="6"/>
       <c r="C995" s="5"/>
@@ -20100,7 +20377,7 @@
       <c r="Q995" s="5"/>
       <c r="R995" s="5"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="1:18" ht="14.25" customHeight="1">
       <c r="A996" s="5"/>
       <c r="B996" s="6"/>
       <c r="C996" s="5"/>
@@ -20120,7 +20397,7 @@
       <c r="Q996" s="5"/>
       <c r="R996" s="5"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="1:18" ht="14.25" customHeight="1">
       <c r="A997" s="5"/>
       <c r="B997" s="6"/>
       <c r="C997" s="5"/>
@@ -20140,7 +20417,7 @@
       <c r="Q997" s="5"/>
       <c r="R997" s="5"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="1:18" ht="14.25" customHeight="1">
       <c r="A998" s="5"/>
       <c r="B998" s="6"/>
       <c r="C998" s="5"/>
@@ -20160,7 +20437,7 @@
       <c r="Q998" s="5"/>
       <c r="R998" s="5"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="1:18" ht="14.25" customHeight="1">
       <c r="A999" s="5"/>
       <c r="B999" s="6"/>
       <c r="C999" s="5"/>
@@ -20180,7 +20457,7 @@
       <c r="Q999" s="5"/>
       <c r="R999" s="5"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="1:18" ht="14.25" customHeight="1">
       <c r="A1000" s="5"/>
       <c r="B1000" s="6"/>
       <c r="C1000" s="5"/>
@@ -20201,6 +20478,6 @@
       <c r="R1000" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>